--- a/df_general.xlsx
+++ b/df_general.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -898,11 +898,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -962,17 +962,22 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1010,7 +1015,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1044,6 +1049,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1078,9 +1084,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1253,14 +1260,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="A187" sqref="A186:XFD187"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="22.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1322,7 +1334,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1360,7 +1372,7 @@
         <v>3.25</v>
       </c>
       <c r="M2">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="N2">
         <v>3.35</v>
@@ -1378,7 +1390,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1410,7 +1422,7 @@
         <v>1.6</v>
       </c>
       <c r="K3">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="L3">
         <v>5</v>
@@ -1419,7 +1431,7 @@
         <v>1.6</v>
       </c>
       <c r="N3">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="O3">
         <v>5</v>
@@ -1434,7 +1446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1466,7 +1478,7 @@
         <v>5.7</v>
       </c>
       <c r="K4">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="L4">
         <v>1.58</v>
@@ -1493,13 +1505,13 @@
         <v>5.7</v>
       </c>
       <c r="T4">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="U4">
         <v>1.58</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1546,7 +1558,7 @@
         <v>1.25</v>
       </c>
       <c r="P5">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="Q5">
         <v>5.7</v>
@@ -1564,7 +1576,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1596,7 +1608,7 @@
         <v>1.45</v>
       </c>
       <c r="K6">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L6">
         <v>6.8</v>
@@ -1605,7 +1617,7 @@
         <v>1.47</v>
       </c>
       <c r="N6">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="O6">
         <v>6.7</v>
@@ -1629,7 +1641,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1694,7 +1706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1732,7 +1744,7 @@
         <v>15.5</v>
       </c>
       <c r="M8">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="N8">
         <v>7.7</v>
@@ -1741,16 +1753,16 @@
         <v>16</v>
       </c>
       <c r="P8">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Q8">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="R8">
         <v>17</v>
       </c>
       <c r="S8">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="T8">
         <v>8.4</v>
@@ -1759,7 +1771,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1791,7 +1803,7 @@
         <v>1.41</v>
       </c>
       <c r="K9">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L9">
         <v>7.7</v>
@@ -1809,7 +1821,7 @@
         <v>1.42</v>
       </c>
       <c r="Q9">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="R9">
         <v>7.4</v>
@@ -1818,13 +1830,13 @@
         <v>1.44</v>
       </c>
       <c r="T9">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="U9">
         <v>7.3</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1856,7 +1868,7 @@
         <v>1.38</v>
       </c>
       <c r="K10">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="L10">
         <v>8.9</v>
@@ -1877,7 +1889,7 @@
         <v>5.2</v>
       </c>
       <c r="R10">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="S10">
         <v>1.41</v>
@@ -1889,7 +1901,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1954,7 +1966,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2019,7 +2031,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2033,7 +2045,7 @@
         <v>40</v>
       </c>
       <c r="E13" s="2">
-        <v>44546.94791666666</v>
+        <v>44546.947916666657</v>
       </c>
       <c r="F13" t="s">
         <v>67</v>
@@ -2057,7 +2069,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2071,7 +2083,7 @@
         <v>40</v>
       </c>
       <c r="E14" s="2">
-        <v>44546.95833333334</v>
+        <v>44546.958333333343</v>
       </c>
       <c r="F14" t="s">
         <v>68</v>
@@ -2086,7 +2098,7 @@
         <v>290</v>
       </c>
       <c r="J14">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="K14">
         <v>12</v>
@@ -2104,7 +2116,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2118,7 +2130,7 @@
         <v>35</v>
       </c>
       <c r="E15" s="2">
-        <v>44546.95833333334</v>
+        <v>44546.958333333343</v>
       </c>
       <c r="F15" t="s">
         <v>69</v>
@@ -2145,13 +2157,13 @@
         <v>1.82</v>
       </c>
       <c r="N15">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="O15">
         <v>3.85</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2165,7 +2177,7 @@
         <v>40</v>
       </c>
       <c r="E16" s="2">
-        <v>44546.94791666666</v>
+        <v>44546.947916666657</v>
       </c>
       <c r="F16" t="s">
         <v>67</v>
@@ -2189,7 +2201,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2203,7 +2215,7 @@
         <v>40</v>
       </c>
       <c r="E17" s="2">
-        <v>44546.95833333334</v>
+        <v>44546.958333333343</v>
       </c>
       <c r="F17" t="s">
         <v>68</v>
@@ -2218,7 +2230,7 @@
         <v>290</v>
       </c>
       <c r="J17">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="K17">
         <v>12</v>
@@ -2236,7 +2248,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2250,7 +2262,7 @@
         <v>35</v>
       </c>
       <c r="E18" s="2">
-        <v>44546.95833333334</v>
+        <v>44546.958333333343</v>
       </c>
       <c r="F18" t="s">
         <v>69</v>
@@ -2277,13 +2289,13 @@
         <v>1.82</v>
       </c>
       <c r="N18">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="O18">
         <v>3.85</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2297,7 +2309,7 @@
         <v>41</v>
       </c>
       <c r="E19" s="2">
-        <v>44547.83333333334</v>
+        <v>44547.833333333343</v>
       </c>
       <c r="F19" t="s">
         <v>70</v>
@@ -2348,7 +2360,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2362,7 +2374,7 @@
         <v>42</v>
       </c>
       <c r="E20" s="2">
-        <v>44547.83333333334</v>
+        <v>44547.833333333343</v>
       </c>
       <c r="F20" t="s">
         <v>71</v>
@@ -2413,7 +2425,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2427,7 +2439,7 @@
         <v>39</v>
       </c>
       <c r="E21" s="2">
-        <v>44547.85416666666</v>
+        <v>44547.854166666657</v>
       </c>
       <c r="F21" t="s">
         <v>72</v>
@@ -2463,7 +2475,7 @@
         <v>1.57</v>
       </c>
       <c r="Q21">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="R21">
         <v>6.6</v>
@@ -2478,7 +2490,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2492,7 +2504,7 @@
         <v>36</v>
       </c>
       <c r="E22" s="2">
-        <v>44547.91666666666</v>
+        <v>44547.916666666657</v>
       </c>
       <c r="F22" t="s">
         <v>73</v>
@@ -2543,7 +2555,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2572,19 +2584,19 @@
         <v>290</v>
       </c>
       <c r="J23">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="K23">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="L23">
         <v>16</v>
       </c>
       <c r="M23">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="N23">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="O23">
         <v>18.5</v>
@@ -2608,7 +2620,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2673,7 +2685,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2687,7 +2699,7 @@
         <v>39</v>
       </c>
       <c r="E25" s="2">
-        <v>44547.94791666666</v>
+        <v>44547.947916666657</v>
       </c>
       <c r="F25" t="s">
         <v>76</v>
@@ -2708,7 +2720,7 @@
         <v>11</v>
       </c>
       <c r="L25">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M25">
         <v>28</v>
@@ -2717,16 +2729,16 @@
         <v>10.5</v>
       </c>
       <c r="O25">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P25">
         <v>19</v>
       </c>
       <c r="Q25">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="R25">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="S25">
         <v>18</v>
@@ -2735,10 +2747,10 @@
         <v>8.4</v>
       </c>
       <c r="U25">
-        <v>1.16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2752,7 +2764,7 @@
         <v>35</v>
       </c>
       <c r="E26" s="2">
-        <v>44547.94791666666</v>
+        <v>44547.947916666657</v>
       </c>
       <c r="F26" t="s">
         <v>77</v>
@@ -2767,7 +2779,7 @@
         <v>291</v>
       </c>
       <c r="J26">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="K26">
         <v>3.35</v>
@@ -2803,7 +2815,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2817,7 +2829,7 @@
         <v>34</v>
       </c>
       <c r="E27" s="2">
-        <v>44547.95833333334</v>
+        <v>44547.958333333343</v>
       </c>
       <c r="F27" t="s">
         <v>78</v>
@@ -2856,7 +2868,7 @@
         <v>3.4</v>
       </c>
       <c r="R27">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="S27">
         <v>2.04</v>
@@ -2868,7 +2880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2933,7 +2945,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2947,7 +2959,7 @@
         <v>42</v>
       </c>
       <c r="E29" s="2">
-        <v>44548.60416666666</v>
+        <v>44548.604166666657</v>
       </c>
       <c r="F29" t="s">
         <v>80</v>
@@ -2995,10 +3007,10 @@
         <v>3.7</v>
       </c>
       <c r="U29">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3012,7 +3024,7 @@
         <v>36</v>
       </c>
       <c r="E30" s="2">
-        <v>44548.77083333334</v>
+        <v>44548.770833333343</v>
       </c>
       <c r="F30" t="s">
         <v>81</v>
@@ -3045,7 +3057,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3059,7 +3071,7 @@
         <v>37</v>
       </c>
       <c r="E31" s="2">
-        <v>44548.77083333334</v>
+        <v>44548.770833333343</v>
       </c>
       <c r="F31" t="s">
         <v>82</v>
@@ -3083,16 +3095,16 @@
         <v>1.65</v>
       </c>
       <c r="M31">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="N31">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="O31">
         <v>1.69</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3106,7 +3118,7 @@
         <v>36</v>
       </c>
       <c r="E32" s="2">
-        <v>44548.77083333334</v>
+        <v>44548.770833333343</v>
       </c>
       <c r="F32" t="s">
         <v>83</v>
@@ -3127,7 +3139,7 @@
         <v>3.1</v>
       </c>
       <c r="L32">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="M32">
         <v>2.08</v>
@@ -3136,10 +3148,10 @@
         <v>3.05</v>
       </c>
       <c r="O32">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3153,7 +3165,7 @@
         <v>41</v>
       </c>
       <c r="E33" s="2">
-        <v>44548.79166666666</v>
+        <v>44548.791666666657</v>
       </c>
       <c r="F33" t="s">
         <v>84</v>
@@ -3186,7 +3198,7 @@
         <v>2.9</v>
       </c>
       <c r="P33">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="Q33">
         <v>3.4</v>
@@ -3195,7 +3207,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3209,7 +3221,7 @@
         <v>41</v>
       </c>
       <c r="E34" s="2">
-        <v>44548.79166666666</v>
+        <v>44548.791666666657</v>
       </c>
       <c r="F34" t="s">
         <v>85</v>
@@ -3251,7 +3263,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3298,7 +3310,7 @@
         <v>3.5</v>
       </c>
       <c r="P35">
-        <v>2.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="Q35">
         <v>3.3</v>
@@ -3316,7 +3328,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3330,7 +3342,7 @@
         <v>44</v>
       </c>
       <c r="E36" s="2">
-        <v>44548.83333333334</v>
+        <v>44548.833333333343</v>
       </c>
       <c r="F36" t="s">
         <v>87</v>
@@ -3372,7 +3384,7 @@
         <v>1.78</v>
       </c>
       <c r="S36">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="T36">
         <v>3.7</v>
@@ -3381,7 +3393,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3395,7 +3407,7 @@
         <v>39</v>
       </c>
       <c r="E37" s="2">
-        <v>44548.83333333334</v>
+        <v>44548.833333333343</v>
       </c>
       <c r="F37" t="s">
         <v>88</v>
@@ -3410,7 +3422,7 @@
         <v>291</v>
       </c>
       <c r="J37">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="K37">
         <v>3.5</v>
@@ -3419,7 +3431,7 @@
         <v>1.97</v>
       </c>
       <c r="M37">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="N37">
         <v>3.5</v>
@@ -3437,7 +3449,7 @@
         <v>1.91</v>
       </c>
       <c r="S37">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="T37">
         <v>3.55</v>
@@ -3446,7 +3458,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3460,7 +3472,7 @@
         <v>41</v>
       </c>
       <c r="E38" s="2">
-        <v>44548.83333333334</v>
+        <v>44548.833333333343</v>
       </c>
       <c r="F38" t="s">
         <v>89</v>
@@ -3487,7 +3499,7 @@
         <v>1.53</v>
       </c>
       <c r="N38">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="O38">
         <v>5.5</v>
@@ -3508,10 +3520,10 @@
         <v>4.7</v>
       </c>
       <c r="U38">
-        <v>5.1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3525,7 +3537,7 @@
         <v>40</v>
       </c>
       <c r="E39" s="2">
-        <v>44548.85416666666</v>
+        <v>44548.854166666657</v>
       </c>
       <c r="F39" t="s">
         <v>90</v>
@@ -3576,7 +3588,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3590,7 +3602,7 @@
         <v>45</v>
       </c>
       <c r="E40" s="2">
-        <v>44548.85416666666</v>
+        <v>44548.854166666657</v>
       </c>
       <c r="F40" t="s">
         <v>91</v>
@@ -3623,7 +3635,7 @@
         <v>3.8</v>
       </c>
       <c r="P40">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -3632,7 +3644,7 @@
         <v>3.55</v>
       </c>
       <c r="S40">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="T40">
         <v>3.05</v>
@@ -3641,7 +3653,7 @@
         <v>3.55</v>
       </c>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3655,7 +3667,7 @@
         <v>34</v>
       </c>
       <c r="E41" s="2">
-        <v>44548.85416666666</v>
+        <v>44548.854166666657</v>
       </c>
       <c r="F41" t="s">
         <v>92</v>
@@ -3706,7 +3718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3720,7 +3732,7 @@
         <v>43</v>
       </c>
       <c r="E42" s="2">
-        <v>44548.85416666666</v>
+        <v>44548.854166666657</v>
       </c>
       <c r="F42" t="s">
         <v>93</v>
@@ -3756,22 +3768,22 @@
         <v>5.2</v>
       </c>
       <c r="Q42">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="R42">
         <v>1.6</v>
       </c>
       <c r="S42">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="T42">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="U42">
         <v>1.63</v>
       </c>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3785,7 +3797,7 @@
         <v>35</v>
       </c>
       <c r="E43" s="2">
-        <v>44548.85416666666</v>
+        <v>44548.854166666657</v>
       </c>
       <c r="F43" t="s">
         <v>94</v>
@@ -3806,7 +3818,7 @@
         <v>3.85</v>
       </c>
       <c r="L43">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M43">
         <v>1.74</v>
@@ -3815,7 +3827,7 @@
         <v>3.85</v>
       </c>
       <c r="O43">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="P43">
         <v>1.69</v>
@@ -3836,7 +3848,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3850,7 +3862,7 @@
         <v>35</v>
       </c>
       <c r="E44" s="2">
-        <v>44548.85416666666</v>
+        <v>44548.854166666657</v>
       </c>
       <c r="F44" t="s">
         <v>95</v>
@@ -3865,13 +3877,13 @@
         <v>290</v>
       </c>
       <c r="J44">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="K44">
         <v>3.8</v>
       </c>
       <c r="L44">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="M44">
         <v>2.6</v>
@@ -3901,7 +3913,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3915,7 +3927,7 @@
         <v>37</v>
       </c>
       <c r="E45" s="2">
-        <v>44548.86458333334</v>
+        <v>44548.864583333343</v>
       </c>
       <c r="F45" t="s">
         <v>96</v>
@@ -3966,7 +3978,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3980,7 +3992,7 @@
         <v>42</v>
       </c>
       <c r="E46" s="2">
-        <v>44548.91666666666</v>
+        <v>44548.916666666657</v>
       </c>
       <c r="F46" t="s">
         <v>97</v>
@@ -4016,7 +4028,7 @@
         <v>1.61</v>
       </c>
       <c r="Q46">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="R46">
         <v>5.3</v>
@@ -4025,13 +4037,13 @@
         <v>1.64</v>
       </c>
       <c r="T46">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="U46">
-        <v>5.1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4045,7 +4057,7 @@
         <v>37</v>
       </c>
       <c r="E47" s="2">
-        <v>44548.91666666666</v>
+        <v>44548.916666666657</v>
       </c>
       <c r="F47" t="s">
         <v>98</v>
@@ -4096,7 +4108,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4110,7 +4122,7 @@
         <v>37</v>
       </c>
       <c r="E48" s="2">
-        <v>44548.91666666666</v>
+        <v>44548.916666666657</v>
       </c>
       <c r="F48" t="s">
         <v>99</v>
@@ -4161,7 +4173,7 @@
         <v>3.45</v>
       </c>
     </row>
-    <row r="49" spans="1:21">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4196,7 +4208,7 @@
         <v>3.55</v>
       </c>
       <c r="L49">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="M49">
         <v>2.6</v>
@@ -4205,7 +4217,7 @@
         <v>3.6</v>
       </c>
       <c r="O49">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="P49">
         <v>2.65</v>
@@ -4214,7 +4226,7 @@
         <v>3.6</v>
       </c>
       <c r="R49">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="S49">
         <v>2.6</v>
@@ -4223,10 +4235,10 @@
         <v>3.6</v>
       </c>
       <c r="U49">
-        <v>2.55</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4240,7 +4252,7 @@
         <v>35</v>
       </c>
       <c r="E50" s="2">
-        <v>44548.94791666666</v>
+        <v>44548.947916666657</v>
       </c>
       <c r="F50" t="s">
         <v>57</v>
@@ -4267,7 +4279,7 @@
         <v>1.44</v>
       </c>
       <c r="N50">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="O50">
         <v>7.9</v>
@@ -4279,7 +4291,7 @@
         <v>4.8</v>
       </c>
       <c r="R50">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="S50">
         <v>1.37</v>
@@ -4288,10 +4300,10 @@
         <v>4.8</v>
       </c>
       <c r="U50">
-        <v>8.800000000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4305,7 +4317,7 @@
         <v>39</v>
       </c>
       <c r="E51" s="2">
-        <v>44548.94791666666</v>
+        <v>44548.947916666657</v>
       </c>
       <c r="F51" t="s">
         <v>101</v>
@@ -4326,7 +4338,7 @@
         <v>3.25</v>
       </c>
       <c r="L51">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="M51">
         <v>3.15</v>
@@ -4335,7 +4347,7 @@
         <v>3.2</v>
       </c>
       <c r="O51">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="P51">
         <v>3.1</v>
@@ -4353,10 +4365,10 @@
         <v>3.25</v>
       </c>
       <c r="U51">
-        <v>2.45</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4370,7 +4382,7 @@
         <v>37</v>
       </c>
       <c r="E52" s="2">
-        <v>44548.95833333334</v>
+        <v>44548.958333333343</v>
       </c>
       <c r="F52" t="s">
         <v>102</v>
@@ -4400,7 +4412,7 @@
         <v>3.15</v>
       </c>
       <c r="O52">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="P52">
         <v>3.7</v>
@@ -4421,7 +4433,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="53" spans="1:21">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4435,7 +4447,7 @@
         <v>34</v>
       </c>
       <c r="E53" s="2">
-        <v>44548.95833333334</v>
+        <v>44548.958333333343</v>
       </c>
       <c r="F53" t="s">
         <v>103</v>
@@ -4486,7 +4498,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="54" spans="1:21">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4500,7 +4512,7 @@
         <v>36</v>
       </c>
       <c r="E54" s="2">
-        <v>44548.97916666666</v>
+        <v>44548.979166666657</v>
       </c>
       <c r="F54" t="s">
         <v>104</v>
@@ -4524,7 +4536,7 @@
         <v>1.8</v>
       </c>
       <c r="M54">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="N54">
         <v>3.4</v>
@@ -4551,7 +4563,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="55" spans="1:21">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4598,7 +4610,7 @@
         <v>3.25</v>
       </c>
       <c r="P55">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -4607,7 +4619,7 @@
         <v>3.5</v>
       </c>
       <c r="S55">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="T55">
         <v>3.15</v>
@@ -4616,7 +4628,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="56" spans="1:21">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4663,7 +4675,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="57" spans="1:21">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4677,7 +4689,7 @@
         <v>34</v>
       </c>
       <c r="E57" s="2">
-        <v>44549.76041666666</v>
+        <v>44549.760416666657</v>
       </c>
       <c r="F57" t="s">
         <v>107</v>
@@ -4710,7 +4722,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="58" spans="1:21">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4724,7 +4736,7 @@
         <v>41</v>
       </c>
       <c r="E58" s="2">
-        <v>44549.77083333334</v>
+        <v>44549.770833333343</v>
       </c>
       <c r="F58" t="s">
         <v>108</v>
@@ -4742,16 +4754,16 @@
         <v>1.78</v>
       </c>
       <c r="K58">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="L58">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="M58">
         <v>1.79</v>
       </c>
       <c r="N58">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="O58">
         <v>4</v>
@@ -4760,13 +4772,13 @@
         <v>1.79</v>
       </c>
       <c r="Q58">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="R58">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:21">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4780,7 +4792,7 @@
         <v>41</v>
       </c>
       <c r="E59" s="2">
-        <v>44549.77083333334</v>
+        <v>44549.770833333343</v>
       </c>
       <c r="F59" t="s">
         <v>109</v>
@@ -4822,7 +4834,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="60" spans="1:21">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4878,7 +4890,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="61" spans="1:21">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4892,7 +4904,7 @@
         <v>41</v>
       </c>
       <c r="E61" s="2">
-        <v>44549.79166666666</v>
+        <v>44549.791666666657</v>
       </c>
       <c r="F61" t="s">
         <v>111</v>
@@ -4934,7 +4946,7 @@
         <v>2.85</v>
       </c>
       <c r="S61">
-        <v>2.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="T61">
         <v>3.5</v>
@@ -4943,7 +4955,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="62" spans="1:21">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4957,7 +4969,7 @@
         <v>43</v>
       </c>
       <c r="E62" s="2">
-        <v>44549.72916666666</v>
+        <v>44549.729166666657</v>
       </c>
       <c r="F62" t="s">
         <v>112</v>
@@ -4972,7 +4984,7 @@
         <v>290</v>
       </c>
       <c r="J62">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="K62">
         <v>3.6</v>
@@ -4981,7 +4993,7 @@
         <v>2.7</v>
       </c>
       <c r="M62">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="N62">
         <v>3.6</v>
@@ -4990,7 +5002,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="63" spans="1:21">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5043,10 +5055,10 @@
         <v>3.6</v>
       </c>
       <c r="R63">
-        <v>2.26</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5060,7 +5072,7 @@
         <v>34</v>
       </c>
       <c r="E64" s="2">
-        <v>44549.76041666666</v>
+        <v>44549.760416666657</v>
       </c>
       <c r="F64" t="s">
         <v>107</v>
@@ -5102,7 +5114,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="65" spans="1:21">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5116,7 +5128,7 @@
         <v>41</v>
       </c>
       <c r="E65" s="2">
-        <v>44549.77083333334</v>
+        <v>44549.770833333343</v>
       </c>
       <c r="F65" t="s">
         <v>109</v>
@@ -5167,7 +5179,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="66" spans="1:21">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5181,7 +5193,7 @@
         <v>41</v>
       </c>
       <c r="E66" s="2">
-        <v>44549.77083333334</v>
+        <v>44549.770833333343</v>
       </c>
       <c r="F66" t="s">
         <v>108</v>
@@ -5199,16 +5211,16 @@
         <v>1.78</v>
       </c>
       <c r="K66">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="L66">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="M66">
         <v>1.79</v>
       </c>
       <c r="N66">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="O66">
         <v>4</v>
@@ -5217,7 +5229,7 @@
         <v>1.79</v>
       </c>
       <c r="Q66">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="R66">
         <v>4</v>
@@ -5232,7 +5244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:21">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5297,7 +5309,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="68" spans="1:21">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5311,7 +5323,7 @@
         <v>41</v>
       </c>
       <c r="E68" s="2">
-        <v>44549.79166666666</v>
+        <v>44549.791666666657</v>
       </c>
       <c r="F68" t="s">
         <v>111</v>
@@ -5353,7 +5365,7 @@
         <v>2.85</v>
       </c>
       <c r="S68">
-        <v>2.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="T68">
         <v>3.5</v>
@@ -5362,7 +5374,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="69" spans="1:21">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5427,7 +5439,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="70" spans="1:21">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5474,10 +5486,10 @@
         <v>1.69</v>
       </c>
       <c r="P70">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="Q70">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="R70">
         <v>1.71</v>
@@ -5492,7 +5504,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="71" spans="1:21">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5527,7 +5539,7 @@
         <v>4</v>
       </c>
       <c r="L71">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="M71">
         <v>1.85</v>
@@ -5536,7 +5548,7 @@
         <v>4</v>
       </c>
       <c r="O71">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="P71">
         <v>1.87</v>
@@ -5557,7 +5569,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="72" spans="1:21">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5571,7 +5583,7 @@
         <v>39</v>
       </c>
       <c r="E72" s="2">
-        <v>44549.83333333334</v>
+        <v>44549.833333333343</v>
       </c>
       <c r="F72" t="s">
         <v>116</v>
@@ -5622,7 +5634,7 @@
         <v>3.45</v>
       </c>
     </row>
-    <row r="73" spans="1:21">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5636,7 +5648,7 @@
         <v>39</v>
       </c>
       <c r="E73" s="2">
-        <v>44549.83333333334</v>
+        <v>44549.833333333343</v>
       </c>
       <c r="F73" t="s">
         <v>117</v>
@@ -5684,10 +5696,10 @@
         <v>3.65</v>
       </c>
       <c r="U73">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5701,7 +5713,7 @@
         <v>36</v>
       </c>
       <c r="E74" s="2">
-        <v>44549.83333333334</v>
+        <v>44549.833333333343</v>
       </c>
       <c r="F74" t="s">
         <v>118</v>
@@ -5716,7 +5728,7 @@
         <v>290</v>
       </c>
       <c r="J74">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="K74">
         <v>7.1</v>
@@ -5725,7 +5737,7 @@
         <v>20</v>
       </c>
       <c r="M74">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="N74">
         <v>7.1</v>
@@ -5734,7 +5746,7 @@
         <v>20</v>
       </c>
       <c r="P74">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -5743,7 +5755,7 @@
         <v>20</v>
       </c>
       <c r="S74">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="T74">
         <v>7.1</v>
@@ -5752,7 +5764,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:21">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5766,7 +5778,7 @@
         <v>36</v>
       </c>
       <c r="E75" s="2">
-        <v>44549.83333333334</v>
+        <v>44549.833333333343</v>
       </c>
       <c r="F75" t="s">
         <v>119</v>
@@ -5817,7 +5829,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="76" spans="1:21">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5831,7 +5843,7 @@
         <v>44</v>
       </c>
       <c r="E76" s="2">
-        <v>44549.83333333334</v>
+        <v>44549.833333333343</v>
       </c>
       <c r="F76" t="s">
         <v>120</v>
@@ -5876,13 +5888,13 @@
         <v>5.6</v>
       </c>
       <c r="T76">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="U76">
         <v>1.58</v>
       </c>
     </row>
-    <row r="77" spans="1:21">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5896,7 +5908,7 @@
         <v>34</v>
       </c>
       <c r="E77" s="2">
-        <v>44549.85416666666</v>
+        <v>44549.854166666657</v>
       </c>
       <c r="F77" t="s">
         <v>121</v>
@@ -5947,7 +5959,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="78" spans="1:21">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5961,7 +5973,7 @@
         <v>45</v>
       </c>
       <c r="E78" s="2">
-        <v>44549.85416666666</v>
+        <v>44549.854166666657</v>
       </c>
       <c r="F78" t="s">
         <v>122</v>
@@ -6012,7 +6024,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="79" spans="1:21">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -6026,7 +6038,7 @@
         <v>45</v>
       </c>
       <c r="E79" s="2">
-        <v>44549.85416666666</v>
+        <v>44549.854166666657</v>
       </c>
       <c r="F79" t="s">
         <v>123</v>
@@ -6077,7 +6089,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="80" spans="1:21">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -6091,7 +6103,7 @@
         <v>35</v>
       </c>
       <c r="E80" s="2">
-        <v>44549.85416666666</v>
+        <v>44549.854166666657</v>
       </c>
       <c r="F80" t="s">
         <v>69</v>
@@ -6142,7 +6154,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="81" spans="1:21">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -6156,7 +6168,7 @@
         <v>36</v>
       </c>
       <c r="E81" s="2">
-        <v>44549.91666666666</v>
+        <v>44549.916666666657</v>
       </c>
       <c r="F81" t="s">
         <v>124</v>
@@ -6207,7 +6219,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="82" spans="1:21">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -6221,7 +6233,7 @@
         <v>39</v>
       </c>
       <c r="E82" s="2">
-        <v>44549.94791666666</v>
+        <v>44549.947916666657</v>
       </c>
       <c r="F82" t="s">
         <v>125</v>
@@ -6272,7 +6284,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="83" spans="1:21">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -6286,7 +6298,7 @@
         <v>45</v>
       </c>
       <c r="E83" s="2">
-        <v>44550.85416666666</v>
+        <v>44550.854166666657</v>
       </c>
       <c r="F83" t="s">
         <v>126</v>
@@ -6304,7 +6316,7 @@
         <v>1.33</v>
       </c>
       <c r="K83">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="L83">
         <v>9.1</v>
@@ -6313,7 +6325,7 @@
         <v>1.33</v>
       </c>
       <c r="N83">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="O83">
         <v>9.1</v>
@@ -6322,22 +6334,22 @@
         <v>1.4</v>
       </c>
       <c r="Q83">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="R83">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="S83">
         <v>1.4</v>
       </c>
       <c r="T83">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="U83">
-        <v>8.300000000000001</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -6351,7 +6363,7 @@
         <v>45</v>
       </c>
       <c r="E84" s="2">
-        <v>44550.85416666666</v>
+        <v>44550.854166666657</v>
       </c>
       <c r="F84" t="s">
         <v>127</v>
@@ -6369,7 +6381,7 @@
         <v>1.42</v>
       </c>
       <c r="K84">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="L84">
         <v>9.6</v>
@@ -6381,7 +6393,7 @@
         <v>4</v>
       </c>
       <c r="O84">
-        <v>9.800000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="P84">
         <v>1.5</v>
@@ -6390,7 +6402,7 @@
         <v>3.8</v>
       </c>
       <c r="R84">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="S84">
         <v>1.47</v>
@@ -6399,10 +6411,10 @@
         <v>3.9</v>
       </c>
       <c r="U84">
-        <v>8.699999999999999</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -6416,7 +6428,7 @@
         <v>34</v>
       </c>
       <c r="E85" s="2">
-        <v>44550.95833333334</v>
+        <v>44550.958333333343</v>
       </c>
       <c r="F85" t="s">
         <v>128</v>
@@ -6467,7 +6479,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="86" spans="1:21">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -6481,7 +6493,7 @@
         <v>45</v>
       </c>
       <c r="E86" s="2">
-        <v>44550.85416666666</v>
+        <v>44550.854166666657</v>
       </c>
       <c r="F86" t="s">
         <v>126</v>
@@ -6499,7 +6511,7 @@
         <v>1.33</v>
       </c>
       <c r="K86">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="L86">
         <v>9.1</v>
@@ -6508,7 +6520,7 @@
         <v>1.33</v>
       </c>
       <c r="N86">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="O86">
         <v>9.1</v>
@@ -6517,22 +6529,22 @@
         <v>1.4</v>
       </c>
       <c r="Q86">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="R86">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="S86">
         <v>1.4</v>
       </c>
       <c r="T86">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="U86">
-        <v>8.300000000000001</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -6546,7 +6558,7 @@
         <v>45</v>
       </c>
       <c r="E87" s="2">
-        <v>44550.85416666666</v>
+        <v>44550.854166666657</v>
       </c>
       <c r="F87" t="s">
         <v>127</v>
@@ -6564,7 +6576,7 @@
         <v>1.42</v>
       </c>
       <c r="K87">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="L87">
         <v>9.6</v>
@@ -6576,7 +6588,7 @@
         <v>4</v>
       </c>
       <c r="O87">
-        <v>9.800000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="P87">
         <v>1.5</v>
@@ -6585,7 +6597,7 @@
         <v>3.8</v>
       </c>
       <c r="R87">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="S87">
         <v>1.47</v>
@@ -6594,10 +6606,10 @@
         <v>3.9</v>
       </c>
       <c r="U87">
-        <v>8.699999999999999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -6611,7 +6623,7 @@
         <v>34</v>
       </c>
       <c r="E88" s="2">
-        <v>44550.95833333334</v>
+        <v>44550.958333333343</v>
       </c>
       <c r="F88" t="s">
         <v>128</v>
@@ -6662,7 +6674,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="89" spans="1:21">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -6676,7 +6688,7 @@
         <v>41</v>
       </c>
       <c r="E89" s="2">
-        <v>44551.70833333334</v>
+        <v>44551.708333333343</v>
       </c>
       <c r="F89" t="s">
         <v>129</v>
@@ -6727,7 +6739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:21">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -6741,7 +6753,7 @@
         <v>41</v>
       </c>
       <c r="E90" s="2">
-        <v>44551.70833333334</v>
+        <v>44551.708333333343</v>
       </c>
       <c r="F90" t="s">
         <v>130</v>
@@ -6762,7 +6774,7 @@
         <v>3.5</v>
       </c>
       <c r="L90">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="M90">
         <v>1.91</v>
@@ -6771,7 +6783,7 @@
         <v>3.5</v>
       </c>
       <c r="O90">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="P90">
         <v>1.91</v>
@@ -6780,7 +6792,7 @@
         <v>3.5</v>
       </c>
       <c r="R90">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="S90">
         <v>1.91</v>
@@ -6789,10 +6801,10 @@
         <v>3.5</v>
       </c>
       <c r="U90">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -6806,7 +6818,7 @@
         <v>41</v>
       </c>
       <c r="E91" s="2">
-        <v>44551.83333333334</v>
+        <v>44551.833333333343</v>
       </c>
       <c r="F91" t="s">
         <v>131</v>
@@ -6836,7 +6848,7 @@
         <v>3.4</v>
       </c>
       <c r="O91">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="P91">
         <v>3.1</v>
@@ -6857,7 +6869,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="92" spans="1:21">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -6871,7 +6883,7 @@
         <v>41</v>
       </c>
       <c r="E92" s="2">
-        <v>44551.83333333334</v>
+        <v>44551.833333333343</v>
       </c>
       <c r="F92" t="s">
         <v>132</v>
@@ -6886,7 +6898,7 @@
         <v>290</v>
       </c>
       <c r="J92">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="K92">
         <v>3.55</v>
@@ -6922,7 +6934,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="93" spans="1:21">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -6936,7 +6948,7 @@
         <v>37</v>
       </c>
       <c r="E93" s="2">
-        <v>44551.86458333334</v>
+        <v>44551.864583333343</v>
       </c>
       <c r="F93" t="s">
         <v>133</v>
@@ -6954,7 +6966,7 @@
         <v>1.57</v>
       </c>
       <c r="K93">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="L93">
         <v>5.9</v>
@@ -6963,7 +6975,7 @@
         <v>1.57</v>
       </c>
       <c r="N93">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="O93">
         <v>5.9</v>
@@ -6972,7 +6984,7 @@
         <v>1.55</v>
       </c>
       <c r="Q93">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="R93">
         <v>6</v>
@@ -6987,7 +6999,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="94" spans="1:21">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -7052,7 +7064,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="95" spans="1:21">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -7066,7 +7078,7 @@
         <v>41</v>
       </c>
       <c r="E95" s="2">
-        <v>44552.70833333334</v>
+        <v>44552.708333333343</v>
       </c>
       <c r="F95" t="s">
         <v>135</v>
@@ -7117,7 +7129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:21">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -7131,7 +7143,7 @@
         <v>41</v>
       </c>
       <c r="E96" s="2">
-        <v>44552.70833333334</v>
+        <v>44552.708333333343</v>
       </c>
       <c r="F96" t="s">
         <v>136</v>
@@ -7182,7 +7194,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="97" spans="1:21">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -7196,7 +7208,7 @@
         <v>39</v>
       </c>
       <c r="E97" s="2">
-        <v>44552.77083333334</v>
+        <v>44552.770833333343</v>
       </c>
       <c r="F97" t="s">
         <v>137</v>
@@ -7229,7 +7241,7 @@
         <v>3.35</v>
       </c>
       <c r="P97">
-        <v>2.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="Q97">
         <v>3.65</v>
@@ -7247,7 +7259,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="98" spans="1:21">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -7261,7 +7273,7 @@
         <v>39</v>
       </c>
       <c r="E98" s="2">
-        <v>44552.77083333334</v>
+        <v>44552.770833333343</v>
       </c>
       <c r="F98" t="s">
         <v>138</v>
@@ -7276,7 +7288,7 @@
         <v>291</v>
       </c>
       <c r="J98">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="K98">
         <v>3.3</v>
@@ -7294,7 +7306,7 @@
         <v>2</v>
       </c>
       <c r="P98">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="Q98">
         <v>3.4</v>
@@ -7303,7 +7315,7 @@
         <v>1.94</v>
       </c>
       <c r="S98">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="T98">
         <v>3.45</v>
@@ -7312,7 +7324,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -7326,7 +7338,7 @@
         <v>41</v>
       </c>
       <c r="E99" s="2">
-        <v>44552.83333333334</v>
+        <v>44552.833333333343</v>
       </c>
       <c r="F99" t="s">
         <v>139</v>
@@ -7347,7 +7359,7 @@
         <v>3.55</v>
       </c>
       <c r="L99">
-        <v>2.03</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="M99">
         <v>3.55</v>
@@ -7356,7 +7368,7 @@
         <v>3.55</v>
       </c>
       <c r="O99">
-        <v>2.03</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="P99">
         <v>3.2</v>
@@ -7377,7 +7389,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="100" spans="1:21">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -7391,7 +7403,7 @@
         <v>41</v>
       </c>
       <c r="E100" s="2">
-        <v>44552.83333333334</v>
+        <v>44552.833333333343</v>
       </c>
       <c r="F100" t="s">
         <v>140</v>
@@ -7406,7 +7418,7 @@
         <v>290</v>
       </c>
       <c r="J100">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="K100">
         <v>3.4</v>
@@ -7415,7 +7427,7 @@
         <v>2.85</v>
       </c>
       <c r="M100">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="N100">
         <v>3.4</v>
@@ -7442,7 +7454,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="101" spans="1:21">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -7456,7 +7468,7 @@
         <v>39</v>
       </c>
       <c r="E101" s="2">
-        <v>44552.85416666666</v>
+        <v>44552.854166666657</v>
       </c>
       <c r="F101" t="s">
         <v>64</v>
@@ -7492,13 +7504,13 @@
         <v>1.53</v>
       </c>
       <c r="T101">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="U101">
         <v>6.5</v>
       </c>
     </row>
-    <row r="102" spans="1:21">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -7512,7 +7524,7 @@
         <v>39</v>
       </c>
       <c r="E102" s="2">
-        <v>44552.85416666666</v>
+        <v>44552.854166666657</v>
       </c>
       <c r="F102" t="s">
         <v>141</v>
@@ -7554,7 +7566,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="103" spans="1:21">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -7568,7 +7580,7 @@
         <v>39</v>
       </c>
       <c r="E103" s="2">
-        <v>44552.85416666666</v>
+        <v>44552.854166666657</v>
       </c>
       <c r="F103" t="s">
         <v>142</v>
@@ -7610,7 +7622,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:21">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -7624,7 +7636,7 @@
         <v>37</v>
       </c>
       <c r="E104" s="2">
-        <v>44552.86458333334</v>
+        <v>44552.864583333343</v>
       </c>
       <c r="F104" t="s">
         <v>143</v>
@@ -7675,7 +7687,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="105" spans="1:21">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -7689,7 +7701,7 @@
         <v>37</v>
       </c>
       <c r="E105" s="2">
-        <v>44552.86458333334</v>
+        <v>44552.864583333343</v>
       </c>
       <c r="F105" t="s">
         <v>144</v>
@@ -7734,13 +7746,13 @@
         <v>6.2</v>
       </c>
       <c r="T105">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="U105">
         <v>1.48</v>
       </c>
     </row>
-    <row r="106" spans="1:21">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -7772,7 +7784,7 @@
         <v>6.7</v>
       </c>
       <c r="K106">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="L106">
         <v>1.55</v>
@@ -7805,7 +7817,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="107" spans="1:21">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -7819,7 +7831,7 @@
         <v>37</v>
       </c>
       <c r="E107" s="2">
-        <v>44552.91666666666</v>
+        <v>44552.916666666657</v>
       </c>
       <c r="F107" t="s">
         <v>99</v>
@@ -7870,7 +7882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:21">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -7884,7 +7896,7 @@
         <v>46</v>
       </c>
       <c r="E108" s="2">
-        <v>44552.94791666666</v>
+        <v>44552.947916666657</v>
       </c>
       <c r="F108" t="s">
         <v>146</v>
@@ -7899,7 +7911,7 @@
         <v>291</v>
       </c>
       <c r="J108">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="K108">
         <v>2.95</v>
@@ -7908,7 +7920,7 @@
         <v>3.15</v>
       </c>
       <c r="M108">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="N108">
         <v>2.95</v>
@@ -7917,7 +7929,7 @@
         <v>3.15</v>
       </c>
       <c r="P108">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="Q108">
         <v>3.05</v>
@@ -7926,7 +7938,7 @@
         <v>3</v>
       </c>
       <c r="S108">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="T108">
         <v>3.05</v>
@@ -7935,7 +7947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:21">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -7949,7 +7961,7 @@
         <v>46</v>
       </c>
       <c r="E109" s="2">
-        <v>44552.94791666666</v>
+        <v>44552.947916666657</v>
       </c>
       <c r="F109" t="s">
         <v>147</v>
@@ -8000,7 +8012,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="110" spans="1:21">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -8014,7 +8026,7 @@
         <v>46</v>
       </c>
       <c r="E110" s="2">
-        <v>44552.94791666666</v>
+        <v>44552.947916666657</v>
       </c>
       <c r="F110" t="s">
         <v>148</v>
@@ -8035,7 +8047,7 @@
         <v>7.2</v>
       </c>
       <c r="L110">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="M110">
         <v>19</v>
@@ -8044,7 +8056,7 @@
         <v>7.3</v>
       </c>
       <c r="O110">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="P110">
         <v>24</v>
@@ -8053,19 +8065,19 @@
         <v>7.9</v>
       </c>
       <c r="R110">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="S110">
         <v>27</v>
       </c>
       <c r="T110">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="U110">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -8079,7 +8091,7 @@
         <v>39</v>
       </c>
       <c r="E111" s="2">
-        <v>44552.94791666666</v>
+        <v>44552.947916666657</v>
       </c>
       <c r="F111" t="s">
         <v>149</v>
@@ -8130,7 +8142,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="112" spans="1:21">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -8144,7 +8156,7 @@
         <v>39</v>
       </c>
       <c r="E112" s="2">
-        <v>44552.94791666666</v>
+        <v>44552.947916666657</v>
       </c>
       <c r="F112" t="s">
         <v>150</v>
@@ -8177,7 +8189,7 @@
         <v>1.9</v>
       </c>
       <c r="P112">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="Q112">
         <v>3.8</v>
@@ -8186,7 +8198,7 @@
         <v>1.9</v>
       </c>
       <c r="S112">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="T112">
         <v>3.75</v>
@@ -8195,7 +8207,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="113" spans="1:21">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -8209,7 +8221,7 @@
         <v>38</v>
       </c>
       <c r="E113" s="2">
-        <v>44552.95833333334</v>
+        <v>44552.958333333343</v>
       </c>
       <c r="F113" t="s">
         <v>151</v>
@@ -8239,13 +8251,13 @@
         <v>5.5</v>
       </c>
       <c r="O113">
-        <v>9.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="P113">
         <v>1.4</v>
       </c>
       <c r="Q113">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="R113">
         <v>7.9</v>
@@ -8257,10 +8269,10 @@
         <v>5.6</v>
       </c>
       <c r="U113">
-        <v>8.199999999999999</v>
-      </c>
-    </row>
-    <row r="114" spans="1:21">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -8274,7 +8286,7 @@
         <v>38</v>
       </c>
       <c r="E114" s="2">
-        <v>44552.95833333334</v>
+        <v>44552.958333333343</v>
       </c>
       <c r="F114" t="s">
         <v>152</v>
@@ -8301,7 +8313,7 @@
         <v>1.55</v>
       </c>
       <c r="N114">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="O114">
         <v>6.6</v>
@@ -8325,7 +8337,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="115" spans="1:21">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -8339,7 +8351,7 @@
         <v>38</v>
       </c>
       <c r="E115" s="2">
-        <v>44552.95833333334</v>
+        <v>44552.958333333343</v>
       </c>
       <c r="F115" t="s">
         <v>153</v>
@@ -8366,7 +8378,7 @@
         <v>6.7</v>
       </c>
       <c r="N115">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="O115">
         <v>1.5</v>
@@ -8375,7 +8387,7 @@
         <v>7.4</v>
       </c>
       <c r="Q115">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="R115">
         <v>1.45</v>
@@ -8384,13 +8396,13 @@
         <v>7.7</v>
       </c>
       <c r="T115">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="U115">
         <v>1.42</v>
       </c>
     </row>
-    <row r="116" spans="1:21">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -8404,7 +8416,7 @@
         <v>38</v>
       </c>
       <c r="E116" s="2">
-        <v>44552.95833333334</v>
+        <v>44552.958333333343</v>
       </c>
       <c r="F116" t="s">
         <v>154</v>
@@ -8455,7 +8467,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="117" spans="1:21">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -8469,7 +8481,7 @@
         <v>38</v>
       </c>
       <c r="E117" s="2">
-        <v>44552.95833333334</v>
+        <v>44552.958333333343</v>
       </c>
       <c r="F117" t="s">
         <v>155</v>
@@ -8520,7 +8532,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="118" spans="1:21">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -8534,7 +8546,7 @@
         <v>37</v>
       </c>
       <c r="E118" s="2">
-        <v>44552.95833333334</v>
+        <v>44552.958333333343</v>
       </c>
       <c r="F118" t="s">
         <v>156</v>
@@ -8585,7 +8597,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="119" spans="1:21">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -8599,7 +8611,7 @@
         <v>37</v>
       </c>
       <c r="E119" s="2">
-        <v>44552.95833333334</v>
+        <v>44552.958333333343</v>
       </c>
       <c r="F119" t="s">
         <v>157</v>
@@ -8650,7 +8662,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="120" spans="1:21">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -8664,7 +8676,7 @@
         <v>38</v>
       </c>
       <c r="E120" s="2">
-        <v>44552.95833333334</v>
+        <v>44552.958333333343</v>
       </c>
       <c r="F120" t="s">
         <v>158</v>
@@ -8685,7 +8697,7 @@
         <v>3.6</v>
       </c>
       <c r="L120">
-        <v>2.03</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="M120">
         <v>3.75</v>
@@ -8715,7 +8727,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="121" spans="1:21">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -8729,7 +8741,7 @@
         <v>38</v>
       </c>
       <c r="E121" s="2">
-        <v>44552.95833333334</v>
+        <v>44552.958333333343</v>
       </c>
       <c r="F121" t="s">
         <v>159</v>
@@ -8753,7 +8765,7 @@
         <v>3.05</v>
       </c>
       <c r="M121">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="N121">
         <v>3.2</v>
@@ -8762,7 +8774,7 @@
         <v>3.05</v>
       </c>
       <c r="P121">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="Q121">
         <v>3.2</v>
@@ -8780,7 +8792,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="122" spans="1:21">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -8794,7 +8806,7 @@
         <v>38</v>
       </c>
       <c r="E122" s="2">
-        <v>44552.95833333334</v>
+        <v>44552.958333333343</v>
       </c>
       <c r="F122" t="s">
         <v>160</v>
@@ -8818,7 +8830,7 @@
         <v>3.2</v>
       </c>
       <c r="M122">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="N122">
         <v>3.2</v>
@@ -8836,7 +8848,7 @@
         <v>2.95</v>
       </c>
       <c r="S122">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="T122">
         <v>3.2</v>
@@ -8845,7 +8857,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="123" spans="1:21">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -8859,7 +8871,7 @@
         <v>38</v>
       </c>
       <c r="E123" s="2">
-        <v>44552.95833333334</v>
+        <v>44552.958333333343</v>
       </c>
       <c r="F123" t="s">
         <v>161</v>
@@ -8874,7 +8886,7 @@
         <v>290</v>
       </c>
       <c r="J123">
-        <v>2.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="K123">
         <v>3.4</v>
@@ -8901,7 +8913,7 @@
         <v>3.3</v>
       </c>
       <c r="S123">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="T123">
         <v>3.45</v>
@@ -8910,7 +8922,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="124" spans="1:21">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -8924,7 +8936,7 @@
         <v>41</v>
       </c>
       <c r="E124" s="2">
-        <v>44553.70833333334</v>
+        <v>44553.708333333343</v>
       </c>
       <c r="F124" t="s">
         <v>162</v>
@@ -8975,7 +8987,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="125" spans="1:21">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -8989,7 +9001,7 @@
         <v>41</v>
       </c>
       <c r="E125" s="2">
-        <v>44553.83333333334</v>
+        <v>44553.833333333343</v>
       </c>
       <c r="F125" t="s">
         <v>163</v>
@@ -9007,7 +9019,7 @@
         <v>1.48</v>
       </c>
       <c r="K125">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L125">
         <v>6.3</v>
@@ -9016,7 +9028,7 @@
         <v>1.49</v>
       </c>
       <c r="N125">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="O125">
         <v>6.2</v>
@@ -9025,7 +9037,7 @@
         <v>1.48</v>
       </c>
       <c r="Q125">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="R125">
         <v>6.3</v>
@@ -9040,7 +9052,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="126" spans="1:21">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -9054,7 +9066,7 @@
         <v>37</v>
       </c>
       <c r="E126" s="2">
-        <v>44553.86458333334</v>
+        <v>44553.864583333343</v>
       </c>
       <c r="F126" t="s">
         <v>164</v>
@@ -9069,7 +9081,7 @@
         <v>290</v>
       </c>
       <c r="J126">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="K126">
         <v>8</v>
@@ -9078,7 +9090,7 @@
         <v>22</v>
       </c>
       <c r="M126">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="N126">
         <v>7.9</v>
@@ -9087,7 +9099,7 @@
         <v>22</v>
       </c>
       <c r="P126">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Q126">
         <v>7.6</v>
@@ -9105,7 +9117,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="127" spans="1:21">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -9119,7 +9131,7 @@
         <v>37</v>
       </c>
       <c r="E127" s="2">
-        <v>44553.95833333334</v>
+        <v>44553.958333333343</v>
       </c>
       <c r="F127" t="s">
         <v>96</v>
@@ -9140,7 +9152,7 @@
         <v>3.7</v>
       </c>
       <c r="L127">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="M127">
         <v>1.71</v>
@@ -9149,7 +9161,7 @@
         <v>3.7</v>
       </c>
       <c r="O127">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="P127">
         <v>1.72</v>
@@ -9170,7 +9182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:21">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -9184,7 +9196,7 @@
         <v>41</v>
       </c>
       <c r="E128" s="2">
-        <v>44555.66666666666</v>
+        <v>44555.666666666657</v>
       </c>
       <c r="F128" t="s">
         <v>84</v>
@@ -9235,7 +9247,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="129" spans="1:21">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -9249,7 +9261,7 @@
         <v>41</v>
       </c>
       <c r="E129" s="2">
-        <v>44555.66666666666</v>
+        <v>44555.666666666657</v>
       </c>
       <c r="F129" t="s">
         <v>70</v>
@@ -9264,7 +9276,7 @@
         <v>291</v>
       </c>
       <c r="J129">
-        <v>2.01</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="K129">
         <v>3.3</v>
@@ -9291,7 +9303,7 @@
         <v>3.85</v>
       </c>
       <c r="S129">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="T129">
         <v>3.25</v>
@@ -9300,7 +9312,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="130" spans="1:21">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -9314,7 +9326,7 @@
         <v>41</v>
       </c>
       <c r="E130" s="2">
-        <v>44555.79166666666</v>
+        <v>44555.791666666657</v>
       </c>
       <c r="F130" t="s">
         <v>165</v>
@@ -9347,7 +9359,7 @@
         <v>3.1</v>
       </c>
       <c r="P130">
-        <v>2.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="Q130">
         <v>3.4</v>
@@ -9365,7 +9377,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="131" spans="1:21">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -9430,7 +9442,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="132" spans="1:21">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -9444,7 +9456,7 @@
         <v>46</v>
       </c>
       <c r="E132" s="2">
-        <v>44556.64583333334</v>
+        <v>44556.645833333343</v>
       </c>
       <c r="F132" t="s">
         <v>146</v>
@@ -9462,7 +9474,7 @@
         <v>10.5</v>
       </c>
       <c r="K132">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L132">
         <v>1.36</v>
@@ -9480,7 +9492,7 @@
         <v>9.4</v>
       </c>
       <c r="Q132">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="R132">
         <v>1.35</v>
@@ -9495,7 +9507,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="133" spans="1:21">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -9509,7 +9521,7 @@
         <v>35</v>
       </c>
       <c r="E133" s="2">
-        <v>44556.64583333334</v>
+        <v>44556.645833333343</v>
       </c>
       <c r="F133" t="s">
         <v>166</v>
@@ -9542,7 +9554,7 @@
         <v>1.72</v>
       </c>
       <c r="P133">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -9560,7 +9572,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="134" spans="1:21">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -9574,7 +9586,7 @@
         <v>41</v>
       </c>
       <c r="E134" s="2">
-        <v>44556.66666666666</v>
+        <v>44556.666666666657</v>
       </c>
       <c r="F134" t="s">
         <v>85</v>
@@ -9607,7 +9619,7 @@
         <v>3.5</v>
       </c>
       <c r="P134">
-        <v>2.07</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="Q134">
         <v>3.55</v>
@@ -9616,7 +9628,7 @@
         <v>3.5</v>
       </c>
       <c r="S134">
-        <v>2.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="T134">
         <v>3.7</v>
@@ -9625,7 +9637,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="135" spans="1:21">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -9639,7 +9651,7 @@
         <v>41</v>
       </c>
       <c r="E135" s="2">
-        <v>44556.66666666666</v>
+        <v>44556.666666666657</v>
       </c>
       <c r="F135" t="s">
         <v>167</v>
@@ -9648,7 +9660,7 @@
         <v>132</v>
       </c>
       <c r="J135">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="K135">
         <v>3.4</v>
@@ -9657,7 +9669,7 @@
         <v>2.85</v>
       </c>
       <c r="M135">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="N135">
         <v>3.4</v>
@@ -9684,7 +9696,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="136" spans="1:21">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -9713,7 +9725,7 @@
         <v>290</v>
       </c>
       <c r="J136">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="K136">
         <v>10.5</v>
@@ -9722,7 +9734,7 @@
         <v>19.5</v>
       </c>
       <c r="M136">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="N136">
         <v>10.5</v>
@@ -9731,7 +9743,7 @@
         <v>19</v>
       </c>
       <c r="P136">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="Q136">
         <v>10.5</v>
@@ -9740,7 +9752,7 @@
         <v>17.5</v>
       </c>
       <c r="S136">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="T136">
         <v>10</v>
@@ -9749,7 +9761,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="1:21">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -9814,7 +9826,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="138" spans="1:21">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -9846,7 +9858,7 @@
         <v>1.47</v>
       </c>
       <c r="K138">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="L138">
         <v>6.9</v>
@@ -9855,7 +9867,7 @@
         <v>1.47</v>
       </c>
       <c r="N138">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="O138">
         <v>6.9</v>
@@ -9879,7 +9891,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="139" spans="1:21">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -9935,7 +9947,7 @@
         <v>1.86</v>
       </c>
       <c r="S139">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="T139">
         <v>3.4</v>
@@ -9944,7 +9956,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="140" spans="1:21">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -9976,7 +9988,7 @@
         <v>1.61</v>
       </c>
       <c r="K140">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="L140">
         <v>5.3</v>
@@ -9985,7 +9997,7 @@
         <v>1.61</v>
       </c>
       <c r="N140">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="O140">
         <v>5.3</v>
@@ -10003,13 +10015,13 @@
         <v>1.65</v>
       </c>
       <c r="T140">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="U140">
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:21">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -10053,7 +10065,7 @@
         <v>4.2</v>
       </c>
       <c r="O141">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="P141">
         <v>1.68</v>
@@ -10062,7 +10074,7 @@
         <v>4.3</v>
       </c>
       <c r="R141">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="S141">
         <v>1.73</v>
@@ -10074,7 +10086,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="142" spans="1:21">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -10109,7 +10121,7 @@
         <v>3.8</v>
       </c>
       <c r="L142">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="M142">
         <v>1.75</v>
@@ -10118,7 +10130,7 @@
         <v>3.7</v>
       </c>
       <c r="O142">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="P142">
         <v>1.75</v>
@@ -10127,7 +10139,7 @@
         <v>3.7</v>
       </c>
       <c r="R142">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="S142">
         <v>1.67</v>
@@ -10139,7 +10151,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="143" spans="1:21">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -10171,7 +10183,7 @@
         <v>6.5</v>
       </c>
       <c r="K143">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="L143">
         <v>1.52</v>
@@ -10180,7 +10192,7 @@
         <v>6.5</v>
       </c>
       <c r="N143">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="O143">
         <v>1.52</v>
@@ -10204,7 +10216,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="144" spans="1:21">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -10248,7 +10260,7 @@
         <v>3.6</v>
       </c>
       <c r="O144">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="P144">
         <v>1.98</v>
@@ -10269,7 +10281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:21">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -10298,7 +10310,7 @@
         <v>290</v>
       </c>
       <c r="J145">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="K145">
         <v>7.2</v>
@@ -10307,7 +10319,7 @@
         <v>19</v>
       </c>
       <c r="M145">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="N145">
         <v>7.3</v>
@@ -10316,7 +10328,7 @@
         <v>21</v>
       </c>
       <c r="P145">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Q145">
         <v>7.3</v>
@@ -10325,7 +10337,7 @@
         <v>22</v>
       </c>
       <c r="S145">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="T145">
         <v>7.5</v>
@@ -10334,7 +10346,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="146" spans="1:21">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -10348,7 +10360,7 @@
         <v>41</v>
       </c>
       <c r="E146" s="2">
-        <v>44556.79166666666</v>
+        <v>44556.791666666657</v>
       </c>
       <c r="F146" t="s">
         <v>111</v>
@@ -10384,13 +10396,13 @@
         <v>1.35</v>
       </c>
       <c r="Q146">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="R146">
-        <v>8.800000000000001</v>
-      </c>
-    </row>
-    <row r="147" spans="1:21">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -10404,7 +10416,7 @@
         <v>40</v>
       </c>
       <c r="E147" s="2">
-        <v>44556.85416666666</v>
+        <v>44556.854166666657</v>
       </c>
       <c r="F147" t="s">
         <v>177</v>
@@ -10437,7 +10449,7 @@
         <v>1.7</v>
       </c>
       <c r="P147">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="Q147">
         <v>3.75</v>
@@ -10446,7 +10458,7 @@
         <v>1.74</v>
       </c>
       <c r="S147">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="T147">
         <v>3.7</v>
@@ -10455,7 +10467,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="148" spans="1:21">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -10469,7 +10481,7 @@
         <v>35</v>
       </c>
       <c r="E148" s="2">
-        <v>44556.85416666666</v>
+        <v>44556.854166666657</v>
       </c>
       <c r="F148" t="s">
         <v>94</v>
@@ -10493,7 +10505,7 @@
         <v>2.8</v>
       </c>
       <c r="M148">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="N148">
         <v>3.5</v>
@@ -10502,7 +10514,7 @@
         <v>2.65</v>
       </c>
       <c r="P148">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="Q148">
         <v>3.55</v>
@@ -10520,7 +10532,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="149" spans="1:21">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -10534,7 +10546,7 @@
         <v>40</v>
       </c>
       <c r="E149" s="2">
-        <v>44556.95833333334</v>
+        <v>44556.958333333343</v>
       </c>
       <c r="F149" t="s">
         <v>178</v>
@@ -10585,7 +10597,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="150" spans="1:21">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -10599,7 +10611,7 @@
         <v>35</v>
       </c>
       <c r="E150" s="2">
-        <v>44556.95833333334</v>
+        <v>44556.958333333343</v>
       </c>
       <c r="F150" t="s">
         <v>179</v>
@@ -10641,7 +10653,7 @@
         <v>1.57</v>
       </c>
       <c r="S150">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="T150">
         <v>4.7</v>
@@ -10650,7 +10662,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="151" spans="1:21">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -10664,7 +10676,7 @@
         <v>41</v>
       </c>
       <c r="E151" s="2">
-        <v>44557.83333333334</v>
+        <v>44557.833333333343</v>
       </c>
       <c r="F151" t="s">
         <v>180</v>
@@ -10685,7 +10697,7 @@
         <v>3.35</v>
       </c>
       <c r="L151">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="M151">
         <v>2.65</v>
@@ -10715,7 +10727,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="152" spans="1:21">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -10729,7 +10741,7 @@
         <v>41</v>
       </c>
       <c r="E152" s="2">
-        <v>44557.83333333334</v>
+        <v>44557.833333333343</v>
       </c>
       <c r="F152" t="s">
         <v>181</v>
@@ -10780,7 +10792,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="153" spans="1:21">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -10794,7 +10806,7 @@
         <v>35</v>
       </c>
       <c r="E153" s="2">
-        <v>44557.86458333334</v>
+        <v>44557.864583333343</v>
       </c>
       <c r="F153" t="s">
         <v>182</v>
@@ -10836,7 +10848,7 @@
         <v>3.05</v>
       </c>
       <c r="S153">
-        <v>2.07</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="T153">
         <v>3.75</v>
@@ -10845,7 +10857,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="154" spans="1:21">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -10859,7 +10871,7 @@
         <v>35</v>
       </c>
       <c r="E154" s="2">
-        <v>44557.86458333334</v>
+        <v>44557.864583333343</v>
       </c>
       <c r="F154" t="s">
         <v>183</v>
@@ -10892,7 +10904,7 @@
         <v>3.8</v>
       </c>
       <c r="P154">
-        <v>2.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="Q154">
         <v>3.65</v>
@@ -10910,7 +10922,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="155" spans="1:21">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -10924,7 +10936,7 @@
         <v>40</v>
       </c>
       <c r="E155" s="2">
-        <v>44557.95833333334</v>
+        <v>44557.958333333343</v>
       </c>
       <c r="F155" t="s">
         <v>184</v>
@@ -10975,7 +10987,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="156" spans="1:21">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -10989,7 +11001,7 @@
         <v>35</v>
       </c>
       <c r="E156" s="2">
-        <v>44557.95833333334</v>
+        <v>44557.958333333343</v>
       </c>
       <c r="F156" t="s">
         <v>185</v>
@@ -11034,13 +11046,13 @@
         <v>6.7</v>
       </c>
       <c r="T156">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="U156">
         <v>1.47</v>
       </c>
     </row>
-    <row r="157" spans="1:21">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -11054,7 +11066,7 @@
         <v>35</v>
       </c>
       <c r="E157" s="2">
-        <v>44557.95833333334</v>
+        <v>44557.958333333343</v>
       </c>
       <c r="F157" t="s">
         <v>186</v>
@@ -11105,7 +11117,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="158" spans="1:21">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -11170,7 +11182,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="159" spans="1:21">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -11232,10 +11244,10 @@
         <v>3.6</v>
       </c>
       <c r="U159">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:21">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -11300,7 +11312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:21">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -11314,7 +11326,7 @@
         <v>36</v>
       </c>
       <c r="E161" s="2">
-        <v>44558.83333333334</v>
+        <v>44558.833333333343</v>
       </c>
       <c r="F161" t="s">
         <v>81</v>
@@ -11353,7 +11365,7 @@
         <v>3.5</v>
       </c>
       <c r="R161">
-        <v>2.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="S161">
         <v>3.15</v>
@@ -11365,7 +11377,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="162" spans="1:21">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -11379,7 +11391,7 @@
         <v>36</v>
       </c>
       <c r="E162" s="2">
-        <v>44558.91666666666</v>
+        <v>44558.916666666657</v>
       </c>
       <c r="F162" t="s">
         <v>190</v>
@@ -11430,7 +11442,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="163" spans="1:21">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -11444,7 +11456,7 @@
         <v>40</v>
       </c>
       <c r="E163" s="2">
-        <v>44558.95833333334</v>
+        <v>44558.958333333343</v>
       </c>
       <c r="F163" t="s">
         <v>191</v>
@@ -11459,7 +11471,7 @@
         <v>290</v>
       </c>
       <c r="J163">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="K163">
         <v>6.1</v>
@@ -11468,7 +11480,7 @@
         <v>1.33</v>
       </c>
       <c r="M163">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="N163">
         <v>6.1</v>
@@ -11486,7 +11498,7 @@
         <v>1.33</v>
       </c>
       <c r="S163">
-        <v>9.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="T163">
         <v>6.7</v>
@@ -11495,7 +11507,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="164" spans="1:21">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -11542,7 +11554,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="165" spans="1:21">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -11556,7 +11568,7 @@
         <v>39</v>
       </c>
       <c r="E165" s="2">
-        <v>44577.83333333334</v>
+        <v>44577.833333333343</v>
       </c>
       <c r="F165" t="s">
         <v>64</v>
@@ -11577,7 +11589,7 @@
         <v>5.4</v>
       </c>
       <c r="L165">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="M165">
         <v>1.35</v>
@@ -11595,10 +11607,10 @@
         <v>5.3</v>
       </c>
       <c r="R165">
-        <v>8.699999999999999</v>
-      </c>
-    </row>
-    <row r="166" spans="1:21">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -11612,7 +11624,7 @@
         <v>35</v>
       </c>
       <c r="E166" s="2">
-        <v>44577.85416666666</v>
+        <v>44577.854166666657</v>
       </c>
       <c r="F166" t="s">
         <v>193</v>
@@ -11630,7 +11642,7 @@
         <v>1.42</v>
       </c>
       <c r="K166">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L166">
         <v>7</v>
@@ -11639,7 +11651,7 @@
         <v>1.42</v>
       </c>
       <c r="N166">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="O166">
         <v>7</v>
@@ -11663,7 +11675,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="167" spans="1:21">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -11677,7 +11689,7 @@
         <v>45</v>
       </c>
       <c r="E167" s="2">
-        <v>44577.85416666666</v>
+        <v>44577.854166666657</v>
       </c>
       <c r="F167" t="s">
         <v>123</v>
@@ -11728,7 +11740,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="168" spans="1:21">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -11742,7 +11754,7 @@
         <v>45</v>
       </c>
       <c r="E168" s="2">
-        <v>44577.85416666666</v>
+        <v>44577.854166666657</v>
       </c>
       <c r="F168" t="s">
         <v>194</v>
@@ -11763,7 +11775,7 @@
         <v>3.4</v>
       </c>
       <c r="L168">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M168">
         <v>1.85</v>
@@ -11772,16 +11784,16 @@
         <v>3.4</v>
       </c>
       <c r="O168">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="P168">
-        <v>2.01</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="Q168">
         <v>3.2</v>
       </c>
       <c r="R168">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="S168">
         <v>1.94</v>
@@ -11790,10 +11802,10 @@
         <v>3.25</v>
       </c>
       <c r="U168">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="169" spans="1:21">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -11822,10 +11834,10 @@
         <v>291</v>
       </c>
       <c r="J169">
-        <v>9.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="K169">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L169">
         <v>1.35</v>
@@ -11840,7 +11852,7 @@
         <v>1.36</v>
       </c>
       <c r="P169">
-        <v>9.699999999999999</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -11858,7 +11870,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="170" spans="1:21">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -11872,7 +11884,7 @@
         <v>36</v>
       </c>
       <c r="E170" s="2">
-        <v>44577.89583333334</v>
+        <v>44577.895833333343</v>
       </c>
       <c r="F170" t="s">
         <v>58</v>
@@ -11881,7 +11893,7 @@
         <v>212</v>
       </c>
       <c r="J170">
-        <v>2.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="K170">
         <v>3.25</v>
@@ -11890,7 +11902,7 @@
         <v>3.9</v>
       </c>
       <c r="M170">
-        <v>2.01</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="N170">
         <v>3.25</v>
@@ -11917,7 +11929,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="171" spans="1:21">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -11931,7 +11943,7 @@
         <v>39</v>
       </c>
       <c r="E171" s="2">
-        <v>44577.94791666666</v>
+        <v>44577.947916666657</v>
       </c>
       <c r="F171" t="s">
         <v>195</v>
@@ -11961,7 +11973,7 @@
         <v>3.5</v>
       </c>
       <c r="O171">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="P171">
         <v>3.2</v>
@@ -11970,7 +11982,7 @@
         <v>3.5</v>
       </c>
       <c r="R171">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="S171">
         <v>3.2</v>
@@ -11982,7 +11994,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="172" spans="1:21">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -11996,7 +12008,7 @@
         <v>38</v>
       </c>
       <c r="E172" s="2">
-        <v>44577.94791666666</v>
+        <v>44577.947916666657</v>
       </c>
       <c r="F172" t="s">
         <v>152</v>
@@ -12011,7 +12023,7 @@
         <v>292</v>
       </c>
       <c r="J172">
-        <v>2.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="K172">
         <v>3.35</v>
@@ -12020,7 +12032,7 @@
         <v>3.35</v>
       </c>
       <c r="M172">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="N172">
         <v>3.3</v>
@@ -12038,7 +12050,7 @@
         <v>3.3</v>
       </c>
       <c r="S172">
-        <v>2.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="T172">
         <v>3.4</v>
@@ -12047,7 +12059,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="173" spans="1:21">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -12061,7 +12073,7 @@
         <v>35</v>
       </c>
       <c r="E173" s="2">
-        <v>44577.95833333334</v>
+        <v>44577.958333333343</v>
       </c>
       <c r="F173" t="s">
         <v>69</v>
@@ -12088,7 +12100,7 @@
         <v>1.47</v>
       </c>
       <c r="N173">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="O173">
         <v>6.4</v>
@@ -12106,13 +12118,13 @@
         <v>1.44</v>
       </c>
       <c r="T173">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="U173">
         <v>6.6</v>
       </c>
     </row>
-    <row r="174" spans="1:21">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -12126,7 +12138,7 @@
         <v>36</v>
       </c>
       <c r="E174" s="2">
-        <v>44577.97916666666</v>
+        <v>44577.979166666657</v>
       </c>
       <c r="F174" t="s">
         <v>196</v>
@@ -12177,7 +12189,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="175" spans="1:21">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -12191,7 +12203,7 @@
         <v>39</v>
       </c>
       <c r="E175" s="2">
-        <v>44578.85416666666</v>
+        <v>44578.854166666657</v>
       </c>
       <c r="F175" t="s">
         <v>88</v>
@@ -12215,7 +12227,7 @@
         <v>1.86</v>
       </c>
       <c r="M175">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="N175">
         <v>3.6</v>
@@ -12242,7 +12254,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="176" spans="1:21">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -12256,7 +12268,7 @@
         <v>39</v>
       </c>
       <c r="E176" s="2">
-        <v>44578.85416666666</v>
+        <v>44578.854166666657</v>
       </c>
       <c r="F176" t="s">
         <v>125</v>
@@ -12307,7 +12319,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="177" spans="1:21">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -12321,7 +12333,7 @@
         <v>39</v>
       </c>
       <c r="E177" s="2">
-        <v>44578.94791666666</v>
+        <v>44578.947916666657</v>
       </c>
       <c r="F177" t="s">
         <v>197</v>
@@ -12366,13 +12378,13 @@
         <v>1.44</v>
       </c>
       <c r="T177">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="U177">
         <v>8.1</v>
       </c>
     </row>
-    <row r="178" spans="1:21">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -12386,7 +12398,7 @@
         <v>46</v>
       </c>
       <c r="E178" s="2">
-        <v>44578.94791666666</v>
+        <v>44578.947916666657</v>
       </c>
       <c r="F178" t="s">
         <v>198</v>
@@ -12416,7 +12428,7 @@
         <v>5.6</v>
       </c>
       <c r="O178">
-        <v>9.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="P178">
         <v>1.35</v>
@@ -12437,7 +12449,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="179" spans="1:21">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -12466,7 +12478,7 @@
         <v>292</v>
       </c>
       <c r="J179">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K179">
         <v>3.3</v>
@@ -12484,7 +12496,7 @@
         <v>3.1</v>
       </c>
       <c r="P179">
-        <v>2.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="Q179">
         <v>3.25</v>
@@ -12502,7 +12514,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="180" spans="1:21">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -12516,7 +12528,7 @@
         <v>41</v>
       </c>
       <c r="E180" s="2">
-        <v>44579.70833333334</v>
+        <v>44579.708333333343</v>
       </c>
       <c r="F180" t="s">
         <v>140</v>
@@ -12549,7 +12561,7 @@
         <v>3.8</v>
       </c>
       <c r="R180">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="S180">
         <v>1.7</v>
@@ -12561,7 +12573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:21">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -12575,7 +12587,7 @@
         <v>41</v>
       </c>
       <c r="E181" s="2">
-        <v>44579.83333333334</v>
+        <v>44579.833333333343</v>
       </c>
       <c r="F181" t="s">
         <v>180</v>
@@ -12584,7 +12596,7 @@
         <v>132</v>
       </c>
       <c r="J181">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="K181">
         <v>3.25</v>
@@ -12620,7 +12632,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="182" spans="1:21">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -12634,7 +12646,7 @@
         <v>41</v>
       </c>
       <c r="E182" s="2">
-        <v>44579.83333333334</v>
+        <v>44579.833333333343</v>
       </c>
       <c r="F182" t="s">
         <v>139</v>
@@ -12649,7 +12661,7 @@
         <v>291</v>
       </c>
       <c r="J182">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="K182">
         <v>4</v>
@@ -12658,7 +12670,7 @@
         <v>1.65</v>
       </c>
       <c r="M182">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="N182">
         <v>3.95</v>
@@ -12676,7 +12688,7 @@
         <v>1.72</v>
       </c>
       <c r="S182">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="T182">
         <v>4</v>
@@ -12685,7 +12697,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="183" spans="1:21">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -12699,7 +12711,7 @@
         <v>41</v>
       </c>
       <c r="E183" s="2">
-        <v>44581.70833333334</v>
+        <v>44581.708333333343</v>
       </c>
       <c r="F183" t="s">
         <v>85</v>
@@ -12708,7 +12720,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="184" spans="1:21">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -12722,7 +12734,7 @@
         <v>41</v>
       </c>
       <c r="E184" s="2">
-        <v>44581.83333333334</v>
+        <v>44581.833333333343</v>
       </c>
       <c r="F184" t="s">
         <v>84</v>
@@ -12731,7 +12743,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="185" spans="1:21">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>

--- a/df_general.xlsx
+++ b/df_general.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="303">
   <si>
     <t>GAME_ID</t>
   </si>
@@ -613,18 +613,57 @@
     <t>Селтик</t>
   </si>
   <si>
+    <t>Мец</t>
+  </si>
+  <si>
+    <t>Анже</t>
+  </si>
+  <si>
+    <t>Клермон</t>
+  </si>
+  <si>
+    <t>Нант</t>
+  </si>
+  <si>
+    <t>Арсенал Лондон</t>
+  </si>
+  <si>
+    <t>Специя</t>
+  </si>
+  <si>
+    <t>РБ Лейпциг</t>
+  </si>
+  <si>
+    <t>Волос НФК</t>
+  </si>
+  <si>
+    <t>Атромитос Афины</t>
+  </si>
+  <si>
+    <t>Витория Гимарайнш</t>
+  </si>
+  <si>
+    <t>Райо Вальекано</t>
+  </si>
+  <si>
     <t>Реал Сосьедад</t>
   </si>
   <si>
+    <t>Олимпиакос Пирей</t>
+  </si>
+  <si>
+    <t>Алавес</t>
+  </si>
+  <si>
+    <t>Астерас Триполис</t>
+  </si>
+  <si>
     <t>Атлетико Мадрид</t>
   </si>
   <si>
     <t>Спортинг Брага</t>
   </si>
   <si>
-    <t>Специя</t>
-  </si>
-  <si>
     <t>Эвертон</t>
   </si>
   <si>
@@ -634,9 +673,6 @@
     <t>Дженоа</t>
   </si>
   <si>
-    <t>Витория Гимарайнш</t>
-  </si>
-  <si>
     <t>Вольфсбург</t>
   </si>
   <si>
@@ -667,12 +703,6 @@
     <t>Санкт-Галлен</t>
   </si>
   <si>
-    <t>Арсенал Лондон</t>
-  </si>
-  <si>
-    <t>Атромитос Афины</t>
-  </si>
-  <si>
     <t>Эльче</t>
   </si>
   <si>
@@ -721,9 +751,6 @@
     <t>Осасуна</t>
   </si>
   <si>
-    <t>Астерас Триполис</t>
-  </si>
-  <si>
     <t>Антверпен</t>
   </si>
   <si>
@@ -736,9 +763,6 @@
     <t>Валенсия</t>
   </si>
   <si>
-    <t>Алавес</t>
-  </si>
-  <si>
     <t>Фейеноорд</t>
   </si>
   <si>
@@ -748,15 +772,9 @@
     <t>Росс Каунти</t>
   </si>
   <si>
-    <t>Мец</t>
-  </si>
-  <si>
     <t>Реймс</t>
   </si>
   <si>
-    <t>Анже</t>
-  </si>
-  <si>
     <t>Ланс</t>
   </si>
   <si>
@@ -766,9 +784,6 @@
     <t>Брест</t>
   </si>
   <si>
-    <t>Нант</t>
-  </si>
-  <si>
     <t>Ренн</t>
   </si>
   <si>
@@ -793,7 +808,19 @@
     <t>Гройтер Фюрт</t>
   </si>
   <si>
-    <t>Олимпиакос Пирей</t>
+    <t>Ламия</t>
+  </si>
+  <si>
+    <t>Страсбур</t>
+  </si>
+  <si>
+    <t>Бернли</t>
+  </si>
+  <si>
+    <t>Эшторил</t>
+  </si>
+  <si>
+    <t>Аполлон Смирна</t>
   </si>
   <si>
     <t>4:0</t>
@@ -884,6 +911,9 @@
   </si>
   <si>
     <t>6:0</t>
+  </si>
+  <si>
+    <t>4:3</t>
   </si>
   <si>
     <t>HW</t>
@@ -898,11 +928,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -962,22 +992,17 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1015,7 +1040,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1049,7 +1074,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1084,10 +1108,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1260,19 +1283,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U185"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="A187" sqref="A186:XFD187"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="5" max="5" width="22.109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1334,7 +1352,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1354,13 +1372,13 @@
         <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="H2" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="I2" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J2">
         <v>2.33</v>
@@ -1372,7 +1390,7 @@
         <v>3.25</v>
       </c>
       <c r="M2">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="N2">
         <v>3.35</v>
@@ -1390,7 +1408,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1413,16 +1431,16 @@
         <v>69</v>
       </c>
       <c r="H3" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="I3" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J3">
         <v>1.6</v>
       </c>
       <c r="K3">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="L3">
         <v>5</v>
@@ -1431,7 +1449,7 @@
         <v>1.6</v>
       </c>
       <c r="N3">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="O3">
         <v>5</v>
@@ -1446,7 +1464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1469,16 +1487,16 @@
         <v>118</v>
       </c>
       <c r="H4" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="I4" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J4">
         <v>5.7</v>
       </c>
       <c r="K4">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="L4">
         <v>1.58</v>
@@ -1505,13 +1523,13 @@
         <v>5.7</v>
       </c>
       <c r="T4">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="U4">
         <v>1.58</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1534,10 +1552,10 @@
         <v>164</v>
       </c>
       <c r="H5" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="I5" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J5">
         <v>10</v>
@@ -1558,7 +1576,7 @@
         <v>1.25</v>
       </c>
       <c r="P5">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Q5">
         <v>5.7</v>
@@ -1576,7 +1594,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1599,16 +1617,16 @@
         <v>161</v>
       </c>
       <c r="H6" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="I6" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J6">
         <v>1.45</v>
       </c>
       <c r="K6">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="L6">
         <v>6.8</v>
@@ -1617,7 +1635,7 @@
         <v>1.47</v>
       </c>
       <c r="N6">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="O6">
         <v>6.7</v>
@@ -1641,7 +1659,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1661,13 +1679,13 @@
         <v>61</v>
       </c>
       <c r="G7" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="H7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="I7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J7">
         <v>1.9</v>
@@ -1706,7 +1724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1729,10 +1747,10 @@
         <v>95</v>
       </c>
       <c r="H8" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="I8" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J8">
         <v>1.17</v>
@@ -1744,7 +1762,7 @@
         <v>15.5</v>
       </c>
       <c r="M8">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="N8">
         <v>7.7</v>
@@ -1753,16 +1771,16 @@
         <v>16</v>
       </c>
       <c r="P8">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="Q8">
-        <v>8.1999999999999993</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="R8">
         <v>17</v>
       </c>
       <c r="S8">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="T8">
         <v>8.4</v>
@@ -1771,7 +1789,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1791,19 +1809,19 @@
         <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="H9" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="I9" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J9">
         <v>1.41</v>
       </c>
       <c r="K9">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="L9">
         <v>7.7</v>
@@ -1821,7 +1839,7 @@
         <v>1.42</v>
       </c>
       <c r="Q9">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="R9">
         <v>7.4</v>
@@ -1830,13 +1848,13 @@
         <v>1.44</v>
       </c>
       <c r="T9">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="U9">
         <v>7.3</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1856,19 +1874,19 @@
         <v>64</v>
       </c>
       <c r="G10" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H10" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="I10" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J10">
         <v>1.38</v>
       </c>
       <c r="K10">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="L10">
         <v>8.9</v>
@@ -1889,7 +1907,7 @@
         <v>5.2</v>
       </c>
       <c r="R10">
-        <v>8.8000000000000007</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S10">
         <v>1.41</v>
@@ -1901,7 +1919,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1924,10 +1942,10 @@
         <v>145</v>
       </c>
       <c r="H11" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="I11" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J11">
         <v>2.65</v>
@@ -1966,7 +1984,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1989,10 +2007,10 @@
         <v>124</v>
       </c>
       <c r="H12" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="I12" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J12">
         <v>2.85</v>
@@ -2031,7 +2049,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2045,19 +2063,19 @@
         <v>40</v>
       </c>
       <c r="E13" s="2">
-        <v>44546.947916666657</v>
+        <v>44546.94791666666</v>
       </c>
       <c r="F13" t="s">
         <v>67</v>
       </c>
       <c r="G13" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="H13" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="I13" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J13">
         <v>1.2</v>
@@ -2069,7 +2087,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2083,7 +2101,7 @@
         <v>40</v>
       </c>
       <c r="E14" s="2">
-        <v>44546.958333333343</v>
+        <v>44546.95833333334</v>
       </c>
       <c r="F14" t="s">
         <v>68</v>
@@ -2092,13 +2110,13 @@
         <v>184</v>
       </c>
       <c r="H14" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="I14" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J14">
-        <v>1.0900000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="K14">
         <v>12</v>
@@ -2116,7 +2134,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2130,7 +2148,7 @@
         <v>35</v>
       </c>
       <c r="E15" s="2">
-        <v>44546.958333333343</v>
+        <v>44546.95833333334</v>
       </c>
       <c r="F15" t="s">
         <v>69</v>
@@ -2139,10 +2157,10 @@
         <v>182</v>
       </c>
       <c r="H15" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="I15" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J15">
         <v>1.84</v>
@@ -2157,13 +2175,13 @@
         <v>1.82</v>
       </c>
       <c r="N15">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="O15">
         <v>3.85</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2177,19 +2195,19 @@
         <v>40</v>
       </c>
       <c r="E16" s="2">
-        <v>44546.947916666657</v>
+        <v>44546.94791666666</v>
       </c>
       <c r="F16" t="s">
         <v>67</v>
       </c>
       <c r="G16" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="H16" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="I16" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J16">
         <v>1.2</v>
@@ -2201,7 +2219,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2215,7 +2233,7 @@
         <v>40</v>
       </c>
       <c r="E17" s="2">
-        <v>44546.958333333343</v>
+        <v>44546.95833333334</v>
       </c>
       <c r="F17" t="s">
         <v>68</v>
@@ -2224,13 +2242,13 @@
         <v>184</v>
       </c>
       <c r="H17" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="I17" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J17">
-        <v>1.0900000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="K17">
         <v>12</v>
@@ -2248,7 +2266,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2262,7 +2280,7 @@
         <v>35</v>
       </c>
       <c r="E18" s="2">
-        <v>44546.958333333343</v>
+        <v>44546.95833333334</v>
       </c>
       <c r="F18" t="s">
         <v>69</v>
@@ -2271,10 +2289,10 @@
         <v>182</v>
       </c>
       <c r="H18" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="I18" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J18">
         <v>1.84</v>
@@ -2289,13 +2307,13 @@
         <v>1.82</v>
       </c>
       <c r="N18">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="O18">
         <v>3.85</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2309,7 +2327,7 @@
         <v>41</v>
       </c>
       <c r="E19" s="2">
-        <v>44547.833333333343</v>
+        <v>44547.83333333334</v>
       </c>
       <c r="F19" t="s">
         <v>70</v>
@@ -2318,10 +2336,10 @@
         <v>131</v>
       </c>
       <c r="H19" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="I19" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J19">
         <v>1.83</v>
@@ -2360,7 +2378,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2374,19 +2392,19 @@
         <v>42</v>
       </c>
       <c r="E20" s="2">
-        <v>44547.833333333343</v>
+        <v>44547.83333333334</v>
       </c>
       <c r="F20" t="s">
         <v>71</v>
       </c>
       <c r="G20" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="H20" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="I20" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J20">
         <v>1.84</v>
@@ -2425,7 +2443,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2439,19 +2457,19 @@
         <v>39</v>
       </c>
       <c r="E21" s="2">
-        <v>44547.854166666657</v>
+        <v>44547.85416666666</v>
       </c>
       <c r="F21" t="s">
         <v>72</v>
       </c>
       <c r="G21" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="H21" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="I21" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J21">
         <v>1.64</v>
@@ -2475,7 +2493,7 @@
         <v>1.57</v>
       </c>
       <c r="Q21">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="R21">
         <v>6.6</v>
@@ -2490,7 +2508,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2504,19 +2522,19 @@
         <v>36</v>
       </c>
       <c r="E22" s="2">
-        <v>44547.916666666657</v>
+        <v>44547.91666666666</v>
       </c>
       <c r="F22" t="s">
         <v>73</v>
       </c>
       <c r="G22" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H22" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="I22" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J22">
         <v>3.05</v>
@@ -2555,7 +2573,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2575,28 +2593,28 @@
         <v>74</v>
       </c>
       <c r="G23" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="H23" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="I23" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J23">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="K23">
-        <v>8.8000000000000007</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L23">
         <v>16</v>
       </c>
       <c r="M23">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="N23">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="O23">
         <v>18.5</v>
@@ -2620,7 +2638,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2640,13 +2658,13 @@
         <v>75</v>
       </c>
       <c r="G24" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="H24" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="I24" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J24">
         <v>2.85</v>
@@ -2685,7 +2703,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2699,7 +2717,7 @@
         <v>39</v>
       </c>
       <c r="E25" s="2">
-        <v>44547.947916666657</v>
+        <v>44547.94791666666</v>
       </c>
       <c r="F25" t="s">
         <v>76</v>
@@ -2708,10 +2726,10 @@
         <v>142</v>
       </c>
       <c r="H25" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="I25" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J25">
         <v>28</v>
@@ -2720,7 +2738,7 @@
         <v>11</v>
       </c>
       <c r="L25">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="M25">
         <v>28</v>
@@ -2729,16 +2747,16 @@
         <v>10.5</v>
       </c>
       <c r="O25">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="P25">
         <v>19</v>
       </c>
       <c r="Q25">
-        <v>8.1999999999999993</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="R25">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="S25">
         <v>18</v>
@@ -2747,10 +2765,10 @@
         <v>8.4</v>
       </c>
       <c r="U25">
-        <v>1.1599999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2764,22 +2782,22 @@
         <v>35</v>
       </c>
       <c r="E26" s="2">
-        <v>44547.947916666657</v>
+        <v>44547.94791666666</v>
       </c>
       <c r="F26" t="s">
         <v>77</v>
       </c>
       <c r="G26" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="H26" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="I26" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J26">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="K26">
         <v>3.35</v>
@@ -2815,7 +2833,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2829,19 +2847,19 @@
         <v>34</v>
       </c>
       <c r="E27" s="2">
-        <v>44547.958333333343</v>
+        <v>44547.95833333334</v>
       </c>
       <c r="F27" t="s">
         <v>78</v>
       </c>
       <c r="G27" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="H27" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="I27" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J27">
         <v>1.97</v>
@@ -2868,7 +2886,7 @@
         <v>3.4</v>
       </c>
       <c r="R27">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="S27">
         <v>2.04</v>
@@ -2880,7 +2898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2903,10 +2921,10 @@
         <v>135</v>
       </c>
       <c r="H28" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="I28" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J28">
         <v>2.6</v>
@@ -2945,7 +2963,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2959,19 +2977,19 @@
         <v>42</v>
       </c>
       <c r="E29" s="2">
-        <v>44548.604166666657</v>
+        <v>44548.60416666666</v>
       </c>
       <c r="F29" t="s">
         <v>80</v>
       </c>
       <c r="G29" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="H29" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="I29" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J29">
         <v>1.64</v>
@@ -3007,10 +3025,10 @@
         <v>3.7</v>
       </c>
       <c r="U29">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3024,19 +3042,19 @@
         <v>36</v>
       </c>
       <c r="E30" s="2">
-        <v>44548.770833333343</v>
+        <v>44548.77083333334</v>
       </c>
       <c r="F30" t="s">
         <v>81</v>
       </c>
       <c r="G30" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="H30" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="I30" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J30">
         <v>2.6</v>
@@ -3057,7 +3075,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3071,7 +3089,7 @@
         <v>37</v>
       </c>
       <c r="E31" s="2">
-        <v>44548.770833333343</v>
+        <v>44548.77083333334</v>
       </c>
       <c r="F31" t="s">
         <v>82</v>
@@ -3080,10 +3098,10 @@
         <v>156</v>
       </c>
       <c r="H31" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="I31" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J31">
         <v>4.8</v>
@@ -3095,16 +3113,16 @@
         <v>1.65</v>
       </c>
       <c r="M31">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="N31">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="O31">
         <v>1.69</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3118,7 +3136,7 @@
         <v>36</v>
       </c>
       <c r="E32" s="2">
-        <v>44548.770833333343</v>
+        <v>44548.77083333334</v>
       </c>
       <c r="F32" t="s">
         <v>83</v>
@@ -3127,10 +3145,10 @@
         <v>66</v>
       </c>
       <c r="H32" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="I32" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J32">
         <v>2.06</v>
@@ -3139,7 +3157,7 @@
         <v>3.1</v>
       </c>
       <c r="L32">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="M32">
         <v>2.08</v>
@@ -3148,10 +3166,10 @@
         <v>3.05</v>
       </c>
       <c r="O32">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3165,7 +3183,7 @@
         <v>41</v>
       </c>
       <c r="E33" s="2">
-        <v>44548.791666666657</v>
+        <v>44548.79166666666</v>
       </c>
       <c r="F33" t="s">
         <v>84</v>
@@ -3174,10 +3192,10 @@
         <v>129</v>
       </c>
       <c r="H33" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="I33" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J33">
         <v>2.44</v>
@@ -3198,7 +3216,7 @@
         <v>2.9</v>
       </c>
       <c r="P33">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="Q33">
         <v>3.4</v>
@@ -3207,7 +3225,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3221,7 +3239,7 @@
         <v>41</v>
       </c>
       <c r="E34" s="2">
-        <v>44548.791666666657</v>
+        <v>44548.79166666666</v>
       </c>
       <c r="F34" t="s">
         <v>85</v>
@@ -3230,10 +3248,10 @@
         <v>132</v>
       </c>
       <c r="H34" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="I34" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J34">
         <v>2.33</v>
@@ -3263,7 +3281,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3283,13 +3301,13 @@
         <v>86</v>
       </c>
       <c r="G35" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="H35" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="I35" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J35">
         <v>2.15</v>
@@ -3310,7 +3328,7 @@
         <v>3.5</v>
       </c>
       <c r="P35">
-        <v>2.2599999999999998</v>
+        <v>2.26</v>
       </c>
       <c r="Q35">
         <v>3.3</v>
@@ -3328,7 +3346,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3342,19 +3360,19 @@
         <v>44</v>
       </c>
       <c r="E36" s="2">
-        <v>44548.833333333343</v>
+        <v>44548.83333333334</v>
       </c>
       <c r="F36" t="s">
         <v>87</v>
       </c>
       <c r="G36" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="H36" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="I36" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J36">
         <v>4.3</v>
@@ -3384,7 +3402,7 @@
         <v>1.78</v>
       </c>
       <c r="S36">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="T36">
         <v>3.7</v>
@@ -3393,7 +3411,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3407,22 +3425,22 @@
         <v>39</v>
       </c>
       <c r="E37" s="2">
-        <v>44548.833333333343</v>
+        <v>44548.83333333334</v>
       </c>
       <c r="F37" t="s">
         <v>88</v>
       </c>
       <c r="G37" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="H37" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="I37" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J37">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="K37">
         <v>3.5</v>
@@ -3431,7 +3449,7 @@
         <v>1.97</v>
       </c>
       <c r="M37">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="N37">
         <v>3.5</v>
@@ -3449,7 +3467,7 @@
         <v>1.91</v>
       </c>
       <c r="S37">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="T37">
         <v>3.55</v>
@@ -3458,7 +3476,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3472,19 +3490,19 @@
         <v>41</v>
       </c>
       <c r="E38" s="2">
-        <v>44548.833333333343</v>
+        <v>44548.83333333334</v>
       </c>
       <c r="F38" t="s">
         <v>89</v>
       </c>
       <c r="G38" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="H38" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="I38" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J38">
         <v>1.53</v>
@@ -3499,7 +3517,7 @@
         <v>1.53</v>
       </c>
       <c r="N38">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="O38">
         <v>5.5</v>
@@ -3520,10 +3538,10 @@
         <v>4.7</v>
       </c>
       <c r="U38">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3537,19 +3555,19 @@
         <v>40</v>
       </c>
       <c r="E39" s="2">
-        <v>44548.854166666657</v>
+        <v>44548.85416666666</v>
       </c>
       <c r="F39" t="s">
         <v>90</v>
       </c>
       <c r="G39" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="H39" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="I39" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J39">
         <v>6.2</v>
@@ -3588,7 +3606,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3602,19 +3620,19 @@
         <v>45</v>
       </c>
       <c r="E40" s="2">
-        <v>44548.854166666657</v>
+        <v>44548.85416666666</v>
       </c>
       <c r="F40" t="s">
         <v>91</v>
       </c>
       <c r="G40" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="H40" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="I40" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J40">
         <v>2.17</v>
@@ -3635,7 +3653,7 @@
         <v>3.8</v>
       </c>
       <c r="P40">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -3644,7 +3662,7 @@
         <v>3.55</v>
       </c>
       <c r="S40">
-        <v>2.2799999999999998</v>
+        <v>2.28</v>
       </c>
       <c r="T40">
         <v>3.05</v>
@@ -3653,7 +3671,7 @@
         <v>3.55</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3667,19 +3685,19 @@
         <v>34</v>
       </c>
       <c r="E41" s="2">
-        <v>44548.854166666657</v>
+        <v>44548.85416666666</v>
       </c>
       <c r="F41" t="s">
         <v>92</v>
       </c>
       <c r="G41" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="H41" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="I41" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J41">
         <v>1.28</v>
@@ -3718,7 +3736,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3732,19 +3750,19 @@
         <v>43</v>
       </c>
       <c r="E42" s="2">
-        <v>44548.854166666657</v>
+        <v>44548.85416666666</v>
       </c>
       <c r="F42" t="s">
         <v>93</v>
       </c>
       <c r="G42" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="H42" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="I42" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J42">
         <v>5.2</v>
@@ -3768,22 +3786,22 @@
         <v>5.2</v>
       </c>
       <c r="Q42">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="R42">
         <v>1.6</v>
       </c>
       <c r="S42">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="T42">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="U42">
         <v>1.63</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3797,7 +3815,7 @@
         <v>35</v>
       </c>
       <c r="E43" s="2">
-        <v>44548.854166666657</v>
+        <v>44548.85416666666</v>
       </c>
       <c r="F43" t="s">
         <v>94</v>
@@ -3806,10 +3824,10 @@
         <v>166</v>
       </c>
       <c r="H43" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="I43" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J43">
         <v>1.75</v>
@@ -3818,7 +3836,7 @@
         <v>3.85</v>
       </c>
       <c r="L43">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="M43">
         <v>1.74</v>
@@ -3827,7 +3845,7 @@
         <v>3.85</v>
       </c>
       <c r="O43">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="P43">
         <v>1.69</v>
@@ -3848,7 +3866,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3862,7 +3880,7 @@
         <v>35</v>
       </c>
       <c r="E44" s="2">
-        <v>44548.854166666657</v>
+        <v>44548.85416666666</v>
       </c>
       <c r="F44" t="s">
         <v>95</v>
@@ -3871,19 +3889,19 @@
         <v>183</v>
       </c>
       <c r="H44" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="I44" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J44">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="K44">
         <v>3.8</v>
       </c>
       <c r="L44">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="M44">
         <v>2.6</v>
@@ -3913,7 +3931,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3927,7 +3945,7 @@
         <v>37</v>
       </c>
       <c r="E45" s="2">
-        <v>44548.864583333343</v>
+        <v>44548.86458333334</v>
       </c>
       <c r="F45" t="s">
         <v>96</v>
@@ -3936,10 +3954,10 @@
         <v>133</v>
       </c>
       <c r="H45" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="I45" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J45">
         <v>2.65</v>
@@ -3978,7 +3996,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3992,19 +4010,19 @@
         <v>42</v>
       </c>
       <c r="E46" s="2">
-        <v>44548.916666666657</v>
+        <v>44548.91666666666</v>
       </c>
       <c r="F46" t="s">
         <v>97</v>
       </c>
       <c r="G46" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="H46" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="I46" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J46">
         <v>1.57</v>
@@ -4028,7 +4046,7 @@
         <v>1.61</v>
       </c>
       <c r="Q46">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="R46">
         <v>5.3</v>
@@ -4037,13 +4055,13 @@
         <v>1.64</v>
       </c>
       <c r="T46">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="U46">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4057,7 +4075,7 @@
         <v>37</v>
       </c>
       <c r="E47" s="2">
-        <v>44548.916666666657</v>
+        <v>44548.91666666666</v>
       </c>
       <c r="F47" t="s">
         <v>98</v>
@@ -4066,10 +4084,10 @@
         <v>143</v>
       </c>
       <c r="H47" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="I47" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J47">
         <v>1.2</v>
@@ -4108,7 +4126,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4122,19 +4140,19 @@
         <v>37</v>
       </c>
       <c r="E48" s="2">
-        <v>44548.916666666657</v>
+        <v>44548.91666666666</v>
       </c>
       <c r="F48" t="s">
         <v>99</v>
       </c>
       <c r="G48" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="H48" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="I48" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J48">
         <v>2.46</v>
@@ -4173,7 +4191,7 @@
         <v>3.45</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4193,13 +4211,13 @@
         <v>100</v>
       </c>
       <c r="G49" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="H49" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="I49" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J49">
         <v>2.6</v>
@@ -4208,7 +4226,7 @@
         <v>3.55</v>
       </c>
       <c r="L49">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="M49">
         <v>2.6</v>
@@ -4217,7 +4235,7 @@
         <v>3.6</v>
       </c>
       <c r="O49">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="P49">
         <v>2.65</v>
@@ -4226,7 +4244,7 @@
         <v>3.6</v>
       </c>
       <c r="R49">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="S49">
         <v>2.6</v>
@@ -4235,10 +4253,10 @@
         <v>3.6</v>
       </c>
       <c r="U49">
-        <v>2.5499999999999998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4252,7 +4270,7 @@
         <v>35</v>
       </c>
       <c r="E50" s="2">
-        <v>44548.947916666657</v>
+        <v>44548.94791666666</v>
       </c>
       <c r="F50" t="s">
         <v>57</v>
@@ -4261,10 +4279,10 @@
         <v>186</v>
       </c>
       <c r="H50" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="I50" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J50">
         <v>1.45</v>
@@ -4279,7 +4297,7 @@
         <v>1.44</v>
       </c>
       <c r="N50">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="O50">
         <v>7.9</v>
@@ -4291,7 +4309,7 @@
         <v>4.8</v>
       </c>
       <c r="R50">
-        <v>8.8000000000000007</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S50">
         <v>1.37</v>
@@ -4300,10 +4318,10 @@
         <v>4.8</v>
       </c>
       <c r="U50">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4317,19 +4335,19 @@
         <v>39</v>
       </c>
       <c r="E51" s="2">
-        <v>44548.947916666657</v>
+        <v>44548.94791666666</v>
       </c>
       <c r="F51" t="s">
         <v>101</v>
       </c>
       <c r="G51" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="H51" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="I51" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J51">
         <v>3.15</v>
@@ -4338,7 +4356,7 @@
         <v>3.25</v>
       </c>
       <c r="L51">
-        <v>2.4500000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="M51">
         <v>3.15</v>
@@ -4347,7 +4365,7 @@
         <v>3.2</v>
       </c>
       <c r="O51">
-        <v>2.4500000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="P51">
         <v>3.1</v>
@@ -4365,10 +4383,10 @@
         <v>3.25</v>
       </c>
       <c r="U51">
-        <v>2.4500000000000002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4382,19 +4400,19 @@
         <v>37</v>
       </c>
       <c r="E52" s="2">
-        <v>44548.958333333343</v>
+        <v>44548.95833333334</v>
       </c>
       <c r="F52" t="s">
         <v>102</v>
       </c>
       <c r="G52" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="H52" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="I52" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J52">
         <v>3.15</v>
@@ -4412,7 +4430,7 @@
         <v>3.15</v>
       </c>
       <c r="O52">
-        <v>2.2799999999999998</v>
+        <v>2.28</v>
       </c>
       <c r="P52">
         <v>3.7</v>
@@ -4433,7 +4451,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4447,19 +4465,19 @@
         <v>34</v>
       </c>
       <c r="E53" s="2">
-        <v>44548.958333333343</v>
+        <v>44548.95833333334</v>
       </c>
       <c r="F53" t="s">
         <v>103</v>
       </c>
       <c r="G53" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="H53" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="I53" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J53">
         <v>2.85</v>
@@ -4498,7 +4516,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4512,19 +4530,19 @@
         <v>36</v>
       </c>
       <c r="E54" s="2">
-        <v>44548.979166666657</v>
+        <v>44548.97916666666</v>
       </c>
       <c r="F54" t="s">
         <v>104</v>
       </c>
       <c r="G54" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="H54" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="I54" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J54">
         <v>5</v>
@@ -4536,7 +4554,7 @@
         <v>1.8</v>
       </c>
       <c r="M54">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="N54">
         <v>3.4</v>
@@ -4563,7 +4581,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4586,10 +4604,10 @@
         <v>162</v>
       </c>
       <c r="H55" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="I55" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J55">
         <v>2.33</v>
@@ -4610,7 +4628,7 @@
         <v>3.25</v>
       </c>
       <c r="P55">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -4619,7 +4637,7 @@
         <v>3.5</v>
       </c>
       <c r="S55">
-        <v>2.1800000000000002</v>
+        <v>2.18</v>
       </c>
       <c r="T55">
         <v>3.15</v>
@@ -4628,7 +4646,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4651,10 +4669,10 @@
         <v>182</v>
       </c>
       <c r="H56" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="I56" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J56">
         <v>2.95</v>
@@ -4675,7 +4693,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4689,7 +4707,7 @@
         <v>34</v>
       </c>
       <c r="E57" s="2">
-        <v>44549.760416666657</v>
+        <v>44549.76041666666</v>
       </c>
       <c r="F57" t="s">
         <v>107</v>
@@ -4698,10 +4716,10 @@
         <v>56</v>
       </c>
       <c r="H57" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="I57" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J57">
         <v>2.25</v>
@@ -4722,7 +4740,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4736,34 +4754,34 @@
         <v>41</v>
       </c>
       <c r="E58" s="2">
-        <v>44549.770833333343</v>
+        <v>44549.77083333334</v>
       </c>
       <c r="F58" t="s">
         <v>108</v>
       </c>
       <c r="G58" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="H58" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="I58" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J58">
         <v>1.78</v>
       </c>
       <c r="K58">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="L58">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="M58">
         <v>1.79</v>
       </c>
       <c r="N58">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="O58">
         <v>4</v>
@@ -4772,13 +4790,13 @@
         <v>1.79</v>
       </c>
       <c r="Q58">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="R58">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4792,19 +4810,19 @@
         <v>41</v>
       </c>
       <c r="E59" s="2">
-        <v>44549.770833333343</v>
+        <v>44549.77083333334</v>
       </c>
       <c r="F59" t="s">
         <v>109</v>
       </c>
       <c r="G59" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="H59" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="I59" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J59">
         <v>2.6</v>
@@ -4834,7 +4852,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4857,10 +4875,10 @@
         <v>164</v>
       </c>
       <c r="H60" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="I60" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J60">
         <v>11.5</v>
@@ -4890,7 +4908,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4904,7 +4922,7 @@
         <v>41</v>
       </c>
       <c r="E61" s="2">
-        <v>44549.791666666657</v>
+        <v>44549.79166666666</v>
       </c>
       <c r="F61" t="s">
         <v>111</v>
@@ -4913,10 +4931,10 @@
         <v>163</v>
       </c>
       <c r="H61" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="I61" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J61">
         <v>2.37</v>
@@ -4946,7 +4964,7 @@
         <v>2.85</v>
       </c>
       <c r="S61">
-        <v>2.2599999999999998</v>
+        <v>2.26</v>
       </c>
       <c r="T61">
         <v>3.5</v>
@@ -4955,7 +4973,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4969,22 +4987,22 @@
         <v>43</v>
       </c>
       <c r="E62" s="2">
-        <v>44549.729166666657</v>
+        <v>44549.72916666666</v>
       </c>
       <c r="F62" t="s">
         <v>112</v>
       </c>
       <c r="G62" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="H62" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="I62" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J62">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="K62">
         <v>3.6</v>
@@ -4993,7 +5011,7 @@
         <v>2.7</v>
       </c>
       <c r="M62">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="N62">
         <v>3.6</v>
@@ -5002,7 +5020,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5025,10 +5043,10 @@
         <v>182</v>
       </c>
       <c r="H63" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="I63" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J63">
         <v>2.95</v>
@@ -5055,10 +5073,10 @@
         <v>3.6</v>
       </c>
       <c r="R63">
-        <v>2.2599999999999998</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+        <v>2.26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5072,7 +5090,7 @@
         <v>34</v>
       </c>
       <c r="E64" s="2">
-        <v>44549.760416666657</v>
+        <v>44549.76041666666</v>
       </c>
       <c r="F64" t="s">
         <v>107</v>
@@ -5081,10 +5099,10 @@
         <v>56</v>
       </c>
       <c r="H64" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="I64" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J64">
         <v>2.25</v>
@@ -5114,7 +5132,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5128,19 +5146,19 @@
         <v>41</v>
       </c>
       <c r="E65" s="2">
-        <v>44549.770833333343</v>
+        <v>44549.77083333334</v>
       </c>
       <c r="F65" t="s">
         <v>109</v>
       </c>
       <c r="G65" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="H65" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="I65" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J65">
         <v>2.6</v>
@@ -5179,7 +5197,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5193,34 +5211,34 @@
         <v>41</v>
       </c>
       <c r="E66" s="2">
-        <v>44549.770833333343</v>
+        <v>44549.77083333334</v>
       </c>
       <c r="F66" t="s">
         <v>108</v>
       </c>
       <c r="G66" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="H66" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="I66" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J66">
         <v>1.78</v>
       </c>
       <c r="K66">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="L66">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="M66">
         <v>1.79</v>
       </c>
       <c r="N66">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="O66">
         <v>4</v>
@@ -5229,7 +5247,7 @@
         <v>1.79</v>
       </c>
       <c r="Q66">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="R66">
         <v>4</v>
@@ -5244,7 +5262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5267,10 +5285,10 @@
         <v>164</v>
       </c>
       <c r="H67" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="I67" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J67">
         <v>11.5</v>
@@ -5309,7 +5327,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5323,7 +5341,7 @@
         <v>41</v>
       </c>
       <c r="E68" s="2">
-        <v>44549.791666666657</v>
+        <v>44549.79166666666</v>
       </c>
       <c r="F68" t="s">
         <v>111</v>
@@ -5332,10 +5350,10 @@
         <v>163</v>
       </c>
       <c r="H68" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="I68" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J68">
         <v>2.37</v>
@@ -5365,7 +5383,7 @@
         <v>2.85</v>
       </c>
       <c r="S68">
-        <v>2.2599999999999998</v>
+        <v>2.26</v>
       </c>
       <c r="T68">
         <v>3.5</v>
@@ -5374,7 +5392,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5394,13 +5412,13 @@
         <v>113</v>
       </c>
       <c r="G69" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="H69" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="I69" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J69">
         <v>2.11</v>
@@ -5439,7 +5457,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5462,10 +5480,10 @@
         <v>68</v>
       </c>
       <c r="H70" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="I70" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J70">
         <v>4.7</v>
@@ -5486,10 +5504,10 @@
         <v>1.69</v>
       </c>
       <c r="P70">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="Q70">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="R70">
         <v>1.71</v>
@@ -5504,7 +5522,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5524,13 +5542,13 @@
         <v>115</v>
       </c>
       <c r="G71" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="H71" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="I71" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J71">
         <v>1.85</v>
@@ -5539,7 +5557,7 @@
         <v>4</v>
       </c>
       <c r="L71">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="M71">
         <v>1.85</v>
@@ -5548,7 +5566,7 @@
         <v>4</v>
       </c>
       <c r="O71">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="P71">
         <v>1.87</v>
@@ -5569,7 +5587,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5583,7 +5601,7 @@
         <v>39</v>
       </c>
       <c r="E72" s="2">
-        <v>44549.833333333343</v>
+        <v>44549.83333333334</v>
       </c>
       <c r="F72" t="s">
         <v>116</v>
@@ -5592,10 +5610,10 @@
         <v>141</v>
       </c>
       <c r="H72" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="I72" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J72">
         <v>2.25</v>
@@ -5634,7 +5652,7 @@
         <v>3.45</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5648,7 +5666,7 @@
         <v>39</v>
       </c>
       <c r="E73" s="2">
-        <v>44549.833333333343</v>
+        <v>44549.83333333334</v>
       </c>
       <c r="F73" t="s">
         <v>117</v>
@@ -5657,10 +5675,10 @@
         <v>138</v>
       </c>
       <c r="H73" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="I73" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J73">
         <v>1.81</v>
@@ -5696,10 +5714,10 @@
         <v>3.65</v>
       </c>
       <c r="U73">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5713,7 +5731,7 @@
         <v>36</v>
       </c>
       <c r="E74" s="2">
-        <v>44549.833333333343</v>
+        <v>44549.83333333334</v>
       </c>
       <c r="F74" t="s">
         <v>118</v>
@@ -5722,13 +5740,13 @@
         <v>190</v>
       </c>
       <c r="H74" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="I74" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J74">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="K74">
         <v>7.1</v>
@@ -5737,7 +5755,7 @@
         <v>20</v>
       </c>
       <c r="M74">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="N74">
         <v>7.1</v>
@@ -5746,7 +5764,7 @@
         <v>20</v>
       </c>
       <c r="P74">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -5755,7 +5773,7 @@
         <v>20</v>
       </c>
       <c r="S74">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="T74">
         <v>7.1</v>
@@ -5764,7 +5782,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5778,19 +5796,19 @@
         <v>36</v>
       </c>
       <c r="E75" s="2">
-        <v>44549.833333333343</v>
+        <v>44549.83333333334</v>
       </c>
       <c r="F75" t="s">
         <v>119</v>
       </c>
       <c r="G75" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="H75" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="I75" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J75">
         <v>2.8</v>
@@ -5829,7 +5847,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5843,19 +5861,19 @@
         <v>44</v>
       </c>
       <c r="E76" s="2">
-        <v>44549.833333333343</v>
+        <v>44549.83333333334</v>
       </c>
       <c r="F76" t="s">
         <v>120</v>
       </c>
       <c r="G76" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="H76" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="I76" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J76">
         <v>5.8</v>
@@ -5888,13 +5906,13 @@
         <v>5.6</v>
       </c>
       <c r="T76">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="U76">
         <v>1.58</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5908,19 +5926,19 @@
         <v>34</v>
       </c>
       <c r="E77" s="2">
-        <v>44549.854166666657</v>
+        <v>44549.85416666666</v>
       </c>
       <c r="F77" t="s">
         <v>121</v>
       </c>
       <c r="G77" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="H77" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="I77" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J77">
         <v>2.31</v>
@@ -5959,7 +5977,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5973,19 +5991,19 @@
         <v>45</v>
       </c>
       <c r="E78" s="2">
-        <v>44549.854166666657</v>
+        <v>44549.85416666666</v>
       </c>
       <c r="F78" t="s">
         <v>122</v>
       </c>
       <c r="G78" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="H78" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="I78" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J78">
         <v>1.57</v>
@@ -6024,7 +6042,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -6038,7 +6056,7 @@
         <v>45</v>
       </c>
       <c r="E79" s="2">
-        <v>44549.854166666657</v>
+        <v>44549.85416666666</v>
       </c>
       <c r="F79" t="s">
         <v>123</v>
@@ -6047,10 +6065,10 @@
         <v>194</v>
       </c>
       <c r="H79" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="I79" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J79">
         <v>1.63</v>
@@ -6089,7 +6107,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -6103,19 +6121,19 @@
         <v>35</v>
       </c>
       <c r="E80" s="2">
-        <v>44549.854166666657</v>
+        <v>44549.85416666666</v>
       </c>
       <c r="F80" t="s">
         <v>69</v>
       </c>
       <c r="G80" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="H80" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="I80" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J80">
         <v>1.89</v>
@@ -6154,7 +6172,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -6168,7 +6186,7 @@
         <v>36</v>
       </c>
       <c r="E81" s="2">
-        <v>44549.916666666657</v>
+        <v>44549.91666666666</v>
       </c>
       <c r="F81" t="s">
         <v>124</v>
@@ -6177,10 +6195,10 @@
         <v>63</v>
       </c>
       <c r="H81" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="I81" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J81">
         <v>10.5</v>
@@ -6219,7 +6237,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -6233,7 +6251,7 @@
         <v>39</v>
       </c>
       <c r="E82" s="2">
-        <v>44549.947916666657</v>
+        <v>44549.94791666666</v>
       </c>
       <c r="F82" t="s">
         <v>125</v>
@@ -6242,10 +6260,10 @@
         <v>149</v>
       </c>
       <c r="H82" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="I82" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J82">
         <v>2.04</v>
@@ -6284,7 +6302,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -6298,25 +6316,25 @@
         <v>45</v>
       </c>
       <c r="E83" s="2">
-        <v>44550.854166666657</v>
+        <v>44550.85416666666</v>
       </c>
       <c r="F83" t="s">
         <v>126</v>
       </c>
       <c r="G83" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="H83" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="I83" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J83">
         <v>1.33</v>
       </c>
       <c r="K83">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="L83">
         <v>9.1</v>
@@ -6325,7 +6343,7 @@
         <v>1.33</v>
       </c>
       <c r="N83">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="O83">
         <v>9.1</v>
@@ -6334,22 +6352,22 @@
         <v>1.4</v>
       </c>
       <c r="Q83">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="R83">
-        <v>8.1999999999999993</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S83">
         <v>1.4</v>
       </c>
       <c r="T83">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="U83">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -6363,25 +6381,25 @@
         <v>45</v>
       </c>
       <c r="E84" s="2">
-        <v>44550.854166666657</v>
+        <v>44550.85416666666</v>
       </c>
       <c r="F84" t="s">
         <v>127</v>
       </c>
       <c r="G84" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="H84" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="I84" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J84">
         <v>1.42</v>
       </c>
       <c r="K84">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="L84">
         <v>9.6</v>
@@ -6393,7 +6411,7 @@
         <v>4</v>
       </c>
       <c r="O84">
-        <v>9.8000000000000007</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="P84">
         <v>1.5</v>
@@ -6402,7 +6420,7 @@
         <v>3.8</v>
       </c>
       <c r="R84">
-        <v>8.3000000000000007</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S84">
         <v>1.47</v>
@@ -6411,10 +6429,10 @@
         <v>3.9</v>
       </c>
       <c r="U84">
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -6428,19 +6446,19 @@
         <v>34</v>
       </c>
       <c r="E85" s="2">
-        <v>44550.958333333343</v>
+        <v>44550.95833333334</v>
       </c>
       <c r="F85" t="s">
         <v>128</v>
       </c>
       <c r="G85" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="H85" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="I85" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J85">
         <v>3.05</v>
@@ -6479,7 +6497,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -6493,25 +6511,25 @@
         <v>45</v>
       </c>
       <c r="E86" s="2">
-        <v>44550.854166666657</v>
+        <v>44550.85416666666</v>
       </c>
       <c r="F86" t="s">
         <v>126</v>
       </c>
       <c r="G86" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="H86" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="I86" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J86">
         <v>1.33</v>
       </c>
       <c r="K86">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="L86">
         <v>9.1</v>
@@ -6520,7 +6538,7 @@
         <v>1.33</v>
       </c>
       <c r="N86">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="O86">
         <v>9.1</v>
@@ -6529,22 +6547,22 @@
         <v>1.4</v>
       </c>
       <c r="Q86">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="R86">
-        <v>8.1999999999999993</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S86">
         <v>1.4</v>
       </c>
       <c r="T86">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="U86">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -6558,25 +6576,25 @@
         <v>45</v>
       </c>
       <c r="E87" s="2">
-        <v>44550.854166666657</v>
+        <v>44550.85416666666</v>
       </c>
       <c r="F87" t="s">
         <v>127</v>
       </c>
       <c r="G87" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="H87" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="I87" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J87">
         <v>1.42</v>
       </c>
       <c r="K87">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="L87">
         <v>9.6</v>
@@ -6588,7 +6606,7 @@
         <v>4</v>
       </c>
       <c r="O87">
-        <v>9.8000000000000007</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="P87">
         <v>1.5</v>
@@ -6597,7 +6615,7 @@
         <v>3.8</v>
       </c>
       <c r="R87">
-        <v>8.3000000000000007</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S87">
         <v>1.47</v>
@@ -6606,10 +6624,10 @@
         <v>3.9</v>
       </c>
       <c r="U87">
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -6623,19 +6641,19 @@
         <v>34</v>
       </c>
       <c r="E88" s="2">
-        <v>44550.958333333343</v>
+        <v>44550.95833333334</v>
       </c>
       <c r="F88" t="s">
         <v>128</v>
       </c>
       <c r="G88" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="H88" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="I88" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J88">
         <v>3.05</v>
@@ -6674,7 +6692,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -6688,7 +6706,7 @@
         <v>41</v>
       </c>
       <c r="E89" s="2">
-        <v>44551.708333333343</v>
+        <v>44551.70833333334</v>
       </c>
       <c r="F89" t="s">
         <v>129</v>
@@ -6697,10 +6715,10 @@
         <v>70</v>
       </c>
       <c r="H89" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="I89" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J89">
         <v>1.92</v>
@@ -6739,7 +6757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -6753,7 +6771,7 @@
         <v>41</v>
       </c>
       <c r="E90" s="2">
-        <v>44551.708333333343</v>
+        <v>44551.70833333334</v>
       </c>
       <c r="F90" t="s">
         <v>130</v>
@@ -6762,10 +6780,10 @@
         <v>79</v>
       </c>
       <c r="H90" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="I90" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J90">
         <v>1.91</v>
@@ -6774,7 +6792,7 @@
         <v>3.5</v>
       </c>
       <c r="L90">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="M90">
         <v>1.91</v>
@@ -6783,7 +6801,7 @@
         <v>3.5</v>
       </c>
       <c r="O90">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="P90">
         <v>1.91</v>
@@ -6792,7 +6810,7 @@
         <v>3.5</v>
       </c>
       <c r="R90">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="S90">
         <v>1.91</v>
@@ -6801,10 +6819,10 @@
         <v>3.5</v>
       </c>
       <c r="U90">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -6818,7 +6836,7 @@
         <v>41</v>
       </c>
       <c r="E91" s="2">
-        <v>44551.833333333343</v>
+        <v>44551.83333333334</v>
       </c>
       <c r="F91" t="s">
         <v>131</v>
@@ -6827,10 +6845,10 @@
         <v>165</v>
       </c>
       <c r="H91" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="I91" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J91">
         <v>3</v>
@@ -6848,7 +6866,7 @@
         <v>3.4</v>
       </c>
       <c r="O91">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="P91">
         <v>3.1</v>
@@ -6869,7 +6887,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -6883,7 +6901,7 @@
         <v>41</v>
       </c>
       <c r="E92" s="2">
-        <v>44551.833333333343</v>
+        <v>44551.83333333334</v>
       </c>
       <c r="F92" t="s">
         <v>132</v>
@@ -6892,13 +6910,13 @@
         <v>84</v>
       </c>
       <c r="H92" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="I92" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J92">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="K92">
         <v>3.55</v>
@@ -6934,7 +6952,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -6948,7 +6966,7 @@
         <v>37</v>
       </c>
       <c r="E93" s="2">
-        <v>44551.864583333343</v>
+        <v>44551.86458333334</v>
       </c>
       <c r="F93" t="s">
         <v>133</v>
@@ -6957,16 +6975,16 @@
         <v>102</v>
       </c>
       <c r="H93" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="I93" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J93">
         <v>1.57</v>
       </c>
       <c r="K93">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="L93">
         <v>5.9</v>
@@ -6975,7 +6993,7 @@
         <v>1.57</v>
       </c>
       <c r="N93">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="O93">
         <v>5.9</v>
@@ -6984,7 +7002,7 @@
         <v>1.55</v>
       </c>
       <c r="Q93">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="R93">
         <v>6</v>
@@ -6999,7 +7017,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -7019,13 +7037,13 @@
         <v>134</v>
       </c>
       <c r="G94" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="H94" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="I94" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J94">
         <v>1.41</v>
@@ -7064,7 +7082,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -7078,7 +7096,7 @@
         <v>41</v>
       </c>
       <c r="E95" s="2">
-        <v>44552.708333333343</v>
+        <v>44552.70833333334</v>
       </c>
       <c r="F95" t="s">
         <v>135</v>
@@ -7087,10 +7105,10 @@
         <v>105</v>
       </c>
       <c r="H95" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="I95" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J95">
         <v>1.57</v>
@@ -7129,7 +7147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -7143,7 +7161,7 @@
         <v>41</v>
       </c>
       <c r="E96" s="2">
-        <v>44552.708333333343</v>
+        <v>44552.70833333334</v>
       </c>
       <c r="F96" t="s">
         <v>136</v>
@@ -7152,10 +7170,10 @@
         <v>180</v>
       </c>
       <c r="H96" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="I96" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J96">
         <v>2.7</v>
@@ -7194,7 +7212,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -7208,7 +7226,7 @@
         <v>39</v>
       </c>
       <c r="E97" s="2">
-        <v>44552.770833333343</v>
+        <v>44552.77083333334</v>
       </c>
       <c r="F97" t="s">
         <v>137</v>
@@ -7217,10 +7235,10 @@
         <v>88</v>
       </c>
       <c r="H97" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="I97" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J97">
         <v>2.17</v>
@@ -7241,7 +7259,7 @@
         <v>3.35</v>
       </c>
       <c r="P97">
-        <v>2.0499999999999998</v>
+        <v>2.05</v>
       </c>
       <c r="Q97">
         <v>3.65</v>
@@ -7259,7 +7277,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -7273,7 +7291,7 @@
         <v>39</v>
       </c>
       <c r="E98" s="2">
-        <v>44552.770833333343</v>
+        <v>44552.77083333334</v>
       </c>
       <c r="F98" t="s">
         <v>138</v>
@@ -7282,13 +7300,13 @@
         <v>72</v>
       </c>
       <c r="H98" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="I98" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J98">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="K98">
         <v>3.3</v>
@@ -7306,7 +7324,7 @@
         <v>2</v>
       </c>
       <c r="P98">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="Q98">
         <v>3.4</v>
@@ -7315,7 +7333,7 @@
         <v>1.94</v>
       </c>
       <c r="S98">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="T98">
         <v>3.45</v>
@@ -7324,7 +7342,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -7338,7 +7356,7 @@
         <v>41</v>
       </c>
       <c r="E99" s="2">
-        <v>44552.833333333343</v>
+        <v>44552.83333333334</v>
       </c>
       <c r="F99" t="s">
         <v>139</v>
@@ -7347,10 +7365,10 @@
         <v>111</v>
       </c>
       <c r="H99" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="I99" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J99">
         <v>3.55</v>
@@ -7359,7 +7377,7 @@
         <v>3.55</v>
       </c>
       <c r="L99">
-        <v>2.0299999999999998</v>
+        <v>2.03</v>
       </c>
       <c r="M99">
         <v>3.55</v>
@@ -7368,7 +7386,7 @@
         <v>3.55</v>
       </c>
       <c r="O99">
-        <v>2.0299999999999998</v>
+        <v>2.03</v>
       </c>
       <c r="P99">
         <v>3.2</v>
@@ -7389,7 +7407,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -7403,7 +7421,7 @@
         <v>41</v>
       </c>
       <c r="E100" s="2">
-        <v>44552.833333333343</v>
+        <v>44552.83333333334</v>
       </c>
       <c r="F100" t="s">
         <v>140</v>
@@ -7412,13 +7430,13 @@
         <v>85</v>
       </c>
       <c r="H100" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="I100" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J100">
-        <v>2.4500000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="K100">
         <v>3.4</v>
@@ -7427,7 +7445,7 @@
         <v>2.85</v>
       </c>
       <c r="M100">
-        <v>2.4500000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="N100">
         <v>3.4</v>
@@ -7454,7 +7472,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -7468,7 +7486,7 @@
         <v>39</v>
       </c>
       <c r="E101" s="2">
-        <v>44552.854166666657</v>
+        <v>44552.85416666666</v>
       </c>
       <c r="F101" t="s">
         <v>64</v>
@@ -7477,10 +7495,10 @@
         <v>117</v>
       </c>
       <c r="H101" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="I101" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J101">
         <v>1.47</v>
@@ -7504,13 +7522,13 @@
         <v>1.53</v>
       </c>
       <c r="T101">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="U101">
         <v>6.5</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -7524,7 +7542,7 @@
         <v>39</v>
       </c>
       <c r="E102" s="2">
-        <v>44552.854166666657</v>
+        <v>44552.85416666666</v>
       </c>
       <c r="F102" t="s">
         <v>141</v>
@@ -7533,10 +7551,10 @@
         <v>197</v>
       </c>
       <c r="H102" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="I102" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J102">
         <v>2.95</v>
@@ -7566,7 +7584,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -7580,7 +7598,7 @@
         <v>39</v>
       </c>
       <c r="E103" s="2">
-        <v>44552.854166666657</v>
+        <v>44552.85416666666</v>
       </c>
       <c r="F103" t="s">
         <v>142</v>
@@ -7589,10 +7607,10 @@
         <v>116</v>
       </c>
       <c r="H103" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="I103" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J103">
         <v>1.25</v>
@@ -7622,7 +7640,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -7636,7 +7654,7 @@
         <v>37</v>
       </c>
       <c r="E104" s="2">
-        <v>44552.864583333343</v>
+        <v>44552.86458333334</v>
       </c>
       <c r="F104" t="s">
         <v>143</v>
@@ -7645,10 +7663,10 @@
         <v>59</v>
       </c>
       <c r="H104" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="I104" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J104">
         <v>2.7</v>
@@ -7687,7 +7705,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -7701,19 +7719,19 @@
         <v>37</v>
       </c>
       <c r="E105" s="2">
-        <v>44552.864583333343</v>
+        <v>44552.86458333334</v>
       </c>
       <c r="F105" t="s">
         <v>144</v>
       </c>
       <c r="G105" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="H105" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="I105" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J105">
         <v>7.2</v>
@@ -7746,13 +7764,13 @@
         <v>6.2</v>
       </c>
       <c r="T105">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="U105">
         <v>1.48</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -7772,19 +7790,19 @@
         <v>145</v>
       </c>
       <c r="G106" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="H106" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="I106" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J106">
         <v>6.7</v>
       </c>
       <c r="K106">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="L106">
         <v>1.55</v>
@@ -7817,7 +7835,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -7831,19 +7849,19 @@
         <v>37</v>
       </c>
       <c r="E107" s="2">
-        <v>44552.916666666657</v>
+        <v>44552.91666666666</v>
       </c>
       <c r="F107" t="s">
         <v>99</v>
       </c>
       <c r="G107" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="H107" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="I107" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J107">
         <v>1.88</v>
@@ -7882,7 +7900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -7896,22 +7914,22 @@
         <v>46</v>
       </c>
       <c r="E108" s="2">
-        <v>44552.947916666657</v>
+        <v>44552.94791666666</v>
       </c>
       <c r="F108" t="s">
         <v>146</v>
       </c>
       <c r="G108" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="H108" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="I108" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J108">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="K108">
         <v>2.95</v>
@@ -7920,7 +7938,7 @@
         <v>3.15</v>
       </c>
       <c r="M108">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="N108">
         <v>2.95</v>
@@ -7929,7 +7947,7 @@
         <v>3.15</v>
       </c>
       <c r="P108">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="Q108">
         <v>3.05</v>
@@ -7938,7 +7956,7 @@
         <v>3</v>
       </c>
       <c r="S108">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="T108">
         <v>3.05</v>
@@ -7947,7 +7965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -7961,7 +7979,7 @@
         <v>46</v>
       </c>
       <c r="E109" s="2">
-        <v>44552.947916666657</v>
+        <v>44552.94791666666</v>
       </c>
       <c r="F109" t="s">
         <v>147</v>
@@ -7970,10 +7988,10 @@
         <v>170</v>
       </c>
       <c r="H109" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="I109" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J109">
         <v>2.23</v>
@@ -8012,7 +8030,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -8026,7 +8044,7 @@
         <v>46</v>
       </c>
       <c r="E110" s="2">
-        <v>44552.947916666657</v>
+        <v>44552.94791666666</v>
       </c>
       <c r="F110" t="s">
         <v>148</v>
@@ -8035,10 +8053,10 @@
         <v>198</v>
       </c>
       <c r="H110" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="I110" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J110">
         <v>20</v>
@@ -8047,7 +8065,7 @@
         <v>7.2</v>
       </c>
       <c r="L110">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="M110">
         <v>19</v>
@@ -8056,7 +8074,7 @@
         <v>7.3</v>
       </c>
       <c r="O110">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="P110">
         <v>24</v>
@@ -8065,19 +8083,19 @@
         <v>7.9</v>
       </c>
       <c r="R110">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="S110">
         <v>27</v>
       </c>
       <c r="T110">
-        <v>9.3000000000000007</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="U110">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -8091,19 +8109,19 @@
         <v>39</v>
       </c>
       <c r="E111" s="2">
-        <v>44552.947916666657</v>
+        <v>44552.94791666666</v>
       </c>
       <c r="F111" t="s">
         <v>149</v>
       </c>
       <c r="G111" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H111" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="I111" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J111">
         <v>1.25</v>
@@ -8142,7 +8160,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -8156,7 +8174,7 @@
         <v>39</v>
       </c>
       <c r="E112" s="2">
-        <v>44552.947916666657</v>
+        <v>44552.94791666666</v>
       </c>
       <c r="F112" t="s">
         <v>150</v>
@@ -8165,10 +8183,10 @@
         <v>125</v>
       </c>
       <c r="H112" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="I112" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J112">
         <v>4.2</v>
@@ -8189,7 +8207,7 @@
         <v>1.9</v>
       </c>
       <c r="P112">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="Q112">
         <v>3.8</v>
@@ -8198,7 +8216,7 @@
         <v>1.9</v>
       </c>
       <c r="S112">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="T112">
         <v>3.75</v>
@@ -8207,7 +8225,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:21">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -8221,19 +8239,19 @@
         <v>38</v>
       </c>
       <c r="E113" s="2">
-        <v>44552.958333333343</v>
+        <v>44552.95833333334</v>
       </c>
       <c r="F113" t="s">
         <v>151</v>
       </c>
       <c r="G113" t="s">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="H113" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="I113" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J113">
         <v>1.35</v>
@@ -8251,13 +8269,13 @@
         <v>5.5</v>
       </c>
       <c r="O113">
-        <v>9.1999999999999993</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="P113">
         <v>1.4</v>
       </c>
       <c r="Q113">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="R113">
         <v>7.9</v>
@@ -8269,10 +8287,10 @@
         <v>5.6</v>
       </c>
       <c r="U113">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -8286,19 +8304,19 @@
         <v>38</v>
       </c>
       <c r="E114" s="2">
-        <v>44552.958333333343</v>
+        <v>44552.95833333334</v>
       </c>
       <c r="F114" t="s">
         <v>152</v>
       </c>
       <c r="G114" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="H114" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="I114" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J114">
         <v>1.51</v>
@@ -8313,7 +8331,7 @@
         <v>1.55</v>
       </c>
       <c r="N114">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="O114">
         <v>6.6</v>
@@ -8337,7 +8355,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -8351,7 +8369,7 @@
         <v>38</v>
       </c>
       <c r="E115" s="2">
-        <v>44552.958333333343</v>
+        <v>44552.95833333334</v>
       </c>
       <c r="F115" t="s">
         <v>153</v>
@@ -8360,10 +8378,10 @@
         <v>60</v>
       </c>
       <c r="H115" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="I115" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J115">
         <v>6.6</v>
@@ -8378,7 +8396,7 @@
         <v>6.7</v>
       </c>
       <c r="N115">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="O115">
         <v>1.5</v>
@@ -8387,7 +8405,7 @@
         <v>7.4</v>
       </c>
       <c r="Q115">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="R115">
         <v>1.45</v>
@@ -8396,13 +8414,13 @@
         <v>7.7</v>
       </c>
       <c r="T115">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="U115">
         <v>1.42</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -8416,19 +8434,19 @@
         <v>38</v>
       </c>
       <c r="E116" s="2">
-        <v>44552.958333333343</v>
+        <v>44552.95833333334</v>
       </c>
       <c r="F116" t="s">
         <v>154</v>
       </c>
       <c r="G116" t="s">
-        <v>246</v>
+        <v>200</v>
       </c>
       <c r="H116" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="I116" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J116">
         <v>2</v>
@@ -8467,7 +8485,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -8481,19 +8499,19 @@
         <v>38</v>
       </c>
       <c r="E117" s="2">
-        <v>44552.958333333343</v>
+        <v>44552.95833333334</v>
       </c>
       <c r="F117" t="s">
         <v>155</v>
       </c>
       <c r="G117" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H117" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="I117" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J117">
         <v>2.02</v>
@@ -8532,7 +8550,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -8546,19 +8564,19 @@
         <v>37</v>
       </c>
       <c r="E118" s="2">
-        <v>44552.958333333343</v>
+        <v>44552.95833333334</v>
       </c>
       <c r="F118" t="s">
         <v>156</v>
       </c>
       <c r="G118" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="H118" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="I118" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J118">
         <v>1.99</v>
@@ -8597,7 +8615,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -8611,7 +8629,7 @@
         <v>37</v>
       </c>
       <c r="E119" s="2">
-        <v>44552.958333333343</v>
+        <v>44552.95833333334</v>
       </c>
       <c r="F119" t="s">
         <v>157</v>
@@ -8620,10 +8638,10 @@
         <v>82</v>
       </c>
       <c r="H119" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="I119" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J119">
         <v>1.04</v>
@@ -8662,7 +8680,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -8676,19 +8694,19 @@
         <v>38</v>
       </c>
       <c r="E120" s="2">
-        <v>44552.958333333343</v>
+        <v>44552.95833333334</v>
       </c>
       <c r="F120" t="s">
         <v>158</v>
       </c>
       <c r="G120" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="H120" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="I120" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J120">
         <v>3.8</v>
@@ -8697,7 +8715,7 @@
         <v>3.6</v>
       </c>
       <c r="L120">
-        <v>2.0299999999999998</v>
+        <v>2.03</v>
       </c>
       <c r="M120">
         <v>3.75</v>
@@ -8727,7 +8745,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -8741,19 +8759,19 @@
         <v>38</v>
       </c>
       <c r="E121" s="2">
-        <v>44552.958333333343</v>
+        <v>44552.95833333334</v>
       </c>
       <c r="F121" t="s">
         <v>159</v>
       </c>
       <c r="G121" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="H121" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="I121" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J121">
         <v>2.5</v>
@@ -8765,7 +8783,7 @@
         <v>3.05</v>
       </c>
       <c r="M121">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="N121">
         <v>3.2</v>
@@ -8774,7 +8792,7 @@
         <v>3.05</v>
       </c>
       <c r="P121">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="Q121">
         <v>3.2</v>
@@ -8792,7 +8810,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -8806,19 +8824,19 @@
         <v>38</v>
       </c>
       <c r="E122" s="2">
-        <v>44552.958333333343</v>
+        <v>44552.95833333334</v>
       </c>
       <c r="F122" t="s">
         <v>160</v>
       </c>
       <c r="G122" t="s">
-        <v>250</v>
+        <v>202</v>
       </c>
       <c r="H122" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="I122" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J122">
         <v>2.44</v>
@@ -8830,7 +8848,7 @@
         <v>3.2</v>
       </c>
       <c r="M122">
-        <v>2.4500000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="N122">
         <v>3.2</v>
@@ -8848,7 +8866,7 @@
         <v>2.95</v>
       </c>
       <c r="S122">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="T122">
         <v>3.2</v>
@@ -8857,7 +8875,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -8871,22 +8889,22 @@
         <v>38</v>
       </c>
       <c r="E123" s="2">
-        <v>44552.958333333343</v>
+        <v>44552.95833333334</v>
       </c>
       <c r="F123" t="s">
         <v>161</v>
       </c>
       <c r="G123" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="H123" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="I123" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J123">
-        <v>2.2599999999999998</v>
+        <v>2.26</v>
       </c>
       <c r="K123">
         <v>3.4</v>
@@ -8913,7 +8931,7 @@
         <v>3.3</v>
       </c>
       <c r="S123">
-        <v>2.2799999999999998</v>
+        <v>2.28</v>
       </c>
       <c r="T123">
         <v>3.45</v>
@@ -8922,7 +8940,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -8936,7 +8954,7 @@
         <v>41</v>
       </c>
       <c r="E124" s="2">
-        <v>44553.708333333343</v>
+        <v>44553.70833333334</v>
       </c>
       <c r="F124" t="s">
         <v>162</v>
@@ -8945,10 +8963,10 @@
         <v>181</v>
       </c>
       <c r="H124" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="I124" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J124">
         <v>2.44</v>
@@ -8987,7 +9005,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -9001,7 +9019,7 @@
         <v>41</v>
       </c>
       <c r="E125" s="2">
-        <v>44553.833333333343</v>
+        <v>44553.83333333334</v>
       </c>
       <c r="F125" t="s">
         <v>163</v>
@@ -9010,16 +9028,16 @@
         <v>167</v>
       </c>
       <c r="H125" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="I125" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J125">
         <v>1.48</v>
       </c>
       <c r="K125">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="L125">
         <v>6.3</v>
@@ -9028,7 +9046,7 @@
         <v>1.49</v>
       </c>
       <c r="N125">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="O125">
         <v>6.2</v>
@@ -9037,7 +9055,7 @@
         <v>1.48</v>
       </c>
       <c r="Q125">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="R125">
         <v>6.3</v>
@@ -9052,7 +9070,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -9066,22 +9084,22 @@
         <v>37</v>
       </c>
       <c r="E126" s="2">
-        <v>44553.864583333343</v>
+        <v>44553.86458333334</v>
       </c>
       <c r="F126" t="s">
         <v>164</v>
       </c>
       <c r="G126" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="H126" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="I126" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J126">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="K126">
         <v>8</v>
@@ -9090,7 +9108,7 @@
         <v>22</v>
       </c>
       <c r="M126">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="N126">
         <v>7.9</v>
@@ -9099,7 +9117,7 @@
         <v>22</v>
       </c>
       <c r="P126">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="Q126">
         <v>7.6</v>
@@ -9117,7 +9135,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -9131,7 +9149,7 @@
         <v>37</v>
       </c>
       <c r="E127" s="2">
-        <v>44553.958333333343</v>
+        <v>44553.95833333334</v>
       </c>
       <c r="F127" t="s">
         <v>96</v>
@@ -9140,10 +9158,10 @@
         <v>110</v>
       </c>
       <c r="H127" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="I127" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J127">
         <v>1.71</v>
@@ -9152,7 +9170,7 @@
         <v>3.7</v>
       </c>
       <c r="L127">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="M127">
         <v>1.71</v>
@@ -9161,7 +9179,7 @@
         <v>3.7</v>
       </c>
       <c r="O127">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="P127">
         <v>1.72</v>
@@ -9182,7 +9200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -9196,7 +9214,7 @@
         <v>41</v>
       </c>
       <c r="E128" s="2">
-        <v>44555.666666666657</v>
+        <v>44555.66666666666</v>
       </c>
       <c r="F128" t="s">
         <v>84</v>
@@ -9205,10 +9223,10 @@
         <v>130</v>
       </c>
       <c r="H128" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="I128" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J128">
         <v>1.67</v>
@@ -9247,7 +9265,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -9261,7 +9279,7 @@
         <v>41</v>
       </c>
       <c r="E129" s="2">
-        <v>44555.666666666657</v>
+        <v>44555.66666666666</v>
       </c>
       <c r="F129" t="s">
         <v>70</v>
@@ -9270,13 +9288,13 @@
         <v>136</v>
       </c>
       <c r="H129" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="I129" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J129">
-        <v>2.0099999999999998</v>
+        <v>2.01</v>
       </c>
       <c r="K129">
         <v>3.3</v>
@@ -9303,7 +9321,7 @@
         <v>3.85</v>
       </c>
       <c r="S129">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="T129">
         <v>3.25</v>
@@ -9312,7 +9330,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -9326,7 +9344,7 @@
         <v>41</v>
       </c>
       <c r="E130" s="2">
-        <v>44555.791666666657</v>
+        <v>44555.79166666666</v>
       </c>
       <c r="F130" t="s">
         <v>165</v>
@@ -9335,10 +9353,10 @@
         <v>129</v>
       </c>
       <c r="H130" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="I130" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J130">
         <v>2.33</v>
@@ -9359,7 +9377,7 @@
         <v>3.1</v>
       </c>
       <c r="P130">
-        <v>2.2599999999999998</v>
+        <v>2.26</v>
       </c>
       <c r="Q130">
         <v>3.4</v>
@@ -9377,7 +9395,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -9400,10 +9418,10 @@
         <v>140</v>
       </c>
       <c r="H131" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="I131" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J131">
         <v>2.6</v>
@@ -9442,7 +9460,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -9456,7 +9474,7 @@
         <v>46</v>
       </c>
       <c r="E132" s="2">
-        <v>44556.645833333343</v>
+        <v>44556.64583333334</v>
       </c>
       <c r="F132" t="s">
         <v>146</v>
@@ -9465,16 +9483,16 @@
         <v>198</v>
       </c>
       <c r="H132" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="I132" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J132">
         <v>10.5</v>
       </c>
       <c r="K132">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="L132">
         <v>1.36</v>
@@ -9492,7 +9510,7 @@
         <v>9.4</v>
       </c>
       <c r="Q132">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="R132">
         <v>1.35</v>
@@ -9507,7 +9525,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -9521,7 +9539,7 @@
         <v>35</v>
       </c>
       <c r="E133" s="2">
-        <v>44556.645833333343</v>
+        <v>44556.64583333334</v>
       </c>
       <c r="F133" t="s">
         <v>166</v>
@@ -9530,10 +9548,10 @@
         <v>62</v>
       </c>
       <c r="H133" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="I133" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J133">
         <v>4.7</v>
@@ -9554,7 +9572,7 @@
         <v>1.72</v>
       </c>
       <c r="P133">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -9572,7 +9590,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -9586,7 +9604,7 @@
         <v>41</v>
       </c>
       <c r="E134" s="2">
-        <v>44556.666666666657</v>
+        <v>44556.66666666666</v>
       </c>
       <c r="F134" t="s">
         <v>85</v>
@@ -9595,10 +9613,10 @@
         <v>139</v>
       </c>
       <c r="H134" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="I134" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J134">
         <v>2.08</v>
@@ -9619,7 +9637,7 @@
         <v>3.5</v>
       </c>
       <c r="P134">
-        <v>2.0699999999999998</v>
+        <v>2.07</v>
       </c>
       <c r="Q134">
         <v>3.55</v>
@@ -9628,7 +9646,7 @@
         <v>3.5</v>
       </c>
       <c r="S134">
-        <v>2.0499999999999998</v>
+        <v>2.05</v>
       </c>
       <c r="T134">
         <v>3.7</v>
@@ -9637,7 +9655,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -9651,7 +9669,7 @@
         <v>41</v>
       </c>
       <c r="E135" s="2">
-        <v>44556.666666666657</v>
+        <v>44556.66666666666</v>
       </c>
       <c r="F135" t="s">
         <v>167</v>
@@ -9660,7 +9678,7 @@
         <v>132</v>
       </c>
       <c r="J135">
-        <v>2.4500000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="K135">
         <v>3.4</v>
@@ -9669,7 +9687,7 @@
         <v>2.85</v>
       </c>
       <c r="M135">
-        <v>2.4500000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="N135">
         <v>3.4</v>
@@ -9696,7 +9714,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -9719,13 +9737,13 @@
         <v>191</v>
       </c>
       <c r="H136" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="I136" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J136">
-        <v>1.1200000000000001</v>
+        <v>1.12</v>
       </c>
       <c r="K136">
         <v>10.5</v>
@@ -9734,7 +9752,7 @@
         <v>19.5</v>
       </c>
       <c r="M136">
-        <v>1.1200000000000001</v>
+        <v>1.12</v>
       </c>
       <c r="N136">
         <v>10.5</v>
@@ -9743,7 +9761,7 @@
         <v>19</v>
       </c>
       <c r="P136">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="Q136">
         <v>10.5</v>
@@ -9752,7 +9770,7 @@
         <v>17.5</v>
       </c>
       <c r="S136">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="T136">
         <v>10</v>
@@ -9761,7 +9779,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -9781,13 +9799,13 @@
         <v>169</v>
       </c>
       <c r="G137" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="H137" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="I137" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J137">
         <v>2.35</v>
@@ -9826,7 +9844,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:21">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -9846,19 +9864,19 @@
         <v>170</v>
       </c>
       <c r="G138" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="H138" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="I138" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J138">
         <v>1.47</v>
       </c>
       <c r="K138">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="L138">
         <v>6.9</v>
@@ -9867,7 +9885,7 @@
         <v>1.47</v>
       </c>
       <c r="N138">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="O138">
         <v>6.9</v>
@@ -9891,7 +9909,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:21">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -9914,10 +9932,10 @@
         <v>147</v>
       </c>
       <c r="H139" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="I139" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J139">
         <v>4.8</v>
@@ -9947,7 +9965,7 @@
         <v>1.86</v>
       </c>
       <c r="S139">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="T139">
         <v>3.4</v>
@@ -9956,7 +9974,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:21">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -9976,19 +9994,19 @@
         <v>172</v>
       </c>
       <c r="G140" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="H140" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="I140" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J140">
         <v>1.61</v>
       </c>
       <c r="K140">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="L140">
         <v>5.3</v>
@@ -9997,7 +10015,7 @@
         <v>1.61</v>
       </c>
       <c r="N140">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="O140">
         <v>5.3</v>
@@ -10015,13 +10033,13 @@
         <v>1.65</v>
       </c>
       <c r="T140">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="U140">
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -10044,10 +10062,10 @@
         <v>95</v>
       </c>
       <c r="H141" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="I141" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J141">
         <v>1.68</v>
@@ -10065,7 +10083,7 @@
         <v>4.2</v>
       </c>
       <c r="O141">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="P141">
         <v>1.68</v>
@@ -10074,7 +10092,7 @@
         <v>4.3</v>
       </c>
       <c r="R141">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="S141">
         <v>1.73</v>
@@ -10086,7 +10104,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -10109,10 +10127,10 @@
         <v>189</v>
       </c>
       <c r="H142" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="I142" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J142">
         <v>1.74</v>
@@ -10121,7 +10139,7 @@
         <v>3.8</v>
       </c>
       <c r="L142">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="M142">
         <v>1.75</v>
@@ -10130,7 +10148,7 @@
         <v>3.7</v>
       </c>
       <c r="O142">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="P142">
         <v>1.75</v>
@@ -10139,7 +10157,7 @@
         <v>3.7</v>
       </c>
       <c r="R142">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="S142">
         <v>1.67</v>
@@ -10151,7 +10169,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -10171,19 +10189,19 @@
         <v>174</v>
       </c>
       <c r="G143" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="H143" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="I143" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J143">
         <v>6.5</v>
       </c>
       <c r="K143">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="L143">
         <v>1.52</v>
@@ -10192,7 +10210,7 @@
         <v>6.5</v>
       </c>
       <c r="N143">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="O143">
         <v>1.52</v>
@@ -10216,7 +10234,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -10239,10 +10257,10 @@
         <v>187</v>
       </c>
       <c r="H144" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="I144" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J144">
         <v>1.96</v>
@@ -10260,7 +10278,7 @@
         <v>3.6</v>
       </c>
       <c r="O144">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="P144">
         <v>1.98</v>
@@ -10281,7 +10299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -10304,13 +10322,13 @@
         <v>148</v>
       </c>
       <c r="H145" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="I145" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J145">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="K145">
         <v>7.2</v>
@@ -10319,7 +10337,7 @@
         <v>19</v>
       </c>
       <c r="M145">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="N145">
         <v>7.3</v>
@@ -10328,7 +10346,7 @@
         <v>21</v>
       </c>
       <c r="P145">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="Q145">
         <v>7.3</v>
@@ -10337,7 +10355,7 @@
         <v>22</v>
       </c>
       <c r="S145">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="T145">
         <v>7.5</v>
@@ -10346,7 +10364,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -10360,7 +10378,7 @@
         <v>41</v>
       </c>
       <c r="E146" s="2">
-        <v>44556.791666666657</v>
+        <v>44556.79166666666</v>
       </c>
       <c r="F146" t="s">
         <v>111</v>
@@ -10369,10 +10387,10 @@
         <v>162</v>
       </c>
       <c r="H146" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="I146" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J146">
         <v>1.37</v>
@@ -10396,13 +10414,13 @@
         <v>1.35</v>
       </c>
       <c r="Q146">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="R146">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -10416,7 +10434,7 @@
         <v>40</v>
       </c>
       <c r="E147" s="2">
-        <v>44556.854166666657</v>
+        <v>44556.85416666666</v>
       </c>
       <c r="F147" t="s">
         <v>177</v>
@@ -10425,10 +10443,10 @@
         <v>67</v>
       </c>
       <c r="H147" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="I147" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J147">
         <v>5.4</v>
@@ -10449,7 +10467,7 @@
         <v>1.7</v>
       </c>
       <c r="P147">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="Q147">
         <v>3.75</v>
@@ -10458,7 +10476,7 @@
         <v>1.74</v>
       </c>
       <c r="S147">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="T147">
         <v>3.7</v>
@@ -10467,7 +10485,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -10481,7 +10499,7 @@
         <v>35</v>
       </c>
       <c r="E148" s="2">
-        <v>44556.854166666657</v>
+        <v>44556.85416666666</v>
       </c>
       <c r="F148" t="s">
         <v>94</v>
@@ -10490,10 +10508,10 @@
         <v>57</v>
       </c>
       <c r="H148" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="I148" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J148">
         <v>2.41</v>
@@ -10505,7 +10523,7 @@
         <v>2.8</v>
       </c>
       <c r="M148">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="N148">
         <v>3.5</v>
@@ -10514,7 +10532,7 @@
         <v>2.65</v>
       </c>
       <c r="P148">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="Q148">
         <v>3.55</v>
@@ -10532,7 +10550,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -10546,19 +10564,19 @@
         <v>40</v>
       </c>
       <c r="E149" s="2">
-        <v>44556.958333333343</v>
+        <v>44556.95833333334</v>
       </c>
       <c r="F149" t="s">
         <v>178</v>
       </c>
       <c r="G149" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="H149" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="I149" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J149">
         <v>1.97</v>
@@ -10597,7 +10615,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:21">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -10611,7 +10629,7 @@
         <v>35</v>
       </c>
       <c r="E150" s="2">
-        <v>44556.958333333343</v>
+        <v>44556.95833333334</v>
       </c>
       <c r="F150" t="s">
         <v>179</v>
@@ -10620,10 +10638,10 @@
         <v>69</v>
       </c>
       <c r="H150" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="I150" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J150">
         <v>5.3</v>
@@ -10653,7 +10671,7 @@
         <v>1.57</v>
       </c>
       <c r="S150">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="T150">
         <v>4.7</v>
@@ -10662,7 +10680,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -10676,7 +10694,7 @@
         <v>41</v>
       </c>
       <c r="E151" s="2">
-        <v>44557.833333333343</v>
+        <v>44557.83333333334</v>
       </c>
       <c r="F151" t="s">
         <v>180</v>
@@ -10685,10 +10703,10 @@
         <v>163</v>
       </c>
       <c r="H151" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="I151" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J151">
         <v>2.75</v>
@@ -10697,7 +10715,7 @@
         <v>3.35</v>
       </c>
       <c r="L151">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="M151">
         <v>2.65</v>
@@ -10727,7 +10745,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:21">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -10741,7 +10759,7 @@
         <v>41</v>
       </c>
       <c r="E152" s="2">
-        <v>44557.833333333343</v>
+        <v>44557.83333333334</v>
       </c>
       <c r="F152" t="s">
         <v>181</v>
@@ -10750,10 +10768,10 @@
         <v>135</v>
       </c>
       <c r="H152" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="I152" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J152">
         <v>2.9</v>
@@ -10792,7 +10810,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:21">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -10806,19 +10824,19 @@
         <v>35</v>
       </c>
       <c r="E153" s="2">
-        <v>44557.864583333343</v>
+        <v>44557.86458333334</v>
       </c>
       <c r="F153" t="s">
         <v>182</v>
       </c>
       <c r="G153" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H153" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="I153" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J153">
         <v>2.15</v>
@@ -10848,7 +10866,7 @@
         <v>3.05</v>
       </c>
       <c r="S153">
-        <v>2.0699999999999998</v>
+        <v>2.07</v>
       </c>
       <c r="T153">
         <v>3.75</v>
@@ -10857,7 +10875,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:21">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -10871,7 +10889,7 @@
         <v>35</v>
       </c>
       <c r="E154" s="2">
-        <v>44557.864583333343</v>
+        <v>44557.86458333334</v>
       </c>
       <c r="F154" t="s">
         <v>183</v>
@@ -10880,10 +10898,10 @@
         <v>77</v>
       </c>
       <c r="H154" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="I154" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J154">
         <v>1.88</v>
@@ -10904,7 +10922,7 @@
         <v>3.8</v>
       </c>
       <c r="P154">
-        <v>2.0499999999999998</v>
+        <v>2.05</v>
       </c>
       <c r="Q154">
         <v>3.65</v>
@@ -10922,7 +10940,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:21">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -10936,19 +10954,19 @@
         <v>40</v>
       </c>
       <c r="E155" s="2">
-        <v>44557.958333333343</v>
+        <v>44557.95833333334</v>
       </c>
       <c r="F155" t="s">
         <v>184</v>
       </c>
       <c r="G155" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="H155" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="I155" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J155">
         <v>6.2</v>
@@ -10987,7 +11005,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:21">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -11001,7 +11019,7 @@
         <v>35</v>
       </c>
       <c r="E156" s="2">
-        <v>44557.958333333343</v>
+        <v>44557.95833333334</v>
       </c>
       <c r="F156" t="s">
         <v>185</v>
@@ -11010,10 +11028,10 @@
         <v>193</v>
       </c>
       <c r="H156" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="I156" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J156">
         <v>8</v>
@@ -11046,13 +11064,13 @@
         <v>6.7</v>
       </c>
       <c r="T156">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="U156">
         <v>1.47</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:21">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -11066,7 +11084,7 @@
         <v>35</v>
       </c>
       <c r="E157" s="2">
-        <v>44557.958333333343</v>
+        <v>44557.95833333334</v>
       </c>
       <c r="F157" t="s">
         <v>186</v>
@@ -11075,10 +11093,10 @@
         <v>106</v>
       </c>
       <c r="H157" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="I157" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J157">
         <v>1.98</v>
@@ -11117,7 +11135,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:21">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -11140,10 +11158,10 @@
         <v>114</v>
       </c>
       <c r="H158" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="I158" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J158">
         <v>3.7</v>
@@ -11182,7 +11200,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:21">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -11205,10 +11223,10 @@
         <v>175</v>
       </c>
       <c r="H159" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="I159" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J159">
         <v>3.45</v>
@@ -11244,10 +11262,10 @@
         <v>3.6</v>
       </c>
       <c r="U159">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -11270,10 +11288,10 @@
         <v>174</v>
       </c>
       <c r="H160" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="I160" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J160">
         <v>1.77</v>
@@ -11312,7 +11330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:21">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -11326,7 +11344,7 @@
         <v>36</v>
       </c>
       <c r="E161" s="2">
-        <v>44558.833333333343</v>
+        <v>44558.83333333334</v>
       </c>
       <c r="F161" t="s">
         <v>81</v>
@@ -11335,10 +11353,10 @@
         <v>104</v>
       </c>
       <c r="H161" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="I161" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J161">
         <v>3.15</v>
@@ -11365,7 +11383,7 @@
         <v>3.5</v>
       </c>
       <c r="R161">
-        <v>2.2599999999999998</v>
+        <v>2.26</v>
       </c>
       <c r="S161">
         <v>3.15</v>
@@ -11377,7 +11395,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:21">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -11391,7 +11409,7 @@
         <v>36</v>
       </c>
       <c r="E162" s="2">
-        <v>44558.916666666657</v>
+        <v>44558.91666666666</v>
       </c>
       <c r="F162" t="s">
         <v>190</v>
@@ -11400,10 +11418,10 @@
         <v>124</v>
       </c>
       <c r="H162" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="I162" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J162">
         <v>2.65</v>
@@ -11442,7 +11460,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:21">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -11456,7 +11474,7 @@
         <v>40</v>
       </c>
       <c r="E163" s="2">
-        <v>44558.958333333343</v>
+        <v>44558.95833333334</v>
       </c>
       <c r="F163" t="s">
         <v>191</v>
@@ -11465,13 +11483,13 @@
         <v>68</v>
       </c>
       <c r="H163" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="I163" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J163">
-        <v>8.1999999999999993</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K163">
         <v>6.1</v>
@@ -11480,7 +11498,7 @@
         <v>1.33</v>
       </c>
       <c r="M163">
-        <v>8.1999999999999993</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="N163">
         <v>6.1</v>
@@ -11498,7 +11516,7 @@
         <v>1.33</v>
       </c>
       <c r="S163">
-        <v>9.1999999999999993</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="T163">
         <v>6.7</v>
@@ -11507,7 +11525,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:21">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -11527,13 +11545,13 @@
         <v>192</v>
       </c>
       <c r="G164" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H164" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="I164" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J164">
         <v>1.95</v>
@@ -11554,7 +11572,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:21">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -11568,7 +11586,7 @@
         <v>39</v>
       </c>
       <c r="E165" s="2">
-        <v>44577.833333333343</v>
+        <v>44577.83333333334</v>
       </c>
       <c r="F165" t="s">
         <v>64</v>
@@ -11577,10 +11595,10 @@
         <v>101</v>
       </c>
       <c r="H165" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="I165" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J165">
         <v>1.36</v>
@@ -11589,7 +11607,7 @@
         <v>5.4</v>
       </c>
       <c r="L165">
-        <v>8.8000000000000007</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M165">
         <v>1.35</v>
@@ -11607,10 +11625,10 @@
         <v>5.3</v>
       </c>
       <c r="R165">
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -11624,7 +11642,7 @@
         <v>35</v>
       </c>
       <c r="E166" s="2">
-        <v>44577.854166666657</v>
+        <v>44577.85416666666</v>
       </c>
       <c r="F166" t="s">
         <v>193</v>
@@ -11633,16 +11651,16 @@
         <v>173</v>
       </c>
       <c r="H166" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="I166" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J166">
         <v>1.42</v>
       </c>
       <c r="K166">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="L166">
         <v>7</v>
@@ -11651,7 +11669,7 @@
         <v>1.42</v>
       </c>
       <c r="N166">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="O166">
         <v>7</v>
@@ -11675,7 +11693,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:21">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -11689,19 +11707,19 @@
         <v>45</v>
       </c>
       <c r="E167" s="2">
-        <v>44577.854166666657</v>
+        <v>44577.85416666666</v>
       </c>
       <c r="F167" t="s">
         <v>123</v>
       </c>
       <c r="G167" t="s">
-        <v>259</v>
+        <v>211</v>
       </c>
       <c r="H167" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="I167" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J167">
         <v>3.1</v>
@@ -11740,7 +11758,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:21">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -11754,19 +11772,19 @@
         <v>45</v>
       </c>
       <c r="E168" s="2">
-        <v>44577.854166666657</v>
+        <v>44577.85416666666</v>
       </c>
       <c r="F168" t="s">
         <v>194</v>
       </c>
       <c r="G168" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="H168" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="I168" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J168">
         <v>1.85</v>
@@ -11775,7 +11793,7 @@
         <v>3.4</v>
       </c>
       <c r="L168">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="M168">
         <v>1.85</v>
@@ -11784,16 +11802,16 @@
         <v>3.4</v>
       </c>
       <c r="O168">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="P168">
-        <v>2.0099999999999998</v>
+        <v>2.01</v>
       </c>
       <c r="Q168">
         <v>3.2</v>
       </c>
       <c r="R168">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="S168">
         <v>1.94</v>
@@ -11802,10 +11820,10 @@
         <v>3.25</v>
       </c>
       <c r="U168">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -11825,19 +11843,19 @@
         <v>124</v>
       </c>
       <c r="G169" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="H169" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="I169" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J169">
-        <v>9.1999999999999993</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K169">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="L169">
         <v>1.35</v>
@@ -11852,7 +11870,7 @@
         <v>1.36</v>
       </c>
       <c r="P169">
-        <v>9.6999999999999993</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -11870,7 +11888,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:21">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -11884,16 +11902,16 @@
         <v>36</v>
       </c>
       <c r="E170" s="2">
-        <v>44577.895833333343</v>
+        <v>44577.89583333334</v>
       </c>
       <c r="F170" t="s">
         <v>58</v>
       </c>
       <c r="G170" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="J170">
-        <v>2.0499999999999998</v>
+        <v>2.05</v>
       </c>
       <c r="K170">
         <v>3.25</v>
@@ -11902,7 +11920,7 @@
         <v>3.9</v>
       </c>
       <c r="M170">
-        <v>2.0099999999999998</v>
+        <v>2.01</v>
       </c>
       <c r="N170">
         <v>3.25</v>
@@ -11929,7 +11947,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:21">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -11943,7 +11961,7 @@
         <v>39</v>
       </c>
       <c r="E171" s="2">
-        <v>44577.947916666657</v>
+        <v>44577.94791666666</v>
       </c>
       <c r="F171" t="s">
         <v>195</v>
@@ -11952,10 +11970,10 @@
         <v>142</v>
       </c>
       <c r="H171" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="I171" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J171">
         <v>3.15</v>
@@ -11973,7 +11991,7 @@
         <v>3.5</v>
       </c>
       <c r="O171">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="P171">
         <v>3.2</v>
@@ -11982,7 +12000,7 @@
         <v>3.5</v>
       </c>
       <c r="R171">
-        <v>2.2799999999999998</v>
+        <v>2.28</v>
       </c>
       <c r="S171">
         <v>3.2</v>
@@ -11994,7 +12012,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:21">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -12008,22 +12026,22 @@
         <v>38</v>
       </c>
       <c r="E172" s="2">
-        <v>44577.947916666657</v>
+        <v>44577.94791666666</v>
       </c>
       <c r="F172" t="s">
         <v>152</v>
       </c>
       <c r="G172" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="H172" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="I172" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J172">
-        <v>2.2599999999999998</v>
+        <v>2.26</v>
       </c>
       <c r="K172">
         <v>3.35</v>
@@ -12032,7 +12050,7 @@
         <v>3.35</v>
       </c>
       <c r="M172">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="N172">
         <v>3.3</v>
@@ -12050,7 +12068,7 @@
         <v>3.3</v>
       </c>
       <c r="S172">
-        <v>2.2599999999999998</v>
+        <v>2.26</v>
       </c>
       <c r="T172">
         <v>3.4</v>
@@ -12059,7 +12077,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:21">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -12073,7 +12091,7 @@
         <v>35</v>
       </c>
       <c r="E173" s="2">
-        <v>44577.958333333343</v>
+        <v>44577.95833333334</v>
       </c>
       <c r="F173" t="s">
         <v>69</v>
@@ -12082,10 +12100,10 @@
         <v>185</v>
       </c>
       <c r="H173" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="I173" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J173">
         <v>1.45</v>
@@ -12100,7 +12118,7 @@
         <v>1.47</v>
       </c>
       <c r="N173">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="O173">
         <v>6.4</v>
@@ -12118,13 +12136,13 @@
         <v>1.44</v>
       </c>
       <c r="T173">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="U173">
         <v>6.6</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:21">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -12138,7 +12156,7 @@
         <v>36</v>
       </c>
       <c r="E174" s="2">
-        <v>44577.979166666657</v>
+        <v>44577.97916666666</v>
       </c>
       <c r="F174" t="s">
         <v>196</v>
@@ -12147,10 +12165,10 @@
         <v>63</v>
       </c>
       <c r="H174" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="I174" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J174">
         <v>12.5</v>
@@ -12189,7 +12207,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:21">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -12203,7 +12221,7 @@
         <v>39</v>
       </c>
       <c r="E175" s="2">
-        <v>44578.854166666657</v>
+        <v>44578.85416666666</v>
       </c>
       <c r="F175" t="s">
         <v>88</v>
@@ -12212,10 +12230,10 @@
         <v>149</v>
       </c>
       <c r="H175" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="I175" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J175">
         <v>4.5</v>
@@ -12227,7 +12245,7 @@
         <v>1.86</v>
       </c>
       <c r="M175">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="N175">
         <v>3.6</v>
@@ -12254,7 +12272,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:21">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -12268,19 +12286,19 @@
         <v>39</v>
       </c>
       <c r="E176" s="2">
-        <v>44578.854166666657</v>
+        <v>44578.85416666666</v>
       </c>
       <c r="F176" t="s">
         <v>125</v>
       </c>
       <c r="G176" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H176" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="I176" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J176">
         <v>1.3</v>
@@ -12319,7 +12337,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:21">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -12333,19 +12351,19 @@
         <v>39</v>
       </c>
       <c r="E177" s="2">
-        <v>44578.947916666657</v>
+        <v>44578.94791666666</v>
       </c>
       <c r="F177" t="s">
         <v>197</v>
       </c>
       <c r="G177" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="H177" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="I177" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J177">
         <v>1.41</v>
@@ -12378,13 +12396,13 @@
         <v>1.44</v>
       </c>
       <c r="T177">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="U177">
         <v>8.1</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:21">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -12398,7 +12416,7 @@
         <v>46</v>
       </c>
       <c r="E178" s="2">
-        <v>44578.947916666657</v>
+        <v>44578.94791666666</v>
       </c>
       <c r="F178" t="s">
         <v>198</v>
@@ -12407,10 +12425,10 @@
         <v>147</v>
       </c>
       <c r="H178" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="I178" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J178">
         <v>1.3</v>
@@ -12428,7 +12446,7 @@
         <v>5.6</v>
       </c>
       <c r="O178">
-        <v>9.1999999999999993</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="P178">
         <v>1.35</v>
@@ -12449,7 +12467,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:21">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -12469,16 +12487,16 @@
         <v>83</v>
       </c>
       <c r="G179" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H179" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="I179" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J179">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="K179">
         <v>3.3</v>
@@ -12496,7 +12514,7 @@
         <v>3.1</v>
       </c>
       <c r="P179">
-        <v>2.2599999999999998</v>
+        <v>2.26</v>
       </c>
       <c r="Q179">
         <v>3.25</v>
@@ -12514,7 +12532,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:21">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -12528,7 +12546,7 @@
         <v>41</v>
       </c>
       <c r="E180" s="2">
-        <v>44579.708333333343</v>
+        <v>44579.70833333334</v>
       </c>
       <c r="F180" t="s">
         <v>140</v>
@@ -12561,7 +12579,7 @@
         <v>3.8</v>
       </c>
       <c r="R180">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="S180">
         <v>1.7</v>
@@ -12573,7 +12591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:21">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -12587,7 +12605,7 @@
         <v>41</v>
       </c>
       <c r="E181" s="2">
-        <v>44579.833333333343</v>
+        <v>44579.83333333334</v>
       </c>
       <c r="F181" t="s">
         <v>180</v>
@@ -12596,7 +12614,7 @@
         <v>132</v>
       </c>
       <c r="J181">
-        <v>2.2799999999999998</v>
+        <v>2.28</v>
       </c>
       <c r="K181">
         <v>3.25</v>
@@ -12632,7 +12650,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:21">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -12646,7 +12664,7 @@
         <v>41</v>
       </c>
       <c r="E182" s="2">
-        <v>44579.833333333343</v>
+        <v>44579.83333333334</v>
       </c>
       <c r="F182" t="s">
         <v>139</v>
@@ -12655,13 +12673,13 @@
         <v>163</v>
       </c>
       <c r="H182" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="I182" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J182">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="K182">
         <v>4</v>
@@ -12670,7 +12688,7 @@
         <v>1.65</v>
       </c>
       <c r="M182">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="N182">
         <v>3.95</v>
@@ -12688,7 +12706,7 @@
         <v>1.72</v>
       </c>
       <c r="S182">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="T182">
         <v>4</v>
@@ -12697,7 +12715,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:21">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -12711,7 +12729,7 @@
         <v>41</v>
       </c>
       <c r="E183" s="2">
-        <v>44581.708333333343</v>
+        <v>44581.70833333334</v>
       </c>
       <c r="F183" t="s">
         <v>85</v>
@@ -12720,7 +12738,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:21">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -12734,7 +12752,7 @@
         <v>41</v>
       </c>
       <c r="E184" s="2">
-        <v>44581.833333333343</v>
+        <v>44581.83333333334</v>
       </c>
       <c r="F184" t="s">
         <v>84</v>
@@ -12743,7 +12761,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:21">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -12764,6 +12782,2233 @@
       </c>
       <c r="G185" t="s">
         <v>145</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>184</v>
+      </c>
+      <c r="C186" t="s">
+        <v>24</v>
+      </c>
+      <c r="D186" t="s">
+        <v>38</v>
+      </c>
+      <c r="E186" s="2">
+        <v>44584.625</v>
+      </c>
+      <c r="F186" t="s">
+        <v>199</v>
+      </c>
+      <c r="G186" t="s">
+        <v>155</v>
+      </c>
+      <c r="H186" t="s">
+        <v>279</v>
+      </c>
+      <c r="I186" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>185</v>
+      </c>
+      <c r="C187" t="s">
+        <v>21</v>
+      </c>
+      <c r="D187" t="s">
+        <v>35</v>
+      </c>
+      <c r="E187" s="2">
+        <v>44584.64583333334</v>
+      </c>
+      <c r="F187" t="s">
+        <v>173</v>
+      </c>
+      <c r="G187" t="s">
+        <v>62</v>
+      </c>
+      <c r="H187" t="s">
+        <v>282</v>
+      </c>
+      <c r="I187" t="s">
+        <v>302</v>
+      </c>
+      <c r="J187">
+        <v>5</v>
+      </c>
+      <c r="K187">
+        <v>4.2</v>
+      </c>
+      <c r="L187">
+        <v>1.62</v>
+      </c>
+      <c r="M187">
+        <v>5</v>
+      </c>
+      <c r="N187">
+        <v>4.3</v>
+      </c>
+      <c r="O187">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>186</v>
+      </c>
+      <c r="C188" t="s">
+        <v>32</v>
+      </c>
+      <c r="D188" t="s">
+        <v>45</v>
+      </c>
+      <c r="E188" s="2">
+        <v>44584.66666666666</v>
+      </c>
+      <c r="F188" t="s">
+        <v>127</v>
+      </c>
+      <c r="G188" t="s">
+        <v>264</v>
+      </c>
+      <c r="H188" t="s">
+        <v>289</v>
+      </c>
+      <c r="I188" t="s">
+        <v>302</v>
+      </c>
+      <c r="J188">
+        <v>1.57</v>
+      </c>
+      <c r="K188">
+        <v>3.45</v>
+      </c>
+      <c r="L188">
+        <v>7.8</v>
+      </c>
+      <c r="M188">
+        <v>1.57</v>
+      </c>
+      <c r="N188">
+        <v>3.5</v>
+      </c>
+      <c r="O188">
+        <v>7.8</v>
+      </c>
+      <c r="P188">
+        <v>1.61</v>
+      </c>
+      <c r="Q188">
+        <v>3.4</v>
+      </c>
+      <c r="R188">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>187</v>
+      </c>
+      <c r="C189" t="s">
+        <v>20</v>
+      </c>
+      <c r="D189" t="s">
+        <v>34</v>
+      </c>
+      <c r="E189" s="2">
+        <v>44584.66666666666</v>
+      </c>
+      <c r="F189" t="s">
+        <v>145</v>
+      </c>
+      <c r="G189" t="s">
+        <v>244</v>
+      </c>
+      <c r="H189" t="s">
+        <v>279</v>
+      </c>
+      <c r="I189" t="s">
+        <v>301</v>
+      </c>
+      <c r="J189">
+        <v>2.65</v>
+      </c>
+      <c r="K189">
+        <v>3.05</v>
+      </c>
+      <c r="L189">
+        <v>3</v>
+      </c>
+      <c r="M189">
+        <v>2.6</v>
+      </c>
+      <c r="N189">
+        <v>3.05</v>
+      </c>
+      <c r="O189">
+        <v>3.05</v>
+      </c>
+      <c r="P189">
+        <v>2.65</v>
+      </c>
+      <c r="Q189">
+        <v>3.1</v>
+      </c>
+      <c r="R189">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>188</v>
+      </c>
+      <c r="C190" t="s">
+        <v>27</v>
+      </c>
+      <c r="D190" t="s">
+        <v>41</v>
+      </c>
+      <c r="E190" s="2">
+        <v>44584.66666666666</v>
+      </c>
+      <c r="F190" t="s">
+        <v>131</v>
+      </c>
+      <c r="G190" t="s">
+        <v>180</v>
+      </c>
+      <c r="H190" t="s">
+        <v>281</v>
+      </c>
+      <c r="I190" t="s">
+        <v>301</v>
+      </c>
+      <c r="J190">
+        <v>2.75</v>
+      </c>
+      <c r="K190">
+        <v>3.1</v>
+      </c>
+      <c r="L190">
+        <v>2.7</v>
+      </c>
+      <c r="M190">
+        <v>2.75</v>
+      </c>
+      <c r="N190">
+        <v>3.1</v>
+      </c>
+      <c r="O190">
+        <v>2.7</v>
+      </c>
+      <c r="P190">
+        <v>3.3</v>
+      </c>
+      <c r="Q190">
+        <v>3.35</v>
+      </c>
+      <c r="R190">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>189</v>
+      </c>
+      <c r="C191" t="s">
+        <v>27</v>
+      </c>
+      <c r="D191" t="s">
+        <v>41</v>
+      </c>
+      <c r="E191" s="2">
+        <v>44584.66666666666</v>
+      </c>
+      <c r="F191" t="s">
+        <v>70</v>
+      </c>
+      <c r="G191" t="s">
+        <v>85</v>
+      </c>
+      <c r="H191" t="s">
+        <v>280</v>
+      </c>
+      <c r="I191" t="s">
+        <v>301</v>
+      </c>
+      <c r="J191">
+        <v>2.65</v>
+      </c>
+      <c r="K191">
+        <v>3.15</v>
+      </c>
+      <c r="L191">
+        <v>2.75</v>
+      </c>
+      <c r="M191">
+        <v>2.65</v>
+      </c>
+      <c r="N191">
+        <v>3.2</v>
+      </c>
+      <c r="O191">
+        <v>2.8</v>
+      </c>
+      <c r="P191">
+        <v>2.7</v>
+      </c>
+      <c r="Q191">
+        <v>3.2</v>
+      </c>
+      <c r="R191">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>190</v>
+      </c>
+      <c r="C192" t="s">
+        <v>27</v>
+      </c>
+      <c r="D192" t="s">
+        <v>41</v>
+      </c>
+      <c r="E192" s="2">
+        <v>44584.66666666666</v>
+      </c>
+      <c r="F192" t="s">
+        <v>130</v>
+      </c>
+      <c r="G192" t="s">
+        <v>140</v>
+      </c>
+      <c r="H192" t="s">
+        <v>289</v>
+      </c>
+      <c r="I192" t="s">
+        <v>302</v>
+      </c>
+      <c r="J192">
+        <v>2.11</v>
+      </c>
+      <c r="K192">
+        <v>3.2</v>
+      </c>
+      <c r="L192">
+        <v>3.75</v>
+      </c>
+      <c r="M192">
+        <v>2.12</v>
+      </c>
+      <c r="N192">
+        <v>3.2</v>
+      </c>
+      <c r="O192">
+        <v>3.75</v>
+      </c>
+      <c r="P192">
+        <v>2.18</v>
+      </c>
+      <c r="Q192">
+        <v>3.1</v>
+      </c>
+      <c r="R192">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>191</v>
+      </c>
+      <c r="C193" t="s">
+        <v>23</v>
+      </c>
+      <c r="D193" t="s">
+        <v>37</v>
+      </c>
+      <c r="E193" s="2">
+        <v>44584.6875</v>
+      </c>
+      <c r="F193" t="s">
+        <v>164</v>
+      </c>
+      <c r="G193" t="s">
+        <v>157</v>
+      </c>
+      <c r="H193" t="s">
+        <v>272</v>
+      </c>
+      <c r="I193" t="s">
+        <v>301</v>
+      </c>
+      <c r="J193">
+        <v>3.85</v>
+      </c>
+      <c r="K193">
+        <v>3.85</v>
+      </c>
+      <c r="L193">
+        <v>1.87</v>
+      </c>
+      <c r="M193">
+        <v>3.9</v>
+      </c>
+      <c r="N193">
+        <v>3.8</v>
+      </c>
+      <c r="O193">
+        <v>1.88</v>
+      </c>
+      <c r="P193">
+        <v>3.85</v>
+      </c>
+      <c r="Q193">
+        <v>3.75</v>
+      </c>
+      <c r="R193">
+        <v>1.89</v>
+      </c>
+      <c r="S193">
+        <v>3.9</v>
+      </c>
+      <c r="T193">
+        <v>3.75</v>
+      </c>
+      <c r="U193">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>192</v>
+      </c>
+      <c r="C194" t="s">
+        <v>23</v>
+      </c>
+      <c r="D194" t="s">
+        <v>37</v>
+      </c>
+      <c r="E194" s="2">
+        <v>44584.6875</v>
+      </c>
+      <c r="F194" t="s">
+        <v>99</v>
+      </c>
+      <c r="G194" t="s">
+        <v>257</v>
+      </c>
+      <c r="H194" t="s">
+        <v>275</v>
+      </c>
+      <c r="I194" t="s">
+        <v>302</v>
+      </c>
+      <c r="J194">
+        <v>1.76</v>
+      </c>
+      <c r="K194">
+        <v>3.6</v>
+      </c>
+      <c r="L194">
+        <v>4.8</v>
+      </c>
+      <c r="M194">
+        <v>1.79</v>
+      </c>
+      <c r="N194">
+        <v>3.55</v>
+      </c>
+      <c r="O194">
+        <v>4.7</v>
+      </c>
+      <c r="P194">
+        <v>1.88</v>
+      </c>
+      <c r="Q194">
+        <v>3.35</v>
+      </c>
+      <c r="R194">
+        <v>4.5</v>
+      </c>
+      <c r="S194">
+        <v>1.93</v>
+      </c>
+      <c r="T194">
+        <v>3.35</v>
+      </c>
+      <c r="U194">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>193</v>
+      </c>
+      <c r="C195" t="s">
+        <v>24</v>
+      </c>
+      <c r="D195" t="s">
+        <v>38</v>
+      </c>
+      <c r="E195" s="2">
+        <v>44584.70833333334</v>
+      </c>
+      <c r="F195" t="s">
+        <v>200</v>
+      </c>
+      <c r="G195" t="s">
+        <v>159</v>
+      </c>
+      <c r="H195" t="s">
+        <v>283</v>
+      </c>
+      <c r="I195" t="s">
+        <v>300</v>
+      </c>
+      <c r="J195">
+        <v>2.08</v>
+      </c>
+      <c r="K195">
+        <v>3.2</v>
+      </c>
+      <c r="L195">
+        <v>4.1</v>
+      </c>
+      <c r="M195">
+        <v>2.08</v>
+      </c>
+      <c r="N195">
+        <v>3.2</v>
+      </c>
+      <c r="O195">
+        <v>4.1</v>
+      </c>
+      <c r="P195">
+        <v>2.12</v>
+      </c>
+      <c r="Q195">
+        <v>3.15</v>
+      </c>
+      <c r="R195">
+        <v>4</v>
+      </c>
+      <c r="S195">
+        <v>2.14</v>
+      </c>
+      <c r="T195">
+        <v>3.1</v>
+      </c>
+      <c r="U195">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>194</v>
+      </c>
+      <c r="C196" t="s">
+        <v>24</v>
+      </c>
+      <c r="D196" t="s">
+        <v>38</v>
+      </c>
+      <c r="E196" s="2">
+        <v>44584.70833333334</v>
+      </c>
+      <c r="F196" t="s">
+        <v>201</v>
+      </c>
+      <c r="G196" t="s">
+        <v>256</v>
+      </c>
+      <c r="H196" t="s">
+        <v>283</v>
+      </c>
+      <c r="I196" t="s">
+        <v>300</v>
+      </c>
+      <c r="J196">
+        <v>4.6</v>
+      </c>
+      <c r="K196">
+        <v>3.75</v>
+      </c>
+      <c r="L196">
+        <v>1.82</v>
+      </c>
+      <c r="M196">
+        <v>4.6</v>
+      </c>
+      <c r="N196">
+        <v>3.75</v>
+      </c>
+      <c r="O196">
+        <v>1.81</v>
+      </c>
+      <c r="P196">
+        <v>4.6</v>
+      </c>
+      <c r="Q196">
+        <v>3.7</v>
+      </c>
+      <c r="R196">
+        <v>1.83</v>
+      </c>
+      <c r="S196">
+        <v>4.8</v>
+      </c>
+      <c r="T196">
+        <v>3.8</v>
+      </c>
+      <c r="U196">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>195</v>
+      </c>
+      <c r="C197" t="s">
+        <v>24</v>
+      </c>
+      <c r="D197" t="s">
+        <v>38</v>
+      </c>
+      <c r="E197" s="2">
+        <v>44584.70833333334</v>
+      </c>
+      <c r="F197" t="s">
+        <v>158</v>
+      </c>
+      <c r="G197" t="s">
+        <v>265</v>
+      </c>
+      <c r="H197" t="s">
+        <v>299</v>
+      </c>
+      <c r="I197" t="s">
+        <v>300</v>
+      </c>
+      <c r="J197">
+        <v>4.5</v>
+      </c>
+      <c r="K197">
+        <v>4</v>
+      </c>
+      <c r="L197">
+        <v>1.78</v>
+      </c>
+      <c r="M197">
+        <v>4.5</v>
+      </c>
+      <c r="N197">
+        <v>4</v>
+      </c>
+      <c r="O197">
+        <v>1.78</v>
+      </c>
+      <c r="P197">
+        <v>4.4</v>
+      </c>
+      <c r="Q197">
+        <v>3.95</v>
+      </c>
+      <c r="R197">
+        <v>1.8</v>
+      </c>
+      <c r="S197">
+        <v>4.3</v>
+      </c>
+      <c r="T197">
+        <v>4</v>
+      </c>
+      <c r="U197">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="198" spans="1:21">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>196</v>
+      </c>
+      <c r="C198" t="s">
+        <v>24</v>
+      </c>
+      <c r="D198" t="s">
+        <v>38</v>
+      </c>
+      <c r="E198" s="2">
+        <v>44584.70833333334</v>
+      </c>
+      <c r="F198" t="s">
+        <v>202</v>
+      </c>
+      <c r="G198" t="s">
+        <v>153</v>
+      </c>
+      <c r="H198" t="s">
+        <v>277</v>
+      </c>
+      <c r="I198" t="s">
+        <v>300</v>
+      </c>
+      <c r="J198">
+        <v>2.31</v>
+      </c>
+      <c r="K198">
+        <v>3.15</v>
+      </c>
+      <c r="L198">
+        <v>3.5</v>
+      </c>
+      <c r="M198">
+        <v>2.31</v>
+      </c>
+      <c r="N198">
+        <v>3.15</v>
+      </c>
+      <c r="O198">
+        <v>3.5</v>
+      </c>
+      <c r="P198">
+        <v>2.28</v>
+      </c>
+      <c r="Q198">
+        <v>3.1</v>
+      </c>
+      <c r="R198">
+        <v>3.65</v>
+      </c>
+      <c r="S198">
+        <v>2.28</v>
+      </c>
+      <c r="T198">
+        <v>3.1</v>
+      </c>
+      <c r="U198">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="199" spans="1:21">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>197</v>
+      </c>
+      <c r="C199" t="s">
+        <v>26</v>
+      </c>
+      <c r="D199" t="s">
+        <v>40</v>
+      </c>
+      <c r="E199" s="2">
+        <v>44584.70833333334</v>
+      </c>
+      <c r="F199" t="s">
+        <v>191</v>
+      </c>
+      <c r="G199" t="s">
+        <v>178</v>
+      </c>
+      <c r="H199" t="s">
+        <v>275</v>
+      </c>
+      <c r="I199" t="s">
+        <v>302</v>
+      </c>
+      <c r="J199">
+        <v>2.65</v>
+      </c>
+      <c r="K199">
+        <v>3.5</v>
+      </c>
+      <c r="L199">
+        <v>2.7</v>
+      </c>
+      <c r="M199">
+        <v>2.65</v>
+      </c>
+      <c r="N199">
+        <v>3.5</v>
+      </c>
+      <c r="O199">
+        <v>2.7</v>
+      </c>
+      <c r="P199">
+        <v>2.5</v>
+      </c>
+      <c r="Q199">
+        <v>3.55</v>
+      </c>
+      <c r="R199">
+        <v>2.85</v>
+      </c>
+      <c r="S199">
+        <v>2.65</v>
+      </c>
+      <c r="T199">
+        <v>3.5</v>
+      </c>
+      <c r="U199">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:21">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>198</v>
+      </c>
+      <c r="C200" t="s">
+        <v>25</v>
+      </c>
+      <c r="D200" t="s">
+        <v>39</v>
+      </c>
+      <c r="E200" s="2">
+        <v>44584.70833333334</v>
+      </c>
+      <c r="F200" t="s">
+        <v>116</v>
+      </c>
+      <c r="G200" t="s">
+        <v>137</v>
+      </c>
+      <c r="H200" t="s">
+        <v>275</v>
+      </c>
+      <c r="I200" t="s">
+        <v>302</v>
+      </c>
+      <c r="J200">
+        <v>1.96</v>
+      </c>
+      <c r="K200">
+        <v>3.7</v>
+      </c>
+      <c r="L200">
+        <v>3.95</v>
+      </c>
+      <c r="M200">
+        <v>1.94</v>
+      </c>
+      <c r="N200">
+        <v>3.75</v>
+      </c>
+      <c r="O200">
+        <v>3.95</v>
+      </c>
+      <c r="P200">
+        <v>2.04</v>
+      </c>
+      <c r="Q200">
+        <v>3.55</v>
+      </c>
+      <c r="R200">
+        <v>3.8</v>
+      </c>
+      <c r="S200">
+        <v>2.08</v>
+      </c>
+      <c r="T200">
+        <v>3.55</v>
+      </c>
+      <c r="U200">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="201" spans="1:21">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>199</v>
+      </c>
+      <c r="C201" t="s">
+        <v>26</v>
+      </c>
+      <c r="D201" t="s">
+        <v>40</v>
+      </c>
+      <c r="E201" s="2">
+        <v>44584.70833333334</v>
+      </c>
+      <c r="F201" t="s">
+        <v>203</v>
+      </c>
+      <c r="G201" t="s">
+        <v>266</v>
+      </c>
+      <c r="H201" t="s">
+        <v>289</v>
+      </c>
+      <c r="I201" t="s">
+        <v>302</v>
+      </c>
+      <c r="J201">
+        <v>1.29</v>
+      </c>
+      <c r="K201">
+        <v>5.7</v>
+      </c>
+      <c r="L201">
+        <v>12</v>
+      </c>
+      <c r="M201">
+        <v>1.29</v>
+      </c>
+      <c r="N201">
+        <v>5.7</v>
+      </c>
+      <c r="O201">
+        <v>12</v>
+      </c>
+      <c r="P201">
+        <v>1.29</v>
+      </c>
+      <c r="Q201">
+        <v>5.7</v>
+      </c>
+      <c r="R201">
+        <v>11.5</v>
+      </c>
+      <c r="S201">
+        <v>1.28</v>
+      </c>
+      <c r="T201">
+        <v>5.7</v>
+      </c>
+      <c r="U201">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202" spans="1:21">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>200</v>
+      </c>
+      <c r="C202" t="s">
+        <v>26</v>
+      </c>
+      <c r="D202" t="s">
+        <v>40</v>
+      </c>
+      <c r="E202" s="2">
+        <v>44584.70833333334</v>
+      </c>
+      <c r="F202" t="s">
+        <v>189</v>
+      </c>
+      <c r="G202" t="s">
+        <v>68</v>
+      </c>
+      <c r="H202" t="s">
+        <v>280</v>
+      </c>
+      <c r="I202" t="s">
+        <v>301</v>
+      </c>
+      <c r="J202">
+        <v>6.1</v>
+      </c>
+      <c r="K202">
+        <v>4.3</v>
+      </c>
+      <c r="L202">
+        <v>1.57</v>
+      </c>
+      <c r="M202">
+        <v>6.1</v>
+      </c>
+      <c r="N202">
+        <v>4.3</v>
+      </c>
+      <c r="O202">
+        <v>1.57</v>
+      </c>
+      <c r="P202">
+        <v>6</v>
+      </c>
+      <c r="Q202">
+        <v>4.2</v>
+      </c>
+      <c r="R202">
+        <v>1.58</v>
+      </c>
+      <c r="S202">
+        <v>6.1</v>
+      </c>
+      <c r="T202">
+        <v>4.3</v>
+      </c>
+      <c r="U202">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="203" spans="1:21">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>201</v>
+      </c>
+      <c r="C203" t="s">
+        <v>25</v>
+      </c>
+      <c r="D203" t="s">
+        <v>39</v>
+      </c>
+      <c r="E203" s="2">
+        <v>44584.70833333334</v>
+      </c>
+      <c r="F203" t="s">
+        <v>204</v>
+      </c>
+      <c r="G203" t="s">
+        <v>117</v>
+      </c>
+      <c r="H203" t="s">
+        <v>270</v>
+      </c>
+      <c r="I203" t="s">
+        <v>300</v>
+      </c>
+      <c r="J203">
+        <v>2.7</v>
+      </c>
+      <c r="K203">
+        <v>3.2</v>
+      </c>
+      <c r="L203">
+        <v>2.85</v>
+      </c>
+      <c r="M203">
+        <v>2.7</v>
+      </c>
+      <c r="N203">
+        <v>3.2</v>
+      </c>
+      <c r="O203">
+        <v>2.85</v>
+      </c>
+      <c r="P203">
+        <v>2.7</v>
+      </c>
+      <c r="Q203">
+        <v>3.2</v>
+      </c>
+      <c r="R203">
+        <v>2.85</v>
+      </c>
+      <c r="S203">
+        <v>2.7</v>
+      </c>
+      <c r="T203">
+        <v>3.2</v>
+      </c>
+      <c r="U203">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="204" spans="1:21">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>202</v>
+      </c>
+      <c r="C204" t="s">
+        <v>25</v>
+      </c>
+      <c r="D204" t="s">
+        <v>39</v>
+      </c>
+      <c r="E204" s="2">
+        <v>44584.70833333334</v>
+      </c>
+      <c r="F204" t="s">
+        <v>149</v>
+      </c>
+      <c r="G204" t="s">
+        <v>76</v>
+      </c>
+      <c r="H204" t="s">
+        <v>286</v>
+      </c>
+      <c r="I204" t="s">
+        <v>300</v>
+      </c>
+      <c r="J204">
+        <v>1.11</v>
+      </c>
+      <c r="K204">
+        <v>9.4</v>
+      </c>
+      <c r="L204">
+        <v>31</v>
+      </c>
+      <c r="M204">
+        <v>1.12</v>
+      </c>
+      <c r="N204">
+        <v>9.1</v>
+      </c>
+      <c r="O204">
+        <v>30</v>
+      </c>
+      <c r="P204">
+        <v>1.12</v>
+      </c>
+      <c r="Q204">
+        <v>9.5</v>
+      </c>
+      <c r="R204">
+        <v>27</v>
+      </c>
+      <c r="S204">
+        <v>1.13</v>
+      </c>
+      <c r="T204">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="U204">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="205" spans="1:21">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>203</v>
+      </c>
+      <c r="C205" t="s">
+        <v>29</v>
+      </c>
+      <c r="D205" t="s">
+        <v>43</v>
+      </c>
+      <c r="E205" s="2">
+        <v>44584.72916666666</v>
+      </c>
+      <c r="F205" t="s">
+        <v>205</v>
+      </c>
+      <c r="G205" t="s">
+        <v>219</v>
+      </c>
+      <c r="H205" t="s">
+        <v>273</v>
+      </c>
+      <c r="I205" t="s">
+        <v>300</v>
+      </c>
+      <c r="J205">
+        <v>1.55</v>
+      </c>
+      <c r="K205">
+        <v>4.2</v>
+      </c>
+      <c r="L205">
+        <v>6.6</v>
+      </c>
+      <c r="M205">
+        <v>1.55</v>
+      </c>
+      <c r="N205">
+        <v>4.2</v>
+      </c>
+      <c r="O205">
+        <v>6.5</v>
+      </c>
+      <c r="P205">
+        <v>1.53</v>
+      </c>
+      <c r="Q205">
+        <v>4.2</v>
+      </c>
+      <c r="R205">
+        <v>6.6</v>
+      </c>
+      <c r="S205">
+        <v>1.49</v>
+      </c>
+      <c r="T205">
+        <v>4.5</v>
+      </c>
+      <c r="U205">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206" spans="1:21">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>204</v>
+      </c>
+      <c r="C206" t="s">
+        <v>21</v>
+      </c>
+      <c r="D206" t="s">
+        <v>35</v>
+      </c>
+      <c r="E206" s="2">
+        <v>44584.75</v>
+      </c>
+      <c r="F206" t="s">
+        <v>94</v>
+      </c>
+      <c r="G206" t="s">
+        <v>69</v>
+      </c>
+      <c r="H206" t="s">
+        <v>283</v>
+      </c>
+      <c r="I206" t="s">
+        <v>300</v>
+      </c>
+      <c r="J206">
+        <v>2.05</v>
+      </c>
+      <c r="K206">
+        <v>3.65</v>
+      </c>
+      <c r="L206">
+        <v>3.45</v>
+      </c>
+      <c r="M206">
+        <v>2.04</v>
+      </c>
+      <c r="N206">
+        <v>3.65</v>
+      </c>
+      <c r="O206">
+        <v>3.45</v>
+      </c>
+      <c r="P206">
+        <v>2.12</v>
+      </c>
+      <c r="Q206">
+        <v>3.6</v>
+      </c>
+      <c r="R206">
+        <v>3.3</v>
+      </c>
+      <c r="S206">
+        <v>2.11</v>
+      </c>
+      <c r="T206">
+        <v>3.6</v>
+      </c>
+      <c r="U206">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:21">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>205</v>
+      </c>
+      <c r="C207" t="s">
+        <v>20</v>
+      </c>
+      <c r="D207" t="s">
+        <v>34</v>
+      </c>
+      <c r="E207" s="2">
+        <v>44584.76041666666</v>
+      </c>
+      <c r="F207" t="s">
+        <v>61</v>
+      </c>
+      <c r="G207" t="s">
+        <v>229</v>
+      </c>
+      <c r="H207" t="s">
+        <v>282</v>
+      </c>
+      <c r="I207" t="s">
+        <v>302</v>
+      </c>
+      <c r="J207">
+        <v>1.16</v>
+      </c>
+      <c r="K207">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="L207">
+        <v>18</v>
+      </c>
+      <c r="M207">
+        <v>1.16</v>
+      </c>
+      <c r="N207">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="O207">
+        <v>18</v>
+      </c>
+      <c r="P207">
+        <v>1.18</v>
+      </c>
+      <c r="Q207">
+        <v>7.5</v>
+      </c>
+      <c r="R207">
+        <v>18</v>
+      </c>
+      <c r="S207">
+        <v>1.17</v>
+      </c>
+      <c r="T207">
+        <v>7.9</v>
+      </c>
+      <c r="U207">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="208" spans="1:21">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>206</v>
+      </c>
+      <c r="C208" t="s">
+        <v>32</v>
+      </c>
+      <c r="D208" t="s">
+        <v>45</v>
+      </c>
+      <c r="E208" s="2">
+        <v>44584.76041666666</v>
+      </c>
+      <c r="F208" t="s">
+        <v>206</v>
+      </c>
+      <c r="G208" t="s">
+        <v>122</v>
+      </c>
+      <c r="J208">
+        <v>4.5</v>
+      </c>
+      <c r="K208">
+        <v>3.6</v>
+      </c>
+      <c r="L208">
+        <v>1.81</v>
+      </c>
+      <c r="M208">
+        <v>4.5</v>
+      </c>
+      <c r="N208">
+        <v>3.6</v>
+      </c>
+      <c r="O208">
+        <v>1.81</v>
+      </c>
+      <c r="P208">
+        <v>4.6</v>
+      </c>
+      <c r="Q208">
+        <v>3.55</v>
+      </c>
+      <c r="R208">
+        <v>1.81</v>
+      </c>
+      <c r="S208">
+        <v>4.6</v>
+      </c>
+      <c r="T208">
+        <v>3.55</v>
+      </c>
+      <c r="U208">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="209" spans="1:21">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>207</v>
+      </c>
+      <c r="C209" t="s">
+        <v>32</v>
+      </c>
+      <c r="D209" t="s">
+        <v>45</v>
+      </c>
+      <c r="E209" s="2">
+        <v>44584.76041666666</v>
+      </c>
+      <c r="F209" t="s">
+        <v>207</v>
+      </c>
+      <c r="G209" t="s">
+        <v>126</v>
+      </c>
+      <c r="H209" t="s">
+        <v>279</v>
+      </c>
+      <c r="I209" t="s">
+        <v>301</v>
+      </c>
+      <c r="J209">
+        <v>4.7</v>
+      </c>
+      <c r="K209">
+        <v>3.6</v>
+      </c>
+      <c r="L209">
+        <v>1.79</v>
+      </c>
+      <c r="M209">
+        <v>4.7</v>
+      </c>
+      <c r="N209">
+        <v>3.6</v>
+      </c>
+      <c r="O209">
+        <v>1.79</v>
+      </c>
+      <c r="P209">
+        <v>4.5</v>
+      </c>
+      <c r="Q209">
+        <v>3.65</v>
+      </c>
+      <c r="R209">
+        <v>1.79</v>
+      </c>
+      <c r="S209">
+        <v>4.5</v>
+      </c>
+      <c r="T209">
+        <v>3.65</v>
+      </c>
+      <c r="U209">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="210" spans="1:21">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>208</v>
+      </c>
+      <c r="C210" t="s">
+        <v>22</v>
+      </c>
+      <c r="D210" t="s">
+        <v>36</v>
+      </c>
+      <c r="E210" s="2">
+        <v>44584.77083333334</v>
+      </c>
+      <c r="F210" t="s">
+        <v>208</v>
+      </c>
+      <c r="G210" t="s">
+        <v>267</v>
+      </c>
+      <c r="H210" t="s">
+        <v>276</v>
+      </c>
+      <c r="I210" t="s">
+        <v>300</v>
+      </c>
+      <c r="J210">
+        <v>2.08</v>
+      </c>
+      <c r="K210">
+        <v>3.4</v>
+      </c>
+      <c r="L210">
+        <v>3.6</v>
+      </c>
+      <c r="M210">
+        <v>2.12</v>
+      </c>
+      <c r="N210">
+        <v>3.4</v>
+      </c>
+      <c r="O210">
+        <v>3.5</v>
+      </c>
+      <c r="P210">
+        <v>2.12</v>
+      </c>
+      <c r="Q210">
+        <v>3.4</v>
+      </c>
+      <c r="R210">
+        <v>3.5</v>
+      </c>
+      <c r="S210">
+        <v>2.11</v>
+      </c>
+      <c r="T210">
+        <v>3.35</v>
+      </c>
+      <c r="U210">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="211" spans="1:21">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>209</v>
+      </c>
+      <c r="C211" t="s">
+        <v>22</v>
+      </c>
+      <c r="D211" t="s">
+        <v>36</v>
+      </c>
+      <c r="E211" s="2">
+        <v>44584.77083333334</v>
+      </c>
+      <c r="F211" t="s">
+        <v>190</v>
+      </c>
+      <c r="G211" t="s">
+        <v>196</v>
+      </c>
+      <c r="H211" t="s">
+        <v>275</v>
+      </c>
+      <c r="I211" t="s">
+        <v>302</v>
+      </c>
+      <c r="J211">
+        <v>1.82</v>
+      </c>
+      <c r="K211">
+        <v>3.25</v>
+      </c>
+      <c r="L211">
+        <v>5.1</v>
+      </c>
+      <c r="M211">
+        <v>1.84</v>
+      </c>
+      <c r="N211">
+        <v>3.25</v>
+      </c>
+      <c r="O211">
+        <v>5</v>
+      </c>
+      <c r="P211">
+        <v>1.77</v>
+      </c>
+      <c r="Q211">
+        <v>3.35</v>
+      </c>
+      <c r="R211">
+        <v>5.2</v>
+      </c>
+      <c r="S211">
+        <v>1.76</v>
+      </c>
+      <c r="T211">
+        <v>3.4</v>
+      </c>
+      <c r="U211">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:21">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>210</v>
+      </c>
+      <c r="C212" t="s">
+        <v>23</v>
+      </c>
+      <c r="D212" t="s">
+        <v>37</v>
+      </c>
+      <c r="E212" s="2">
+        <v>44584.78125</v>
+      </c>
+      <c r="F212" t="s">
+        <v>96</v>
+      </c>
+      <c r="G212" t="s">
+        <v>156</v>
+      </c>
+      <c r="H212" t="s">
+        <v>288</v>
+      </c>
+      <c r="I212" t="s">
+        <v>301</v>
+      </c>
+      <c r="J212">
+        <v>3.4</v>
+      </c>
+      <c r="K212">
+        <v>3.5</v>
+      </c>
+      <c r="L212">
+        <v>2.11</v>
+      </c>
+      <c r="M212">
+        <v>3.45</v>
+      </c>
+      <c r="N212">
+        <v>3.35</v>
+      </c>
+      <c r="O212">
+        <v>2.15</v>
+      </c>
+      <c r="P212">
+        <v>3.45</v>
+      </c>
+      <c r="Q212">
+        <v>3.35</v>
+      </c>
+      <c r="R212">
+        <v>2.15</v>
+      </c>
+      <c r="S212">
+        <v>3.45</v>
+      </c>
+      <c r="T212">
+        <v>3.35</v>
+      </c>
+      <c r="U212">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="213" spans="1:21">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>211</v>
+      </c>
+      <c r="C213" t="s">
+        <v>27</v>
+      </c>
+      <c r="D213" t="s">
+        <v>41</v>
+      </c>
+      <c r="E213" s="2">
+        <v>44584.79166666666</v>
+      </c>
+      <c r="F213" t="s">
+        <v>84</v>
+      </c>
+      <c r="G213" t="s">
+        <v>165</v>
+      </c>
+      <c r="H213" t="s">
+        <v>272</v>
+      </c>
+      <c r="I213" t="s">
+        <v>301</v>
+      </c>
+      <c r="P213">
+        <v>2.5</v>
+      </c>
+      <c r="Q213">
+        <v>3.3</v>
+      </c>
+      <c r="R213">
+        <v>2.85</v>
+      </c>
+      <c r="S213">
+        <v>2.41</v>
+      </c>
+      <c r="T213">
+        <v>3.25</v>
+      </c>
+      <c r="U213">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:21">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>212</v>
+      </c>
+      <c r="C214" t="s">
+        <v>24</v>
+      </c>
+      <c r="D214" t="s">
+        <v>38</v>
+      </c>
+      <c r="E214" s="2">
+        <v>44584.79513888889</v>
+      </c>
+      <c r="F214" t="s">
+        <v>154</v>
+      </c>
+      <c r="G214" t="s">
+        <v>161</v>
+      </c>
+      <c r="H214" t="s">
+        <v>284</v>
+      </c>
+      <c r="I214" t="s">
+        <v>300</v>
+      </c>
+      <c r="P214">
+        <v>4.3</v>
+      </c>
+      <c r="Q214">
+        <v>3.65</v>
+      </c>
+      <c r="R214">
+        <v>1.88</v>
+      </c>
+      <c r="S214">
+        <v>4.2</v>
+      </c>
+      <c r="T214">
+        <v>3.7</v>
+      </c>
+      <c r="U214">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="215" spans="1:21">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>213</v>
+      </c>
+      <c r="C215" t="s">
+        <v>29</v>
+      </c>
+      <c r="D215" t="s">
+        <v>43</v>
+      </c>
+      <c r="E215" s="2">
+        <v>44584.8125</v>
+      </c>
+      <c r="F215" t="s">
+        <v>93</v>
+      </c>
+      <c r="G215" t="s">
+        <v>74</v>
+      </c>
+      <c r="H215" t="s">
+        <v>271</v>
+      </c>
+      <c r="I215" t="s">
+        <v>301</v>
+      </c>
+      <c r="S215">
+        <v>13</v>
+      </c>
+      <c r="T215">
+        <v>7.4</v>
+      </c>
+      <c r="U215">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="216" spans="1:21">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>214</v>
+      </c>
+      <c r="C216" t="s">
+        <v>26</v>
+      </c>
+      <c r="D216" t="s">
+        <v>40</v>
+      </c>
+      <c r="E216" s="2">
+        <v>44584.8125</v>
+      </c>
+      <c r="F216" t="s">
+        <v>67</v>
+      </c>
+      <c r="G216" t="s">
+        <v>114</v>
+      </c>
+      <c r="H216" t="s">
+        <v>273</v>
+      </c>
+      <c r="I216" t="s">
+        <v>300</v>
+      </c>
+      <c r="S216">
+        <v>1.79</v>
+      </c>
+      <c r="T216">
+        <v>3.7</v>
+      </c>
+      <c r="U216">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:21">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>215</v>
+      </c>
+      <c r="C217" t="s">
+        <v>25</v>
+      </c>
+      <c r="D217" t="s">
+        <v>39</v>
+      </c>
+      <c r="E217" s="2">
+        <v>44584.83333333334</v>
+      </c>
+      <c r="F217" t="s">
+        <v>150</v>
+      </c>
+      <c r="G217" t="s">
+        <v>64</v>
+      </c>
+      <c r="H217" t="s">
+        <v>294</v>
+      </c>
+      <c r="I217" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="218" spans="1:21">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>216</v>
+      </c>
+      <c r="C218" t="s">
+        <v>21</v>
+      </c>
+      <c r="D218" t="s">
+        <v>35</v>
+      </c>
+      <c r="E218" s="2">
+        <v>44584.85416666666</v>
+      </c>
+      <c r="F218" t="s">
+        <v>183</v>
+      </c>
+      <c r="G218" t="s">
+        <v>193</v>
+      </c>
+      <c r="H218" t="s">
+        <v>281</v>
+      </c>
+      <c r="I218" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="219" spans="1:21">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>217</v>
+      </c>
+      <c r="C219" t="s">
+        <v>20</v>
+      </c>
+      <c r="D219" t="s">
+        <v>34</v>
+      </c>
+      <c r="E219" s="2">
+        <v>44584.85416666666</v>
+      </c>
+      <c r="F219" t="s">
+        <v>209</v>
+      </c>
+      <c r="G219" t="s">
+        <v>107</v>
+      </c>
+      <c r="H219" t="s">
+        <v>281</v>
+      </c>
+      <c r="I219" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="220" spans="1:21">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>218</v>
+      </c>
+      <c r="C220" t="s">
+        <v>20</v>
+      </c>
+      <c r="D220" t="s">
+        <v>34</v>
+      </c>
+      <c r="E220" s="2">
+        <v>44584.85416666666</v>
+      </c>
+      <c r="F220" t="s">
+        <v>210</v>
+      </c>
+      <c r="G220" t="s">
+        <v>121</v>
+      </c>
+      <c r="H220" t="s">
+        <v>289</v>
+      </c>
+      <c r="I220" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="221" spans="1:21">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>219</v>
+      </c>
+      <c r="C221" t="s">
+        <v>32</v>
+      </c>
+      <c r="D221" t="s">
+        <v>45</v>
+      </c>
+      <c r="E221" s="2">
+        <v>44584.85416666666</v>
+      </c>
+      <c r="F221" t="s">
+        <v>211</v>
+      </c>
+      <c r="G221" t="s">
+        <v>194</v>
+      </c>
+      <c r="H221" t="s">
+        <v>273</v>
+      </c>
+      <c r="I221" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="222" spans="1:21">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>220</v>
+      </c>
+      <c r="C222" t="s">
+        <v>22</v>
+      </c>
+      <c r="D222" t="s">
+        <v>36</v>
+      </c>
+      <c r="E222" s="2">
+        <v>44584.875</v>
+      </c>
+      <c r="F222" t="s">
+        <v>104</v>
+      </c>
+      <c r="G222" t="s">
+        <v>83</v>
+      </c>
+      <c r="H222" t="s">
+        <v>270</v>
+      </c>
+      <c r="I222" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="223" spans="1:21">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>221</v>
+      </c>
+      <c r="C223" t="s">
+        <v>23</v>
+      </c>
+      <c r="D223" t="s">
+        <v>37</v>
+      </c>
+      <c r="E223" s="2">
+        <v>44584.91666666666</v>
+      </c>
+      <c r="F223" t="s">
+        <v>110</v>
+      </c>
+      <c r="G223" t="s">
+        <v>82</v>
+      </c>
+      <c r="H223" t="s">
+        <v>283</v>
+      </c>
+      <c r="I223" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="224" spans="1:21">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>222</v>
+      </c>
+      <c r="C224" t="s">
+        <v>24</v>
+      </c>
+      <c r="D224" t="s">
+        <v>38</v>
+      </c>
+      <c r="E224" s="2">
+        <v>44584.94791666666</v>
+      </c>
+      <c r="F224" t="s">
+        <v>60</v>
+      </c>
+      <c r="G224" t="s">
+        <v>252</v>
+      </c>
+      <c r="H224" t="s">
+        <v>269</v>
+      </c>
+      <c r="I224" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="225" spans="1:21">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>223</v>
+      </c>
+      <c r="C225" t="s">
+        <v>25</v>
+      </c>
+      <c r="D225" t="s">
+        <v>39</v>
+      </c>
+      <c r="E225" s="2">
+        <v>44584.94791666666</v>
+      </c>
+      <c r="F225" t="s">
+        <v>125</v>
+      </c>
+      <c r="G225" t="s">
+        <v>227</v>
+      </c>
+      <c r="H225" t="s">
+        <v>289</v>
+      </c>
+      <c r="I225" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="226" spans="1:21">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>224</v>
+      </c>
+      <c r="C226" t="s">
+        <v>20</v>
+      </c>
+      <c r="D226" t="s">
+        <v>34</v>
+      </c>
+      <c r="E226" s="2">
+        <v>44584.95833333334</v>
+      </c>
+      <c r="F226" t="s">
+        <v>212</v>
+      </c>
+      <c r="G226" t="s">
+        <v>92</v>
+      </c>
+      <c r="H226" t="s">
+        <v>281</v>
+      </c>
+      <c r="I226" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="227" spans="1:21">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>225</v>
+      </c>
+      <c r="C227" t="s">
+        <v>21</v>
+      </c>
+      <c r="D227" t="s">
+        <v>35</v>
+      </c>
+      <c r="E227" s="2">
+        <v>44584.95833333334</v>
+      </c>
+      <c r="F227" t="s">
+        <v>166</v>
+      </c>
+      <c r="G227" t="s">
+        <v>95</v>
+      </c>
+      <c r="H227" t="s">
+        <v>276</v>
+      </c>
+      <c r="I227" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="228" spans="1:21">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>226</v>
+      </c>
+      <c r="C228" t="s">
+        <v>22</v>
+      </c>
+      <c r="D228" t="s">
+        <v>36</v>
+      </c>
+      <c r="E228" s="2">
+        <v>44584.97916666666</v>
+      </c>
+      <c r="F228" t="s">
+        <v>63</v>
+      </c>
+      <c r="G228" t="s">
+        <v>58</v>
+      </c>
+      <c r="H228" t="s">
+        <v>276</v>
+      </c>
+      <c r="I228" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="229" spans="1:21">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>227</v>
+      </c>
+      <c r="C229" t="s">
+        <v>32</v>
+      </c>
+      <c r="D229" t="s">
+        <v>45</v>
+      </c>
+      <c r="E229" s="2">
+        <v>44585.85416666666</v>
+      </c>
+      <c r="F229" t="s">
+        <v>213</v>
+      </c>
+      <c r="G229" t="s">
+        <v>268</v>
+      </c>
+      <c r="J229">
+        <v>1.42</v>
+      </c>
+      <c r="K229">
+        <v>4.1</v>
+      </c>
+      <c r="L229">
+        <v>9.4</v>
+      </c>
+      <c r="M229">
+        <v>1.42</v>
+      </c>
+      <c r="N229">
+        <v>4.1</v>
+      </c>
+      <c r="O229">
+        <v>9.1</v>
+      </c>
+      <c r="P229">
+        <v>1.44</v>
+      </c>
+      <c r="Q229">
+        <v>4</v>
+      </c>
+      <c r="R229">
+        <v>9.1</v>
+      </c>
+      <c r="S229">
+        <v>1.42</v>
+      </c>
+      <c r="T229">
+        <v>4</v>
+      </c>
+      <c r="U229">
+        <v>9.5</v>
       </c>
     </row>
   </sheetData>

--- a/df_general.xlsx
+++ b/df_general.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="303">
   <si>
     <t>GAME_ID</t>
   </si>
@@ -658,6 +658,12 @@
     <t>Астерас Триполис</t>
   </si>
   <si>
+    <t>Антверпен</t>
+  </si>
+  <si>
+    <t>Эшторил</t>
+  </si>
+  <si>
     <t>Атлетико Мадрид</t>
   </si>
   <si>
@@ -751,9 +757,6 @@
     <t>Осасуна</t>
   </si>
   <si>
-    <t>Антверпен</t>
-  </si>
-  <si>
     <t>ОФИ</t>
   </si>
   <si>
@@ -815,9 +818,6 @@
   </si>
   <si>
     <t>Бернли</t>
-  </si>
-  <si>
-    <t>Эшторил</t>
   </si>
   <si>
     <t>Аполлон Смирна</t>
@@ -1284,7 +1284,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U229"/>
+  <dimension ref="A1:U243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1679,7 +1679,7 @@
         <v>61</v>
       </c>
       <c r="G7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H7" t="s">
         <v>273</v>
@@ -1809,7 +1809,7 @@
         <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H9" t="s">
         <v>270</v>
@@ -2069,7 +2069,7 @@
         <v>67</v>
       </c>
       <c r="G13" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H13" t="s">
         <v>275</v>
@@ -2201,7 +2201,7 @@
         <v>67</v>
       </c>
       <c r="G16" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H16" t="s">
         <v>275</v>
@@ -2398,7 +2398,7 @@
         <v>71</v>
       </c>
       <c r="G20" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H20" t="s">
         <v>274</v>
@@ -2463,7 +2463,7 @@
         <v>72</v>
       </c>
       <c r="G21" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H21" t="s">
         <v>276</v>
@@ -2593,7 +2593,7 @@
         <v>74</v>
       </c>
       <c r="G23" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H23" t="s">
         <v>269</v>
@@ -2658,7 +2658,7 @@
         <v>75</v>
       </c>
       <c r="G24" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H24" t="s">
         <v>270</v>
@@ -2788,7 +2788,7 @@
         <v>77</v>
       </c>
       <c r="G26" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H26" t="s">
         <v>279</v>
@@ -2853,7 +2853,7 @@
         <v>78</v>
       </c>
       <c r="G27" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H27" t="s">
         <v>276</v>
@@ -2983,7 +2983,7 @@
         <v>80</v>
       </c>
       <c r="G29" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H29" t="s">
         <v>275</v>
@@ -3048,7 +3048,7 @@
         <v>81</v>
       </c>
       <c r="G30" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H30" t="s">
         <v>281</v>
@@ -3301,7 +3301,7 @@
         <v>86</v>
       </c>
       <c r="G35" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H35" t="s">
         <v>279</v>
@@ -3366,7 +3366,7 @@
         <v>87</v>
       </c>
       <c r="G36" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H36" t="s">
         <v>281</v>
@@ -3431,7 +3431,7 @@
         <v>88</v>
       </c>
       <c r="G37" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H37" t="s">
         <v>279</v>
@@ -3496,7 +3496,7 @@
         <v>89</v>
       </c>
       <c r="G38" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H38" t="s">
         <v>276</v>
@@ -3691,7 +3691,7 @@
         <v>92</v>
       </c>
       <c r="G41" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H41" t="s">
         <v>284</v>
@@ -3756,7 +3756,7 @@
         <v>93</v>
       </c>
       <c r="G42" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H42" t="s">
         <v>284</v>
@@ -4016,7 +4016,7 @@
         <v>97</v>
       </c>
       <c r="G46" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H46" t="s">
         <v>285</v>
@@ -4146,7 +4146,7 @@
         <v>99</v>
       </c>
       <c r="G48" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H48" t="s">
         <v>277</v>
@@ -4211,7 +4211,7 @@
         <v>100</v>
       </c>
       <c r="G49" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H49" t="s">
         <v>279</v>
@@ -4341,7 +4341,7 @@
         <v>101</v>
       </c>
       <c r="G51" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H51" t="s">
         <v>287</v>
@@ -4406,7 +4406,7 @@
         <v>102</v>
       </c>
       <c r="G52" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H52" t="s">
         <v>280</v>
@@ -4471,7 +4471,7 @@
         <v>103</v>
       </c>
       <c r="G53" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H53" t="s">
         <v>283</v>
@@ -4536,7 +4536,7 @@
         <v>104</v>
       </c>
       <c r="G54" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H54" t="s">
         <v>279</v>
@@ -4760,7 +4760,7 @@
         <v>108</v>
       </c>
       <c r="G58" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H58" t="s">
         <v>289</v>
@@ -4816,7 +4816,7 @@
         <v>109</v>
       </c>
       <c r="G59" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H59" t="s">
         <v>289</v>
@@ -4993,7 +4993,7 @@
         <v>112</v>
       </c>
       <c r="G62" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H62" t="s">
         <v>283</v>
@@ -5152,7 +5152,7 @@
         <v>109</v>
       </c>
       <c r="G65" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H65" t="s">
         <v>273</v>
@@ -5217,7 +5217,7 @@
         <v>108</v>
       </c>
       <c r="G66" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H66" t="s">
         <v>282</v>
@@ -5412,7 +5412,7 @@
         <v>113</v>
       </c>
       <c r="G69" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H69" t="s">
         <v>288</v>
@@ -5542,7 +5542,7 @@
         <v>115</v>
       </c>
       <c r="G71" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H71" t="s">
         <v>270</v>
@@ -5802,7 +5802,7 @@
         <v>119</v>
       </c>
       <c r="G75" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H75" t="s">
         <v>270</v>
@@ -5867,7 +5867,7 @@
         <v>120</v>
       </c>
       <c r="G76" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H76" t="s">
         <v>291</v>
@@ -5932,7 +5932,7 @@
         <v>121</v>
       </c>
       <c r="G77" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H77" t="s">
         <v>270</v>
@@ -6127,7 +6127,7 @@
         <v>69</v>
       </c>
       <c r="G80" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="H80" t="s">
         <v>275</v>
@@ -6322,7 +6322,7 @@
         <v>126</v>
       </c>
       <c r="G83" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H83" t="s">
         <v>272</v>
@@ -6387,7 +6387,7 @@
         <v>127</v>
       </c>
       <c r="G84" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H84" t="s">
         <v>270</v>
@@ -6452,7 +6452,7 @@
         <v>128</v>
       </c>
       <c r="G85" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H85" t="s">
         <v>292</v>
@@ -6517,7 +6517,7 @@
         <v>126</v>
       </c>
       <c r="G86" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H86" t="s">
         <v>272</v>
@@ -6582,7 +6582,7 @@
         <v>127</v>
       </c>
       <c r="G87" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H87" t="s">
         <v>270</v>
@@ -6647,7 +6647,7 @@
         <v>128</v>
       </c>
       <c r="G88" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H88" t="s">
         <v>292</v>
@@ -7725,7 +7725,7 @@
         <v>144</v>
       </c>
       <c r="G105" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H105" t="s">
         <v>288</v>
@@ -7790,7 +7790,7 @@
         <v>145</v>
       </c>
       <c r="G106" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H106" t="s">
         <v>283</v>
@@ -7855,7 +7855,7 @@
         <v>99</v>
       </c>
       <c r="G107" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H107" t="s">
         <v>275</v>
@@ -7920,7 +7920,7 @@
         <v>146</v>
       </c>
       <c r="G108" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H108" t="s">
         <v>272</v>
@@ -8310,7 +8310,7 @@
         <v>152</v>
       </c>
       <c r="G114" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H114" t="s">
         <v>275</v>
@@ -8505,7 +8505,7 @@
         <v>155</v>
       </c>
       <c r="G117" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H117" t="s">
         <v>283</v>
@@ -8570,7 +8570,7 @@
         <v>156</v>
       </c>
       <c r="G118" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H118" t="s">
         <v>275</v>
@@ -8700,7 +8700,7 @@
         <v>158</v>
       </c>
       <c r="G120" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H120" t="s">
         <v>295</v>
@@ -8765,7 +8765,7 @@
         <v>159</v>
       </c>
       <c r="G121" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H121" t="s">
         <v>275</v>
@@ -8895,7 +8895,7 @@
         <v>161</v>
       </c>
       <c r="G123" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H123" t="s">
         <v>283</v>
@@ -9090,7 +9090,7 @@
         <v>164</v>
       </c>
       <c r="G126" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H126" t="s">
         <v>273</v>
@@ -9799,7 +9799,7 @@
         <v>169</v>
       </c>
       <c r="G137" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H137" t="s">
         <v>283</v>
@@ -9864,7 +9864,7 @@
         <v>170</v>
       </c>
       <c r="G138" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H138" t="s">
         <v>283</v>
@@ -9994,7 +9994,7 @@
         <v>172</v>
       </c>
       <c r="G140" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H140" t="s">
         <v>283</v>
@@ -10570,7 +10570,7 @@
         <v>178</v>
       </c>
       <c r="G149" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H149" t="s">
         <v>273</v>
@@ -10830,7 +10830,7 @@
         <v>182</v>
       </c>
       <c r="G153" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H153" t="s">
         <v>288</v>
@@ -10960,7 +10960,7 @@
         <v>184</v>
       </c>
       <c r="G155" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H155" t="s">
         <v>275</v>
@@ -11545,7 +11545,7 @@
         <v>192</v>
       </c>
       <c r="G164" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H164" t="s">
         <v>282</v>
@@ -11843,7 +11843,7 @@
         <v>124</v>
       </c>
       <c r="G169" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H169" t="s">
         <v>279</v>
@@ -11908,7 +11908,7 @@
         <v>58</v>
       </c>
       <c r="G170" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J170">
         <v>2.05</v>
@@ -12032,7 +12032,7 @@
         <v>152</v>
       </c>
       <c r="G172" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H172" t="s">
         <v>275</v>
@@ -12357,7 +12357,7 @@
         <v>197</v>
       </c>
       <c r="G177" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H177" t="s">
         <v>298</v>
@@ -12880,7 +12880,7 @@
         <v>127</v>
       </c>
       <c r="G188" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H188" t="s">
         <v>289</v>
@@ -12936,7 +12936,7 @@
         <v>145</v>
       </c>
       <c r="G189" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H189" t="s">
         <v>279</v>
@@ -13225,7 +13225,7 @@
         <v>99</v>
       </c>
       <c r="G194" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H194" t="s">
         <v>275</v>
@@ -13355,7 +13355,7 @@
         <v>201</v>
       </c>
       <c r="G196" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H196" t="s">
         <v>283</v>
@@ -13420,7 +13420,7 @@
         <v>158</v>
       </c>
       <c r="G197" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H197" t="s">
         <v>299</v>
@@ -13680,7 +13680,7 @@
         <v>203</v>
       </c>
       <c r="G201" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H201" t="s">
         <v>289</v>
@@ -13940,7 +13940,7 @@
         <v>205</v>
       </c>
       <c r="G205" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H205" t="s">
         <v>273</v>
@@ -14070,7 +14070,7 @@
         <v>61</v>
       </c>
       <c r="G207" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H207" t="s">
         <v>282</v>
@@ -14259,7 +14259,7 @@
         <v>208</v>
       </c>
       <c r="G210" t="s">
-        <v>267</v>
+        <v>215</v>
       </c>
       <c r="H210" t="s">
         <v>276</v>
@@ -14827,7 +14827,7 @@
         <v>60</v>
       </c>
       <c r="G224" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H224" t="s">
         <v>269</v>
@@ -14856,7 +14856,7 @@
         <v>125</v>
       </c>
       <c r="G225" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H225" t="s">
         <v>289</v>
@@ -15009,6 +15009,427 @@
       </c>
       <c r="U229">
         <v>9.5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:21">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>228</v>
+      </c>
+      <c r="C230" t="s">
+        <v>21</v>
+      </c>
+      <c r="D230" t="s">
+        <v>35</v>
+      </c>
+      <c r="E230" s="2">
+        <v>44586.86458333334</v>
+      </c>
+      <c r="F230" t="s">
+        <v>214</v>
+      </c>
+      <c r="G230" t="s">
+        <v>186</v>
+      </c>
+      <c r="H230" t="s">
+        <v>275</v>
+      </c>
+      <c r="I230" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="231" spans="1:21">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>229</v>
+      </c>
+      <c r="C231" t="s">
+        <v>33</v>
+      </c>
+      <c r="D231" t="s">
+        <v>46</v>
+      </c>
+      <c r="E231" s="2">
+        <v>44586.94791666666</v>
+      </c>
+      <c r="F231" t="s">
+        <v>148</v>
+      </c>
+      <c r="G231" t="s">
+        <v>170</v>
+      </c>
+      <c r="H231" t="s">
+        <v>270</v>
+      </c>
+      <c r="I231" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="232" spans="1:21">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>230</v>
+      </c>
+      <c r="C232" t="s">
+        <v>21</v>
+      </c>
+      <c r="D232" t="s">
+        <v>35</v>
+      </c>
+      <c r="E232" s="2">
+        <v>44586.95833333334</v>
+      </c>
+      <c r="F232" t="s">
+        <v>182</v>
+      </c>
+      <c r="G232" t="s">
+        <v>223</v>
+      </c>
+      <c r="H232" t="s">
+        <v>275</v>
+      </c>
+      <c r="I232" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="233" spans="1:21">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>231</v>
+      </c>
+      <c r="C233" t="s">
+        <v>21</v>
+      </c>
+      <c r="D233" t="s">
+        <v>35</v>
+      </c>
+      <c r="E233" s="2">
+        <v>44586.95833333334</v>
+      </c>
+      <c r="F233" t="s">
+        <v>57</v>
+      </c>
+      <c r="G233" t="s">
+        <v>179</v>
+      </c>
+      <c r="H233" t="s">
+        <v>275</v>
+      </c>
+      <c r="I233" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="234" spans="1:21">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>232</v>
+      </c>
+      <c r="C234" t="s">
+        <v>33</v>
+      </c>
+      <c r="D234" t="s">
+        <v>46</v>
+      </c>
+      <c r="E234" s="2">
+        <v>44587.94791666666</v>
+      </c>
+      <c r="F234" t="s">
+        <v>172</v>
+      </c>
+      <c r="G234" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="235" spans="1:21">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>233</v>
+      </c>
+      <c r="C235" t="s">
+        <v>33</v>
+      </c>
+      <c r="D235" t="s">
+        <v>46</v>
+      </c>
+      <c r="E235" s="2">
+        <v>44587.94791666666</v>
+      </c>
+      <c r="F235" t="s">
+        <v>146</v>
+      </c>
+      <c r="G235" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="236" spans="1:21">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>234</v>
+      </c>
+      <c r="C236" t="s">
+        <v>33</v>
+      </c>
+      <c r="D236" t="s">
+        <v>46</v>
+      </c>
+      <c r="E236" s="2">
+        <v>44587.94791666666</v>
+      </c>
+      <c r="F236" t="s">
+        <v>169</v>
+      </c>
+      <c r="G236" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="237" spans="1:21">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>235</v>
+      </c>
+      <c r="C237" t="s">
+        <v>33</v>
+      </c>
+      <c r="D237" t="s">
+        <v>46</v>
+      </c>
+      <c r="E237" s="2">
+        <v>44587.94791666666</v>
+      </c>
+      <c r="F237" t="s">
+        <v>176</v>
+      </c>
+      <c r="G237" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="238" spans="1:21">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>236</v>
+      </c>
+      <c r="C238" t="s">
+        <v>33</v>
+      </c>
+      <c r="D238" t="s">
+        <v>46</v>
+      </c>
+      <c r="E238" s="2">
+        <v>44587.94791666666</v>
+      </c>
+      <c r="F238" t="s">
+        <v>171</v>
+      </c>
+      <c r="G238" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="239" spans="1:21">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>237</v>
+      </c>
+      <c r="C239" t="s">
+        <v>21</v>
+      </c>
+      <c r="D239" t="s">
+        <v>35</v>
+      </c>
+      <c r="E239" s="2">
+        <v>44588.94791666666</v>
+      </c>
+      <c r="F239" t="s">
+        <v>62</v>
+      </c>
+      <c r="G239" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="240" spans="1:21">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>238</v>
+      </c>
+      <c r="C240" t="s">
+        <v>22</v>
+      </c>
+      <c r="D240" t="s">
+        <v>36</v>
+      </c>
+      <c r="E240" s="2">
+        <v>44588.96875</v>
+      </c>
+      <c r="F240" t="s">
+        <v>215</v>
+      </c>
+      <c r="G240" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="241" spans="1:21">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>239</v>
+      </c>
+      <c r="C241" t="s">
+        <v>21</v>
+      </c>
+      <c r="D241" t="s">
+        <v>35</v>
+      </c>
+      <c r="E241" s="2">
+        <v>44588.94791666666</v>
+      </c>
+      <c r="F241" t="s">
+        <v>62</v>
+      </c>
+      <c r="G241" t="s">
+        <v>94</v>
+      </c>
+      <c r="H241" t="s">
+        <v>289</v>
+      </c>
+      <c r="I241" t="s">
+        <v>302</v>
+      </c>
+      <c r="J241">
+        <v>2.23</v>
+      </c>
+      <c r="K241">
+        <v>3.8</v>
+      </c>
+      <c r="L241">
+        <v>2.95</v>
+      </c>
+      <c r="M241">
+        <v>2.26</v>
+      </c>
+      <c r="N241">
+        <v>3.8</v>
+      </c>
+      <c r="O241">
+        <v>2.9</v>
+      </c>
+      <c r="P241">
+        <v>2.31</v>
+      </c>
+      <c r="Q241">
+        <v>3.7</v>
+      </c>
+      <c r="R241">
+        <v>2.85</v>
+      </c>
+      <c r="S241">
+        <v>2.28</v>
+      </c>
+      <c r="T241">
+        <v>3.65</v>
+      </c>
+      <c r="U241">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="242" spans="1:21">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>240</v>
+      </c>
+      <c r="C242" t="s">
+        <v>22</v>
+      </c>
+      <c r="D242" t="s">
+        <v>36</v>
+      </c>
+      <c r="E242" s="2">
+        <v>44588.96875</v>
+      </c>
+      <c r="F242" t="s">
+        <v>215</v>
+      </c>
+      <c r="G242" t="s">
+        <v>66</v>
+      </c>
+      <c r="H242" t="s">
+        <v>272</v>
+      </c>
+      <c r="I242" t="s">
+        <v>301</v>
+      </c>
+      <c r="J242">
+        <v>1.98</v>
+      </c>
+      <c r="K242">
+        <v>3.25</v>
+      </c>
+      <c r="L242">
+        <v>4.1</v>
+      </c>
+      <c r="M242">
+        <v>1.98</v>
+      </c>
+      <c r="N242">
+        <v>3.25</v>
+      </c>
+      <c r="O242">
+        <v>4.1</v>
+      </c>
+      <c r="P242">
+        <v>2</v>
+      </c>
+      <c r="Q242">
+        <v>3.2</v>
+      </c>
+      <c r="R242">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:21">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>241</v>
+      </c>
+      <c r="C243" t="s">
+        <v>21</v>
+      </c>
+      <c r="D243" t="s">
+        <v>35</v>
+      </c>
+      <c r="E243" s="2">
+        <v>44589.94791666666</v>
+      </c>
+      <c r="F243" t="s">
+        <v>186</v>
+      </c>
+      <c r="G243" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
